--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_ICPData.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_ICPData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98E6CAB-E082-8E4A-B223-8FA03870222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0AB64-4F84-514E-A57F-00D049D92662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,16 +201,10 @@
     <t>7_14Oct20</t>
   </si>
   <si>
-    <t>8_14Oct21</t>
-  </si>
-  <si>
     <t>5_26Oct20</t>
   </si>
   <si>
     <t>7_26Oct20</t>
-  </si>
-  <si>
-    <t>8_26Oct21</t>
   </si>
   <si>
     <t>9_1</t>
@@ -329,6 +323,12 @@
   <si>
     <t>10_2</t>
   </si>
+  <si>
+    <t>8_26Oct20</t>
+  </si>
+  <si>
+    <t>8_14Oct20</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,11 +349,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -385,6 +394,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3224,8 +3234,8 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>58</v>
+      <c r="A32" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B32" s="2">
         <v>5.8764144982184172</v>
@@ -3317,7 +3327,7 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2">
         <v>5.3038395699447687</v>
@@ -3409,7 +3419,7 @@
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
         <v>9.3573618111318542</v>
@@ -3500,8 +3510,8 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>61</v>
+      <c r="A35" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B35" s="2">
         <v>5.4535636015238982</v>
@@ -3593,7 +3603,7 @@
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2">
         <v>0.55448592131689689</v>
@@ -3685,7 +3695,7 @@
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2">
         <v>-2.6567255875510013E-2</v>
@@ -3777,7 +3787,7 @@
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2">
         <v>6.6486441995726562</v>
@@ -3869,7 +3879,7 @@
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2">
         <v>6.3589056103979038</v>
@@ -3961,7 +3971,7 @@
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2">
         <v>8.1027974043609152</v>
@@ -4053,7 +4063,7 @@
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2">
         <v>5.5269009948451231</v>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2">
         <v>8.8030441145059921</v>
@@ -4237,7 +4247,7 @@
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2">
         <v>5.8422500845947063</v>
@@ -4329,7 +4339,7 @@
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2">
         <v>6.1821912498755438</v>
@@ -4421,7 +4431,7 @@
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2">
         <v>5.1919047030860375</v>
@@ -4513,7 +4523,7 @@
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2">
         <v>6.4351003323760825</v>
@@ -4605,7 +4615,7 @@
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2">
         <v>6.0450030262793693</v>
@@ -4697,7 +4707,7 @@
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2">
         <v>6.3242557019900962</v>
@@ -4789,7 +4799,7 @@
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2">
         <v>9.7799538250552178</v>
@@ -4881,7 +4891,7 @@
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2">
         <v>5.3656574019361072</v>
@@ -4973,7 +4983,7 @@
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2">
         <v>6.492441314611205</v>
@@ -5065,7 +5075,7 @@
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2">
         <v>5.8136725426986127</v>
@@ -5157,7 +5167,7 @@
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2">
         <v>5.8056036886041671</v>
@@ -5249,7 +5259,7 @@
     </row>
     <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2">
         <v>4.6714060304004938</v>
@@ -5341,7 +5351,7 @@
     </row>
     <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2">
         <v>4.3690813670340196</v>
@@ -5433,7 +5443,7 @@
     </row>
     <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2">
         <v>4.6437350038283816</v>
@@ -5525,7 +5535,7 @@
     </row>
     <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2">
         <v>5.4313735108352725</v>
@@ -5617,7 +5627,7 @@
     </row>
     <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2">
         <v>4.4582152049868151</v>
@@ -5709,7 +5719,7 @@
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2">
         <v>4.2322951029423015</v>
@@ -5801,7 +5811,7 @@
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2">
         <v>5.0514824582278877</v>
@@ -5893,7 +5903,7 @@
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2">
         <v>4.7784801005361874</v>
@@ -5985,7 +5995,7 @@
     </row>
     <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
         <v>4.9230462511921136</v>
@@ -6077,7 +6087,7 @@
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
         <v>6.2533027574346569</v>
@@ -6169,7 +6179,7 @@
     </row>
     <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
         <v>4.5219597008343007</v>
@@ -6261,7 +6271,7 @@
     </row>
     <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
         <v>4.7730887263501049</v>
@@ -6353,7 +6363,7 @@
     </row>
     <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2">
         <v>4.4167577487589753</v>
@@ -6445,7 +6455,7 @@
     </row>
     <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2">
         <v>5.0716521602893154</v>
@@ -6537,7 +6547,7 @@
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2">
         <v>4.0060451235039167</v>
@@ -6629,7 +6639,7 @@
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2">
         <v>3.8313671386399974</v>
@@ -6721,7 +6731,7 @@
     </row>
     <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
         <v>4.0555596584065716</v>
@@ -6813,7 +6823,7 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2">
         <v>5.7427702909363383</v>
@@ -6905,7 +6915,7 @@
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2">
         <v>3.8480074464773666</v>
@@ -6997,7 +7007,7 @@
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2">
         <v>0.59557478666387076</v>
@@ -7089,7 +7099,7 @@
     </row>
     <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2">
         <v>-5.2419667483812306E-2</v>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_ICPData.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2020_ICPData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0AB64-4F84-514E-A57F-00D049D92662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727A6E1-69CE-0040-B8E5-3B610122C56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cece" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>ICP-MS Data</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>238U (STDR)</t>
-  </si>
-  <si>
-    <t>Y (ppb)</t>
-  </si>
-  <si>
-    <t>Y (ppm)</t>
   </si>
   <si>
     <t>Cece</t>
@@ -610,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AD998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -692,7 +686,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -814,215 +808,279 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>30</v>
+      <c r="B5" s="2">
+        <v>10.689976870856199</v>
+      </c>
+      <c r="C5" s="2">
+        <v>104.35035755489312</v>
+      </c>
+      <c r="D5" s="2">
+        <v>592.0862506290689</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2298.2352620776369</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.923430180511128</v>
+      </c>
+      <c r="G5" s="2">
+        <v>225.83194260556778</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.9250987160793931E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.1973938850330747</v>
+      </c>
+      <c r="J5" s="2">
+        <v>224.49671914888157</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3634.232686506235</v>
+      </c>
+      <c r="L5" s="2">
+        <v>95.165982255881602</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.603933800975101</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.892957664579926</v>
+      </c>
+      <c r="O5" s="2">
+        <v>7578.6610552184802</v>
+      </c>
+      <c r="P5" s="2">
+        <v>725.08908883925085</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3.009330261724537</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.43868097704469705</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6.9001202502003611</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8.027667049197321</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.32028992168413328</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-0.51045143673119342</v>
+      </c>
+      <c r="W5" s="2">
+        <v>8.2907324063616823</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.46357286696947037</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>6.5603729926988819E-2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>3.5021025179250674E-2</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1.3149957606638791</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45.397182138131072</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>3.6957366471185291</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.22996124931656198</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.2643756459748481</v>
+      </c>
+      <c r="C6" s="2">
+        <v>109.60107670791213</v>
+      </c>
+      <c r="D6" s="2">
+        <v>433.43181991605809</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1899.7617186812174</v>
+      </c>
+      <c r="F6" s="2">
+        <v>54.218289419245245</v>
+      </c>
+      <c r="G6" s="2">
+        <v>193.04579536166821</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.40059690367164758</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.4349671259258051E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>193.15519120858687</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2743.9984179478492</v>
+      </c>
+      <c r="L6" s="2">
+        <v>80.960162851390251</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.0452994297182769</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.4915061195982076</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8636.2316464698561</v>
+      </c>
+      <c r="P6" s="2">
+        <v>266.08909729003204</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.8913422749164825</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.29850495872004795</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5.9644460437407032</v>
+      </c>
+      <c r="T6" s="2">
+        <v>5.0284857442145556</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.30634396880551046</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-0.59691467869941484</v>
+      </c>
+      <c r="W6" s="2">
+        <v>6.3593823273779799</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.33174788471185196</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>5.4364840890116124E-2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>3.3162184924872933E-2</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.91230685339606221</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>35.593614979255079</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>3.0212045991399621</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.13658254043926127</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>10.689976870856199</v>
+        <v>11.310997590705496</v>
       </c>
       <c r="C7" s="2">
-        <v>104.35035755489312</v>
+        <v>124.02009420282282</v>
       </c>
       <c r="D7" s="2">
-        <v>592.0862506290689</v>
+        <v>374.35701995419225</v>
       </c>
       <c r="E7" s="2">
-        <v>2298.2352620776369</v>
+        <v>1691.2689925247844</v>
       </c>
       <c r="F7" s="2">
-        <v>10.923430180511128</v>
+        <v>257.71327707489627</v>
       </c>
       <c r="G7" s="2">
-        <v>225.83194260556778</v>
+        <v>456.40857726682214</v>
       </c>
       <c r="H7" s="2">
-        <v>1.9250987160793931E-2</v>
+        <v>1.4524335926617307</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1973938850330747</v>
+        <v>0.57662341146945217</v>
       </c>
       <c r="J7" s="2">
-        <v>224.49671914888157</v>
+        <v>245.01928218183303</v>
       </c>
       <c r="K7" s="2">
-        <v>3634.232686506235</v>
+        <v>2479.3124144319581</v>
       </c>
       <c r="L7" s="2">
-        <v>95.165982255881602</v>
+        <v>93.016602349055148</v>
       </c>
       <c r="M7" s="2">
-        <v>2.603933800975101</v>
+        <v>2.0743573887405145</v>
       </c>
       <c r="N7" s="2">
-        <v>1.892957664579926</v>
+        <v>1.8739130150102312</v>
       </c>
       <c r="O7" s="2">
-        <v>7578.6610552184802</v>
+        <v>55773.385944157541</v>
       </c>
       <c r="P7" s="2">
-        <v>725.08908883925085</v>
+        <v>615.11816266628273</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.009330261724537</v>
+        <v>4.0551905764490348</v>
       </c>
       <c r="R7" s="2">
-        <v>0.43868097704469705</v>
+        <v>1.3788404497945785</v>
       </c>
       <c r="S7" s="2">
-        <v>6.9001202502003611</v>
+        <v>9.4798709501039884</v>
       </c>
       <c r="T7" s="2">
-        <v>8.027667049197321</v>
+        <v>5.7706845703464058</v>
       </c>
       <c r="U7" s="2">
-        <v>0.32028992168413328</v>
+        <v>1.0033263993721508</v>
       </c>
       <c r="V7" s="2">
-        <v>-0.51045143673119342</v>
+        <v>-0.35858827814390809</v>
       </c>
       <c r="W7" s="2">
-        <v>8.2907324063616823</v>
+        <v>8.2475893243042648</v>
       </c>
       <c r="X7" s="2">
-        <v>0.46357286696947037</v>
+        <v>0.82846590530731301</v>
       </c>
       <c r="Y7" s="2">
-        <v>6.5603729926988819E-2</v>
+        <v>9.8223906650631812E-2</v>
       </c>
       <c r="Z7" s="2">
-        <v>3.5021025179250674E-2</v>
+        <v>3.6261049612179436E-2</v>
       </c>
       <c r="AA7" s="2">
-        <v>1.3149957606638791</v>
+        <v>1.1300222398912658</v>
       </c>
       <c r="AB7" s="2">
-        <v>45.397182138131072</v>
+        <v>69.52507076622075</v>
       </c>
       <c r="AC7" s="2">
-        <v>3.6957366471185291</v>
+        <v>6.7150863006453534</v>
       </c>
       <c r="AD7" s="2">
-        <v>0.22996124931656198</v>
+        <v>0.14014370989322894</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1030,91 +1088,91 @@
         <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>9.2643756459748481</v>
+        <v>5.678431105405811</v>
       </c>
       <c r="C8" s="2">
-        <v>109.60107670791213</v>
+        <v>80.19187725931863</v>
       </c>
       <c r="D8" s="2">
-        <v>433.43181991605809</v>
+        <v>191.40213732637807</v>
       </c>
       <c r="E8" s="2">
-        <v>1899.7617186812174</v>
+        <v>796.09732849859563</v>
       </c>
       <c r="F8" s="2">
-        <v>54.218289419245245</v>
+        <v>92.957361945480514</v>
       </c>
       <c r="G8" s="2">
-        <v>193.04579536166821</v>
+        <v>241.11042881944226</v>
       </c>
       <c r="H8" s="2">
-        <v>0.40059690367164758</v>
+        <v>0.71284218816901357</v>
       </c>
       <c r="I8" s="2">
-        <v>4.4349671259258051E-3</v>
+        <v>0.25697905390274373</v>
       </c>
       <c r="J8" s="2">
-        <v>193.15519120858687</v>
+        <v>128.54820476749211</v>
       </c>
       <c r="K8" s="2">
-        <v>2743.9984179478492</v>
+        <v>1267.7938264410582</v>
       </c>
       <c r="L8" s="2">
-        <v>80.960162851390251</v>
+        <v>47.212496438831614</v>
       </c>
       <c r="M8" s="2">
-        <v>2.0452994297182769</v>
+        <v>0.41808909098726271</v>
       </c>
       <c r="N8" s="2">
-        <v>1.4915061195982076</v>
+        <v>1.1592889066285024</v>
       </c>
       <c r="O8" s="2">
-        <v>8636.2316464698561</v>
+        <v>27519.761590365772</v>
       </c>
       <c r="P8" s="2">
-        <v>266.08909729003204</v>
+        <v>297.56340864940864</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.8913422749164825</v>
+        <v>1.9990523581465265</v>
       </c>
       <c r="R8" s="2">
-        <v>0.29850495872004795</v>
+        <v>0.98641924442404638</v>
       </c>
       <c r="S8" s="2">
-        <v>5.9644460437407032</v>
+        <v>4.6925943876531004</v>
       </c>
       <c r="T8" s="2">
-        <v>5.0284857442145556</v>
+        <v>2.5963704690945342</v>
       </c>
       <c r="U8" s="2">
-        <v>0.30634396880551046</v>
+        <v>0.53087120152861611</v>
       </c>
       <c r="V8" s="2">
-        <v>-0.59691467869941484</v>
+        <v>-4.9744740271395325E-2</v>
       </c>
       <c r="W8" s="2">
-        <v>6.3593823273779799</v>
+        <v>4.184266317106017</v>
       </c>
       <c r="X8" s="2">
-        <v>0.33174788471185196</v>
+        <v>0.41619607980614998</v>
       </c>
       <c r="Y8" s="2">
-        <v>5.4364840890116124E-2</v>
+        <v>4.6757883885662779E-2</v>
       </c>
       <c r="Z8" s="2">
-        <v>3.3162184924872933E-2</v>
+        <v>3.4811098665037489E-2</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.91230685339606221</v>
+        <v>0.41240774028172833</v>
       </c>
       <c r="AB8" s="2">
-        <v>35.593614979255079</v>
+        <v>36.039152471407085</v>
       </c>
       <c r="AC8" s="2">
-        <v>3.0212045991399621</v>
+        <v>2.0406946584226411</v>
       </c>
       <c r="AD8" s="2">
-        <v>0.13658254043926127</v>
+        <v>5.4943583385213157E-2</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1122,91 +1180,91 @@
         <v>35</v>
       </c>
       <c r="B9" s="2">
-        <v>11.310997590705496</v>
+        <v>10.355261312042783</v>
       </c>
       <c r="C9" s="2">
-        <v>124.02009420282282</v>
+        <v>90.636636969817189</v>
       </c>
       <c r="D9" s="2">
-        <v>374.35701995419225</v>
+        <v>602.94890585595942</v>
       </c>
       <c r="E9" s="2">
-        <v>1691.2689925247844</v>
+        <v>1699.4835539306118</v>
       </c>
       <c r="F9" s="2">
-        <v>257.71327707489627</v>
+        <v>-9.1496049212187707</v>
       </c>
       <c r="G9" s="2">
-        <v>456.40857726682214</v>
+        <v>120.40424691156815</v>
       </c>
       <c r="H9" s="2">
-        <v>1.4524335926617307</v>
+        <v>-0.11908458078507769</v>
       </c>
       <c r="I9" s="2">
-        <v>0.57662341146945217</v>
+        <v>-5.3945325102532304E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>245.01928218183303</v>
+        <v>221.45555776396793</v>
       </c>
       <c r="K9" s="2">
-        <v>2479.3124144319581</v>
+        <v>3861.2548668377071</v>
       </c>
       <c r="L9" s="2">
-        <v>93.016602349055148</v>
+        <v>84.405858243543818</v>
       </c>
       <c r="M9" s="2">
-        <v>2.0743573887405145</v>
+        <v>0.64400115220967802</v>
       </c>
       <c r="N9" s="2">
-        <v>1.8739130150102312</v>
+        <v>1.3049871113924683</v>
       </c>
       <c r="O9" s="2">
-        <v>55773.385944157541</v>
+        <v>3652.3270450963932</v>
       </c>
       <c r="P9" s="2">
-        <v>615.11816266628273</v>
+        <v>911.37593122486533</v>
       </c>
       <c r="Q9" s="2">
-        <v>4.0551905764490348</v>
+        <v>4.9724540819217102</v>
       </c>
       <c r="R9" s="2">
-        <v>1.3788404497945785</v>
+        <v>7.2403780246888913E-2</v>
       </c>
       <c r="S9" s="2">
-        <v>9.4798709501039884</v>
+        <v>4.0685958519470917</v>
       </c>
       <c r="T9" s="2">
-        <v>5.7706845703464058</v>
+        <v>4.1687338178013684</v>
       </c>
       <c r="U9" s="2">
-        <v>1.0033263993721508</v>
+        <v>0.13735392888238357</v>
       </c>
       <c r="V9" s="2">
-        <v>-0.35858827814390809</v>
+        <v>-0.44478466237964231</v>
       </c>
       <c r="W9" s="2">
-        <v>8.2475893243042648</v>
+        <v>8.0698243509391787</v>
       </c>
       <c r="X9" s="2">
-        <v>0.82846590530731301</v>
+        <v>0.196379915867507</v>
       </c>
       <c r="Y9" s="2">
-        <v>9.8223906650631812E-2</v>
+        <v>7.576957682607198E-2</v>
       </c>
       <c r="Z9" s="2">
-        <v>3.6261049612179436E-2</v>
+        <v>3.4090397440105523E-2</v>
       </c>
       <c r="AA9" s="2">
-        <v>1.1300222398912658</v>
+        <v>0.43313828475487809</v>
       </c>
       <c r="AB9" s="2">
-        <v>69.52507076622075</v>
+        <v>43.960727234768989</v>
       </c>
       <c r="AC9" s="2">
-        <v>6.7150863006453534</v>
+        <v>13.583084353934577</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.14014370989322894</v>
+        <v>0.11992376737386856</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1214,91 +1272,91 @@
         <v>36</v>
       </c>
       <c r="B10" s="2">
-        <v>5.678431105405811</v>
+        <v>8.1696281377406752</v>
       </c>
       <c r="C10" s="2">
-        <v>80.19187725931863</v>
+        <v>116.89351322384864</v>
       </c>
       <c r="D10" s="2">
-        <v>191.40213732637807</v>
+        <v>357.61626674015201</v>
       </c>
       <c r="E10" s="2">
-        <v>796.09732849859563</v>
+        <v>1181.6280148371404</v>
       </c>
       <c r="F10" s="2">
-        <v>92.957361945480514</v>
+        <v>-0.87638478003644882</v>
       </c>
       <c r="G10" s="2">
-        <v>241.11042881944226</v>
+        <v>104.58514566922743</v>
       </c>
       <c r="H10" s="2">
-        <v>0.71284218816901357</v>
+        <v>0.22044665912369413</v>
       </c>
       <c r="I10" s="2">
-        <v>0.25697905390274373</v>
+        <v>-4.5594545711175022E-2</v>
       </c>
       <c r="J10" s="2">
-        <v>128.54820476749211</v>
+        <v>177.76978982852165</v>
       </c>
       <c r="K10" s="2">
-        <v>1267.7938264410582</v>
+        <v>2526.6680704163073</v>
       </c>
       <c r="L10" s="2">
-        <v>47.212496438831614</v>
+        <v>65.875403876634849</v>
       </c>
       <c r="M10" s="2">
-        <v>0.41808909098726271</v>
+        <v>0.26869236521715639</v>
       </c>
       <c r="N10" s="2">
-        <v>1.1592889066285024</v>
+        <v>1.0325154228488127</v>
       </c>
       <c r="O10" s="2">
-        <v>27519.761590365772</v>
+        <v>3349.9572252506196</v>
       </c>
       <c r="P10" s="2">
-        <v>297.56340864940864</v>
+        <v>614.58275332851611</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.9990523581465265</v>
+        <v>3.2933069722098791</v>
       </c>
       <c r="R10" s="2">
-        <v>0.98641924442404638</v>
+        <v>-9.7009651419038015E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>4.6925943876531004</v>
+        <v>3.4679261643580364</v>
       </c>
       <c r="T10" s="2">
-        <v>2.5963704690945342</v>
+        <v>2.9367754673185704</v>
       </c>
       <c r="U10" s="2">
-        <v>0.53087120152861611</v>
+        <v>0.11229400419099218</v>
       </c>
       <c r="V10" s="2">
-        <v>-4.9744740271395325E-2</v>
+        <v>-0.29560288884537622</v>
       </c>
       <c r="W10" s="2">
-        <v>4.184266317106017</v>
+        <v>5.6074480760636813</v>
       </c>
       <c r="X10" s="2">
-        <v>0.41619607980614998</v>
+        <v>0.16757650656608106</v>
       </c>
       <c r="Y10" s="2">
-        <v>4.6757883885662779E-2</v>
+        <v>4.7281255060437961E-2</v>
       </c>
       <c r="Z10" s="2">
-        <v>3.4811098665037489E-2</v>
+        <v>2.6314364524242129E-2</v>
       </c>
       <c r="AA10" s="2">
-        <v>0.41240774028172833</v>
+        <v>0.50090521246122777</v>
       </c>
       <c r="AB10" s="2">
-        <v>36.039152471407085</v>
+        <v>32.923896085658853</v>
       </c>
       <c r="AC10" s="2">
-        <v>2.0406946584226411</v>
+        <v>3.7051424159736679</v>
       </c>
       <c r="AD10" s="2">
-        <v>5.4943583385213157E-2</v>
+        <v>7.2387312166404746E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -1306,91 +1364,91 @@
         <v>37</v>
       </c>
       <c r="B11" s="2">
-        <v>10.355261312042783</v>
+        <v>4.9198842747925084</v>
       </c>
       <c r="C11" s="2">
-        <v>90.636636969817189</v>
+        <v>80.435752008802638</v>
       </c>
       <c r="D11" s="2">
-        <v>602.94890585595942</v>
+        <v>153.86338872557499</v>
       </c>
       <c r="E11" s="2">
-        <v>1699.4835539306118</v>
+        <v>556.21891197330808</v>
       </c>
       <c r="F11" s="2">
-        <v>-9.1496049212187707</v>
+        <v>90.439112130986928</v>
       </c>
       <c r="G11" s="2">
-        <v>120.40424691156815</v>
+        <v>155.30688545180388</v>
       </c>
       <c r="H11" s="2">
-        <v>-0.11908458078507769</v>
+        <v>0.45916701007791572</v>
       </c>
       <c r="I11" s="2">
-        <v>-5.3945325102532304E-2</v>
+        <v>4.8468294461885927E-2</v>
       </c>
       <c r="J11" s="2">
-        <v>221.45555776396793</v>
+        <v>119.34334328715778</v>
       </c>
       <c r="K11" s="2">
-        <v>3861.2548668377071</v>
+        <v>1087.7294284307952</v>
       </c>
       <c r="L11" s="2">
-        <v>84.405858243543818</v>
+        <v>41.386778893581557</v>
       </c>
       <c r="M11" s="2">
-        <v>0.64400115220967802</v>
+        <v>-0.16294391021307414</v>
       </c>
       <c r="N11" s="2">
-        <v>1.3049871113924683</v>
+        <v>0.60688505959391514</v>
       </c>
       <c r="O11" s="2">
-        <v>3652.3270450963932</v>
+        <v>13971.728687621156</v>
       </c>
       <c r="P11" s="2">
-        <v>911.37593122486533</v>
+        <v>135.51465722400374</v>
       </c>
       <c r="Q11" s="2">
-        <v>4.9724540819217102</v>
+        <v>0.98059237845710956</v>
       </c>
       <c r="R11" s="2">
-        <v>7.2403780246888913E-2</v>
+        <v>-0.28795041171722741</v>
       </c>
       <c r="S11" s="2">
-        <v>4.0685958519470917</v>
+        <v>3.8325790140289668</v>
       </c>
       <c r="T11" s="2">
-        <v>4.1687338178013684</v>
+        <v>1.7782214808432639</v>
       </c>
       <c r="U11" s="2">
-        <v>0.13735392888238357</v>
+        <v>0.25519663523226938</v>
       </c>
       <c r="V11" s="2">
-        <v>-0.44478466237964231</v>
+        <v>-8.3794886864916054E-2</v>
       </c>
       <c r="W11" s="2">
-        <v>8.0698243509391787</v>
+        <v>3.1701032977696886</v>
       </c>
       <c r="X11" s="2">
-        <v>0.196379915867507</v>
+        <v>0.19458446352247757</v>
       </c>
       <c r="Y11" s="2">
-        <v>7.576957682607198E-2</v>
+        <v>6.5728711871903142E-2</v>
       </c>
       <c r="Z11" s="2">
-        <v>3.4090397440105523E-2</v>
+        <v>3.4853488647689237E-2</v>
       </c>
       <c r="AA11" s="2">
-        <v>0.43313828475487809</v>
+        <v>0.24225190367210686</v>
       </c>
       <c r="AB11" s="2">
-        <v>43.960727234768989</v>
+        <v>26.686178398179198</v>
       </c>
       <c r="AC11" s="2">
-        <v>13.583084353934577</v>
+        <v>2.0630617128303239</v>
       </c>
       <c r="AD11" s="2">
-        <v>0.11992376737386856</v>
+        <v>3.8680653754801064E-2</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -1398,91 +1456,91 @@
         <v>38</v>
       </c>
       <c r="B12" s="2">
-        <v>8.1696281377406752</v>
+        <v>4.7938480727074735</v>
       </c>
       <c r="C12" s="2">
-        <v>116.89351322384864</v>
+        <v>87.041077837100275</v>
       </c>
       <c r="D12" s="2">
-        <v>357.61626674015201</v>
+        <v>161.47040504517381</v>
       </c>
       <c r="E12" s="2">
-        <v>1181.6280148371404</v>
+        <v>550.06298194467638</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.87638478003644882</v>
+        <v>65.604790225883434</v>
       </c>
       <c r="G12" s="2">
-        <v>104.58514566922743</v>
+        <v>152.40590733892572</v>
       </c>
       <c r="H12" s="2">
-        <v>0.22044665912369413</v>
+        <v>0.46605656331562262</v>
       </c>
       <c r="I12" s="2">
-        <v>-4.5594545711175022E-2</v>
+        <v>0.14782157990231071</v>
       </c>
       <c r="J12" s="2">
-        <v>177.76978982852165</v>
+        <v>120.01427748777662</v>
       </c>
       <c r="K12" s="2">
-        <v>2526.6680704163073</v>
+        <v>1087.9508596450517</v>
       </c>
       <c r="L12" s="2">
-        <v>65.875403876634849</v>
+        <v>40.842419638279765</v>
       </c>
       <c r="M12" s="2">
-        <v>0.26869236521715639</v>
+        <v>-0.19167718428474836</v>
       </c>
       <c r="N12" s="2">
-        <v>1.0325154228488127</v>
+        <v>0.64806317830878502</v>
       </c>
       <c r="O12" s="2">
-        <v>3349.9572252506196</v>
+        <v>13559.949498853484</v>
       </c>
       <c r="P12" s="2">
-        <v>614.58275332851611</v>
+        <v>137.35795778607061</v>
       </c>
       <c r="Q12" s="2">
-        <v>3.2933069722098791</v>
+        <v>1.0202721489446076</v>
       </c>
       <c r="R12" s="2">
-        <v>-9.7009651419038015E-2</v>
+        <v>-0.23615045974914067</v>
       </c>
       <c r="S12" s="2">
-        <v>3.4679261643580364</v>
+        <v>3.4665774423243652</v>
       </c>
       <c r="T12" s="2">
-        <v>2.9367754673185704</v>
+        <v>2.0213614744491832</v>
       </c>
       <c r="U12" s="2">
-        <v>0.11229400419099218</v>
+        <v>0.25677549846216674</v>
       </c>
       <c r="V12" s="2">
-        <v>-0.29560288884537622</v>
+        <v>-8.8564080091549868E-2</v>
       </c>
       <c r="W12" s="2">
-        <v>5.6074480760636813</v>
+        <v>3.1529916411701233</v>
       </c>
       <c r="X12" s="2">
-        <v>0.16757650656608106</v>
+        <v>0.17553099155214671</v>
       </c>
       <c r="Y12" s="2">
-        <v>4.7281255060437961E-2</v>
+        <v>6.9184050357481236E-2</v>
       </c>
       <c r="Z12" s="2">
-        <v>2.6314364524242129E-2</v>
+        <v>2.6251184835218974E-2</v>
       </c>
       <c r="AA12" s="2">
-        <v>0.50090521246122777</v>
+        <v>0.21208923566032045</v>
       </c>
       <c r="AB12" s="2">
-        <v>32.923896085658853</v>
+        <v>26.893382274009205</v>
       </c>
       <c r="AC12" s="2">
-        <v>3.7051424159736679</v>
+        <v>3.9554401664924441</v>
       </c>
       <c r="AD12" s="2">
-        <v>7.2387312166404746E-2</v>
+        <v>3.6334008130072988E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -1490,91 +1548,91 @@
         <v>39</v>
       </c>
       <c r="B13" s="2">
-        <v>4.9198842747925084</v>
+        <v>5.1345572108697777</v>
       </c>
       <c r="C13" s="2">
-        <v>80.435752008802638</v>
+        <v>107.64896672973494</v>
       </c>
       <c r="D13" s="2">
-        <v>153.86338872557499</v>
+        <v>204.61572157767165</v>
       </c>
       <c r="E13" s="2">
-        <v>556.21891197330808</v>
+        <v>762.85497913975337</v>
       </c>
       <c r="F13" s="2">
-        <v>90.439112130986928</v>
+        <v>45.747620424122907</v>
       </c>
       <c r="G13" s="2">
-        <v>155.30688545180388</v>
+        <v>121.01950958502786</v>
       </c>
       <c r="H13" s="2">
-        <v>0.45916701007791572</v>
+        <v>0.15145344456050164</v>
       </c>
       <c r="I13" s="2">
-        <v>4.8468294461885927E-2</v>
+        <v>-8.1985659364153564E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>119.34334328715778</v>
+        <v>154.96226349682561</v>
       </c>
       <c r="K13" s="2">
-        <v>1087.7294284307952</v>
+        <v>1314.8992158939918</v>
       </c>
       <c r="L13" s="2">
-        <v>41.386778893581557</v>
+        <v>45.889427623512653</v>
       </c>
       <c r="M13" s="2">
-        <v>-0.16294391021307414</v>
+        <v>0.25508675535573228</v>
       </c>
       <c r="N13" s="2">
-        <v>0.60688505959391514</v>
+        <v>0.923336867766126</v>
       </c>
       <c r="O13" s="2">
-        <v>13971.728687621156</v>
+        <v>5329.2337028300262</v>
       </c>
       <c r="P13" s="2">
-        <v>135.51465722400374</v>
+        <v>3366.2783617427713</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.98059237845710956</v>
+        <v>7.7858993214839884</v>
       </c>
       <c r="R13" s="2">
-        <v>-0.28795041171722741</v>
+        <v>-0.26652689566599969</v>
       </c>
       <c r="S13" s="2">
-        <v>3.8325790140289668</v>
+        <v>5.3904098273935581</v>
       </c>
       <c r="T13" s="2">
-        <v>1.7782214808432639</v>
+        <v>4.2526211539810959</v>
       </c>
       <c r="U13" s="2">
-        <v>0.25519663523226938</v>
+        <v>0.18267995236820775</v>
       </c>
       <c r="V13" s="2">
-        <v>-8.3794886864916054E-2</v>
+        <v>-2.1704138622688895E-2</v>
       </c>
       <c r="W13" s="2">
-        <v>3.1701032977696886</v>
+        <v>5.4765425125781011</v>
       </c>
       <c r="X13" s="2">
-        <v>0.19458446352247757</v>
+        <v>0.15315063657703454</v>
       </c>
       <c r="Y13" s="2">
-        <v>6.5728711871903142E-2</v>
+        <v>7.1465325131408644E-2</v>
       </c>
       <c r="Z13" s="2">
-        <v>3.4853488647689237E-2</v>
+        <v>3.6697611920468116E-2</v>
       </c>
       <c r="AA13" s="2">
-        <v>0.24225190367210686</v>
+        <v>0.12804943602517405</v>
       </c>
       <c r="AB13" s="2">
-        <v>26.686178398179198</v>
+        <v>89.80002131149358</v>
       </c>
       <c r="AC13" s="2">
-        <v>2.0630617128303239</v>
+        <v>3.1761353631906903</v>
       </c>
       <c r="AD13" s="2">
-        <v>3.8680653754801064E-2</v>
+        <v>4.3219586076628319E-2</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -1582,91 +1640,91 @@
         <v>40</v>
       </c>
       <c r="B14" s="2">
-        <v>4.7938480727074735</v>
+        <v>5.0892436053490879</v>
       </c>
       <c r="C14" s="2">
-        <v>87.041077837100275</v>
+        <v>82.880905605747671</v>
       </c>
       <c r="D14" s="2">
-        <v>161.47040504517381</v>
+        <v>196.82207861300989</v>
       </c>
       <c r="E14" s="2">
-        <v>550.06298194467638</v>
+        <v>1113.2425875705831</v>
       </c>
       <c r="F14" s="2">
-        <v>65.604790225883434</v>
+        <v>21.823398302290375</v>
       </c>
       <c r="G14" s="2">
-        <v>152.40590733892572</v>
+        <v>98.945543252095561</v>
       </c>
       <c r="H14" s="2">
-        <v>0.46605656331562262</v>
+        <v>2.1894631445775672</v>
       </c>
       <c r="I14" s="2">
-        <v>0.14782157990231071</v>
+        <v>-5.4815010351938719E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>120.01427748777662</v>
+        <v>140.2697222287016</v>
       </c>
       <c r="K14" s="2">
-        <v>1087.9508596450517</v>
+        <v>1345.6722454710005</v>
       </c>
       <c r="L14" s="2">
-        <v>40.842419638279765</v>
+        <v>45.305488937403084</v>
       </c>
       <c r="M14" s="2">
-        <v>-0.19167718428474836</v>
+        <v>5.84498627155315E-2</v>
       </c>
       <c r="N14" s="2">
-        <v>0.64806317830878502</v>
+        <v>0.80300052794501153</v>
       </c>
       <c r="O14" s="2">
-        <v>13559.949498853484</v>
+        <v>4522.0783669087741</v>
       </c>
       <c r="P14" s="2">
-        <v>137.35795778607061</v>
+        <v>3077.144686839772</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.0202721489446076</v>
+        <v>7.0503632868457036</v>
       </c>
       <c r="R14" s="2">
-        <v>-0.23615045974914067</v>
+        <v>-0.34775664259211408</v>
       </c>
       <c r="S14" s="2">
-        <v>3.4665774423243652</v>
+        <v>4.0479157787660025</v>
       </c>
       <c r="T14" s="2">
-        <v>2.0213614744491832</v>
+        <v>4.3171740625385908</v>
       </c>
       <c r="U14" s="2">
-        <v>0.25677549846216674</v>
+        <v>0.15434443859765229</v>
       </c>
       <c r="V14" s="2">
-        <v>-8.8564080091549868E-2</v>
+        <v>-0.21256792240505912</v>
       </c>
       <c r="W14" s="2">
-        <v>3.1529916411701233</v>
+        <v>5.0754049570780539</v>
       </c>
       <c r="X14" s="2">
-        <v>0.17553099155214671</v>
+        <v>0.1474979485118515</v>
       </c>
       <c r="Y14" s="2">
-        <v>6.9184050357481236E-2</v>
+        <v>3.2824886184685584E-2</v>
       </c>
       <c r="Z14" s="2">
-        <v>2.6251184835218974E-2</v>
+        <v>3.2722346903900287E-2</v>
       </c>
       <c r="AA14" s="2">
-        <v>0.21208923566032045</v>
+        <v>0.19065157557182041</v>
       </c>
       <c r="AB14" s="2">
-        <v>26.893382274009205</v>
+        <v>79.413630407245591</v>
       </c>
       <c r="AC14" s="2">
-        <v>3.9554401664924441</v>
+        <v>3.4345378784782561</v>
       </c>
       <c r="AD14" s="2">
-        <v>3.6334008130072988E-2</v>
+        <v>4.1061589721077658E-2</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -1674,91 +1732,91 @@
         <v>41</v>
       </c>
       <c r="B15" s="2">
-        <v>5.1345572108697777</v>
+        <v>6.5782646937098566</v>
       </c>
       <c r="C15" s="2">
-        <v>107.64896672973494</v>
+        <v>81.914920859043534</v>
       </c>
       <c r="D15" s="2">
-        <v>204.61572157767165</v>
+        <v>246.3891287867695</v>
       </c>
       <c r="E15" s="2">
-        <v>762.85497913975337</v>
+        <v>1077.4140922569111</v>
       </c>
       <c r="F15" s="2">
-        <v>45.747620424122907</v>
+        <v>145.00879080019268</v>
       </c>
       <c r="G15" s="2">
-        <v>121.01950958502786</v>
+        <v>345.32380520008655</v>
       </c>
       <c r="H15" s="2">
-        <v>0.15145344456050164</v>
+        <v>0.53327295444537248</v>
       </c>
       <c r="I15" s="2">
-        <v>-8.1985659364153564E-3</v>
+        <v>-9.8799495815679456E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>154.96226349682561</v>
+        <v>148.58203235629276</v>
       </c>
       <c r="K15" s="2">
-        <v>1314.8992158939918</v>
+        <v>1814.138363603967</v>
       </c>
       <c r="L15" s="2">
-        <v>45.889427623512653</v>
+        <v>55.48118660506357</v>
       </c>
       <c r="M15" s="2">
-        <v>0.25508675535573228</v>
+        <v>0.70055650925857293</v>
       </c>
       <c r="N15" s="2">
-        <v>0.923336867766126</v>
+        <v>1.270899105001547</v>
       </c>
       <c r="O15" s="2">
-        <v>5329.2337028300262</v>
+        <v>37265.782584622721</v>
       </c>
       <c r="P15" s="2">
-        <v>3366.2783617427713</v>
+        <v>395.99405194569198</v>
       </c>
       <c r="Q15" s="2">
-        <v>7.7858993214839884</v>
+        <v>3.6629591170870963</v>
       </c>
       <c r="R15" s="2">
-        <v>-0.26652689566599969</v>
+        <v>8.0863617986932088E-4</v>
       </c>
       <c r="S15" s="2">
-        <v>5.3904098273935581</v>
+        <v>8.7854587918568416</v>
       </c>
       <c r="T15" s="2">
-        <v>4.2526211539810959</v>
+        <v>3.7191855084866856</v>
       </c>
       <c r="U15" s="2">
-        <v>0.18267995236820775</v>
+        <v>0.67994667872333425</v>
       </c>
       <c r="V15" s="2">
-        <v>-2.1704138622688895E-2</v>
+        <v>-0.19422251207356492</v>
       </c>
       <c r="W15" s="2">
-        <v>5.4765425125781011</v>
+        <v>5.591201705115127</v>
       </c>
       <c r="X15" s="2">
-        <v>0.15315063657703454</v>
+        <v>0.51060096664185339</v>
       </c>
       <c r="Y15" s="2">
-        <v>7.1465325131408644E-2</v>
+        <v>5.8488086690827501E-2</v>
       </c>
       <c r="Z15" s="2">
-        <v>3.6697611920468116E-2</v>
+        <v>3.5522713085361056E-2</v>
       </c>
       <c r="AA15" s="2">
-        <v>0.12804943602517405</v>
+        <v>1.731587619489563</v>
       </c>
       <c r="AB15" s="2">
-        <v>89.80002131149358</v>
+        <v>52.931298328149907</v>
       </c>
       <c r="AC15" s="2">
-        <v>3.1761353631906903</v>
+        <v>9.1505674100865892</v>
       </c>
       <c r="AD15" s="2">
-        <v>4.3219586076628319E-2</v>
+        <v>8.8828410455754375E-2</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -1766,91 +1824,91 @@
         <v>42</v>
       </c>
       <c r="B16" s="2">
-        <v>5.0892436053490879</v>
+        <v>5.6182546604177031</v>
       </c>
       <c r="C16" s="2">
-        <v>82.880905605747671</v>
+        <v>121.59860933593573</v>
       </c>
       <c r="D16" s="2">
-        <v>196.82207861300989</v>
+        <v>212.75181034458251</v>
       </c>
       <c r="E16" s="2">
-        <v>1113.2425875705831</v>
+        <v>888.5771874705141</v>
       </c>
       <c r="F16" s="2">
-        <v>21.823398302290375</v>
+        <v>24.612851727493783</v>
       </c>
       <c r="G16" s="2">
-        <v>98.945543252095561</v>
+        <v>322.29117980937457</v>
       </c>
       <c r="H16" s="2">
-        <v>2.1894631445775672</v>
+        <v>0.4181368356106831</v>
       </c>
       <c r="I16" s="2">
-        <v>-5.4815010351938719E-2</v>
+        <v>-8.3316147096707802E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>140.2697222287016</v>
+        <v>133.77485187124404</v>
       </c>
       <c r="K16" s="2">
-        <v>1345.6722454710005</v>
+        <v>1585.7884130813454</v>
       </c>
       <c r="L16" s="2">
-        <v>45.305488937403084</v>
+        <v>49.526046523295577</v>
       </c>
       <c r="M16" s="2">
-        <v>5.84498627155315E-2</v>
+        <v>0.42816940118734848</v>
       </c>
       <c r="N16" s="2">
-        <v>0.80300052794501153</v>
+        <v>1.1511315036954366</v>
       </c>
       <c r="O16" s="2">
-        <v>4522.0783669087741</v>
+        <v>34870.746263914938</v>
       </c>
       <c r="P16" s="2">
-        <v>3077.144686839772</v>
+        <v>407.38038632993619</v>
       </c>
       <c r="Q16" s="2">
-        <v>7.0503632868457036</v>
+        <v>3.618220888782214</v>
       </c>
       <c r="R16" s="2">
-        <v>-0.34775664259211408</v>
+        <v>-0.18520756450496767</v>
       </c>
       <c r="S16" s="2">
-        <v>4.0479157787660025</v>
+        <v>8.0886264063808131</v>
       </c>
       <c r="T16" s="2">
-        <v>4.3171740625385908</v>
+        <v>2.9365346270078918</v>
       </c>
       <c r="U16" s="2">
-        <v>0.15434443859765229</v>
+        <v>0.61280717961093256</v>
       </c>
       <c r="V16" s="2">
-        <v>-0.21256792240505912</v>
+        <v>-0.10030524060852951</v>
       </c>
       <c r="W16" s="2">
-        <v>5.0754049570780539</v>
+        <v>4.8562433466405777</v>
       </c>
       <c r="X16" s="2">
-        <v>0.1474979485118515</v>
+        <v>0.41183434605897173</v>
       </c>
       <c r="Y16" s="2">
-        <v>3.2824886184685584E-2</v>
+        <v>3.0466537108994593E-2</v>
       </c>
       <c r="Z16" s="2">
-        <v>3.2722346903900287E-2</v>
+        <v>2.9122702973836696E-2</v>
       </c>
       <c r="AA16" s="2">
-        <v>0.19065157557182041</v>
+        <v>0.54162792589201614</v>
       </c>
       <c r="AB16" s="2">
-        <v>79.413630407245591</v>
+        <v>48.148888772821685</v>
       </c>
       <c r="AC16" s="2">
-        <v>3.4345378784782561</v>
+        <v>12.072752376072891</v>
       </c>
       <c r="AD16" s="2">
-        <v>4.1061589721077658E-2</v>
+        <v>5.8193502120733938E-2</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -1858,91 +1916,91 @@
         <v>43</v>
       </c>
       <c r="B17" s="2">
-        <v>6.5782646937098566</v>
+        <v>6.6348356115545402</v>
       </c>
       <c r="C17" s="2">
-        <v>81.914920859043534</v>
+        <v>77.628150833972256</v>
       </c>
       <c r="D17" s="2">
-        <v>246.3891287867695</v>
+        <v>290.97977972447734</v>
       </c>
       <c r="E17" s="2">
-        <v>1077.4140922569111</v>
+        <v>1256.709729806518</v>
       </c>
       <c r="F17" s="2">
-        <v>145.00879080019268</v>
+        <v>-3.0008277285449694</v>
       </c>
       <c r="G17" s="2">
-        <v>345.32380520008655</v>
+        <v>138.01808763443881</v>
       </c>
       <c r="H17" s="2">
-        <v>0.53327295444537248</v>
+        <v>-0.16466564323023508</v>
       </c>
       <c r="I17" s="2">
-        <v>-9.8799495815679456E-2</v>
+        <v>-0.10719872831920423</v>
       </c>
       <c r="J17" s="2">
-        <v>148.58203235629276</v>
+        <v>152.72152374756121</v>
       </c>
       <c r="K17" s="2">
-        <v>1814.138363603967</v>
+        <v>1734.3475025932053</v>
       </c>
       <c r="L17" s="2">
-        <v>55.48118660506357</v>
+        <v>61.284172477853303</v>
       </c>
       <c r="M17" s="2">
-        <v>0.70055650925857293</v>
+        <v>0.23940008699269943</v>
       </c>
       <c r="N17" s="2">
-        <v>1.270899105001547</v>
+        <v>1.6950246867659675</v>
       </c>
       <c r="O17" s="2">
-        <v>37265.782584622721</v>
+        <v>5698.0433170218894</v>
       </c>
       <c r="P17" s="2">
-        <v>395.99405194569198</v>
+        <v>1015.5069919282518</v>
       </c>
       <c r="Q17" s="2">
-        <v>3.6629591170870963</v>
+        <v>3.693490362193947</v>
       </c>
       <c r="R17" s="2">
-        <v>8.0863617986932088E-4</v>
+        <v>-0.36633828457479545</v>
       </c>
       <c r="S17" s="2">
-        <v>8.7854587918568416</v>
+        <v>18.126408616270744</v>
       </c>
       <c r="T17" s="2">
-        <v>3.7191855084866856</v>
+        <v>5.6303720366057082</v>
       </c>
       <c r="U17" s="2">
-        <v>0.67994667872333425</v>
+        <v>0.13990647133076997</v>
       </c>
       <c r="V17" s="2">
-        <v>-0.19422251207356492</v>
+        <v>-0.33142611137884009</v>
       </c>
       <c r="W17" s="2">
-        <v>5.591201705115127</v>
+        <v>5.1025639583738487</v>
       </c>
       <c r="X17" s="2">
-        <v>0.51060096664185339</v>
+        <v>0.15652893013479699</v>
       </c>
       <c r="Y17" s="2">
-        <v>5.8488086690827501E-2</v>
+        <v>2.1399245401338644E-2</v>
       </c>
       <c r="Z17" s="2">
-        <v>3.5522713085361056E-2</v>
+        <v>3.2979017415385455E-2</v>
       </c>
       <c r="AA17" s="2">
-        <v>1.731587619489563</v>
+        <v>0.39906026544453616</v>
       </c>
       <c r="AB17" s="2">
-        <v>52.931298328149907</v>
+        <v>36.875425587559484</v>
       </c>
       <c r="AC17" s="2">
-        <v>9.1505674100865892</v>
+        <v>3.4855847272311578</v>
       </c>
       <c r="AD17" s="2">
-        <v>8.8828410455754375E-2</v>
+        <v>5.8446803970238034E-2</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -1950,275 +2008,275 @@
         <v>44</v>
       </c>
       <c r="B18" s="2">
-        <v>5.6182546604177031</v>
+        <v>6.8124837771702804</v>
       </c>
       <c r="C18" s="2">
-        <v>121.59860933593573</v>
+        <v>82.313658592093432</v>
       </c>
       <c r="D18" s="2">
-        <v>212.75181034458251</v>
+        <v>296.07842294932351</v>
       </c>
       <c r="E18" s="2">
-        <v>888.5771874705141</v>
+        <v>1325.1144311794644</v>
       </c>
       <c r="F18" s="2">
-        <v>24.612851727493783</v>
+        <v>-0.25252558843029749</v>
       </c>
       <c r="G18" s="2">
-        <v>322.29117980937457</v>
+        <v>147.08509975146706</v>
       </c>
       <c r="H18" s="2">
-        <v>0.4181368356106831</v>
+        <v>-0.18370239048087286</v>
       </c>
       <c r="I18" s="2">
-        <v>-8.3316147096707802E-2</v>
+        <v>-0.1084588898533386</v>
       </c>
       <c r="J18" s="2">
-        <v>133.77485187124404</v>
+        <v>161.92886786839631</v>
       </c>
       <c r="K18" s="2">
-        <v>1585.7884130813454</v>
+        <v>1800.2650908655376</v>
       </c>
       <c r="L18" s="2">
-        <v>49.526046523295577</v>
+        <v>63.204706181358482</v>
       </c>
       <c r="M18" s="2">
-        <v>0.42816940118734848</v>
+        <v>0.38677481901015653</v>
       </c>
       <c r="N18" s="2">
-        <v>1.1511315036954366</v>
+        <v>1.2220748158616521</v>
       </c>
       <c r="O18" s="2">
-        <v>34870.746263914938</v>
+        <v>6081.842257050379</v>
       </c>
       <c r="P18" s="2">
-        <v>407.38038632993619</v>
+        <v>1336.9905119466664</v>
       </c>
       <c r="Q18" s="2">
-        <v>3.618220888782214</v>
+        <v>4.3737869162250451</v>
       </c>
       <c r="R18" s="2">
-        <v>-0.18520756450496767</v>
+        <v>-0.29951256791114605</v>
       </c>
       <c r="S18" s="2">
-        <v>8.0886264063808131</v>
+        <v>4.9856107011154238</v>
       </c>
       <c r="T18" s="2">
-        <v>2.9365346270078918</v>
+        <v>4.6051557528800071</v>
       </c>
       <c r="U18" s="2">
-        <v>0.61280717961093256</v>
+        <v>0.14893333597048655</v>
       </c>
       <c r="V18" s="2">
-        <v>-0.10030524060852951</v>
+        <v>-0.25889610510867223</v>
       </c>
       <c r="W18" s="2">
-        <v>4.8562433466405777</v>
+        <v>5.3751377561534657</v>
       </c>
       <c r="X18" s="2">
-        <v>0.41183434605897173</v>
+        <v>0.14102951498619629</v>
       </c>
       <c r="Y18" s="2">
-        <v>3.0466537108994593E-2</v>
+        <v>1.9632814659662046E-2</v>
       </c>
       <c r="Z18" s="2">
-        <v>2.9122702973836696E-2</v>
+        <v>2.5577204339782545E-2</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.54162792589201614</v>
+        <v>0.283926363779885</v>
       </c>
       <c r="AB18" s="2">
-        <v>48.148888772821685</v>
+        <v>42.308814610632886</v>
       </c>
       <c r="AC18" s="2">
-        <v>12.072752376072891</v>
+        <v>3.151348031552069</v>
       </c>
       <c r="AD18" s="2">
-        <v>5.8193502120733938E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+        <v>5.8319735696745291E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>6.6348356115545402</v>
+        <v>9.4308501571555805</v>
       </c>
       <c r="C19" s="2">
-        <v>77.628150833972256</v>
+        <v>115.41188944836196</v>
       </c>
       <c r="D19" s="2">
-        <v>290.97977972447734</v>
+        <v>469.9092007096026</v>
       </c>
       <c r="E19" s="2">
-        <v>1256.709729806518</v>
+        <v>1860.1238938172387</v>
       </c>
       <c r="F19" s="2">
-        <v>-3.0008277285449694</v>
+        <v>-0.26711402880839363</v>
       </c>
       <c r="G19" s="2">
-        <v>138.01808763443881</v>
+        <v>236.65921383767352</v>
       </c>
       <c r="H19" s="2">
-        <v>-0.16466564323023508</v>
+        <v>-0.15675101222561513</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.10719872831920423</v>
+        <v>-0.2334328294893655</v>
       </c>
       <c r="J19" s="2">
-        <v>152.72152374756121</v>
+        <v>178.10812813316903</v>
       </c>
       <c r="K19" s="2">
-        <v>1734.3475025932053</v>
+        <v>3075.5720272356239</v>
       </c>
       <c r="L19" s="2">
-        <v>61.284172477853303</v>
+        <v>82.77207841559202</v>
       </c>
       <c r="M19" s="2">
-        <v>0.23940008699269943</v>
+        <v>0.96700177812472232</v>
       </c>
       <c r="N19" s="2">
-        <v>1.6950246867659675</v>
+        <v>1.6422288157108638</v>
       </c>
       <c r="O19" s="2">
-        <v>5698.0433170218894</v>
+        <v>29982.694860039748</v>
       </c>
       <c r="P19" s="2">
-        <v>1015.5069919282518</v>
+        <v>1035.7743059901118</v>
       </c>
       <c r="Q19" s="2">
-        <v>3.693490362193947</v>
+        <v>9.912339755681165</v>
       </c>
       <c r="R19" s="2">
-        <v>-0.36633828457479545</v>
+        <v>-1.1990463986909176E-2</v>
       </c>
       <c r="S19" s="2">
-        <v>18.126408616270744</v>
+        <v>36.263231901413491</v>
       </c>
       <c r="T19" s="2">
-        <v>5.6303720366057082</v>
+        <v>12.658578875179339</v>
       </c>
       <c r="U19" s="2">
-        <v>0.13990647133076997</v>
+        <v>0.50082881758738473</v>
       </c>
       <c r="V19" s="2">
-        <v>-0.33142611137884009</v>
+        <v>-0.55095772109992602</v>
       </c>
       <c r="W19" s="2">
-        <v>5.1025639583738487</v>
+        <v>7.538699213345236</v>
       </c>
       <c r="X19" s="2">
-        <v>0.15652893013479699</v>
+        <v>0.31092324635457497</v>
       </c>
       <c r="Y19" s="2">
-        <v>2.1399245401338644E-2</v>
+        <v>2.3318914028694897E-2</v>
       </c>
       <c r="Z19" s="2">
-        <v>3.2979017415385455E-2</v>
+        <v>2.9826139748215946E-2</v>
       </c>
       <c r="AA19" s="2">
-        <v>0.39906026544453616</v>
+        <v>0.22890800464134167</v>
       </c>
       <c r="AB19" s="2">
-        <v>36.875425587559484</v>
+        <v>70.69023090957927</v>
       </c>
       <c r="AC19" s="2">
-        <v>3.4855847272311578</v>
+        <v>3.2816968700410385</v>
       </c>
       <c r="AD19" s="2">
-        <v>5.8446803970238034E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.10975216665876578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="2">
-        <v>6.8124837771702804</v>
+        <v>5.6367430601636181</v>
       </c>
       <c r="C20" s="2">
-        <v>82.313658592093432</v>
+        <v>95.736591332328032</v>
       </c>
       <c r="D20" s="2">
-        <v>296.07842294932351</v>
+        <v>208.9343902768168</v>
       </c>
       <c r="E20" s="2">
-        <v>1325.1144311794644</v>
+        <v>1020.8470763510804</v>
       </c>
       <c r="F20" s="2">
-        <v>-0.25252558843029749</v>
+        <v>-11.811339043780041</v>
       </c>
       <c r="G20" s="2">
-        <v>147.08509975146706</v>
+        <v>207.96747592722875</v>
       </c>
       <c r="H20" s="2">
-        <v>-0.18370239048087286</v>
+        <v>-0.18875558249727917</v>
       </c>
       <c r="I20" s="2">
-        <v>-0.1084588898533386</v>
+        <v>-0.13837558582597778</v>
       </c>
       <c r="J20" s="2">
-        <v>161.92886786839631</v>
+        <v>128.88529172240308</v>
       </c>
       <c r="K20" s="2">
-        <v>1800.2650908655376</v>
+        <v>1362.4184794806288</v>
       </c>
       <c r="L20" s="2">
-        <v>63.204706181358482</v>
+        <v>53.788745312114003</v>
       </c>
       <c r="M20" s="2">
-        <v>0.38677481901015653</v>
+        <v>0.253470142275944</v>
       </c>
       <c r="N20" s="2">
-        <v>1.2220748158616521</v>
+        <v>1.0340408232828711</v>
       </c>
       <c r="O20" s="2">
-        <v>6081.842257050379</v>
+        <v>25613.902480465953</v>
       </c>
       <c r="P20" s="2">
-        <v>1336.9905119466664</v>
+        <v>891.58314389460918</v>
       </c>
       <c r="Q20" s="2">
-        <v>4.3737869162250451</v>
+        <v>8.2673304968342123</v>
       </c>
       <c r="R20" s="2">
-        <v>-0.29951256791114605</v>
+        <v>-0.31569002742685426</v>
       </c>
       <c r="S20" s="2">
-        <v>4.9856107011154238</v>
+        <v>8.1795572247184278</v>
       </c>
       <c r="T20" s="2">
-        <v>4.6051557528800071</v>
+        <v>3.1412322608210261</v>
       </c>
       <c r="U20" s="2">
-        <v>0.14893333597048655</v>
+        <v>0.41243127230009047</v>
       </c>
       <c r="V20" s="2">
-        <v>-0.25889610510867223</v>
+        <v>-0.26816352665990878</v>
       </c>
       <c r="W20" s="2">
-        <v>5.3751377561534657</v>
+        <v>4.2804005896683801</v>
       </c>
       <c r="X20" s="2">
-        <v>0.14102951498619629</v>
+        <v>0.25836411569943779</v>
       </c>
       <c r="Y20" s="2">
-        <v>1.9632814659662046E-2</v>
+        <v>2.4789416634526967E-2</v>
       </c>
       <c r="Z20" s="2">
-        <v>2.5577204339782545E-2</v>
+        <v>2.9874691773785302E-2</v>
       </c>
       <c r="AA20" s="2">
-        <v>0.283926363779885</v>
+        <v>0.15145387101031685</v>
       </c>
       <c r="AB20" s="2">
-        <v>42.308814610632886</v>
+        <v>54.811764401560225</v>
       </c>
       <c r="AC20" s="2">
-        <v>3.151348031552069</v>
+        <v>4.0747946821776644</v>
       </c>
       <c r="AD20" s="2">
-        <v>5.8319735696745291E-2</v>
+        <v>4.6727430673569673E-2</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2226,91 +2284,91 @@
         <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>9.4308501571555805</v>
+        <v>5.5161878793675063</v>
       </c>
       <c r="C21" s="2">
-        <v>115.41188944836196</v>
+        <v>118.72109389625467</v>
       </c>
       <c r="D21" s="2">
-        <v>469.9092007096026</v>
+        <v>212.19935014274668</v>
       </c>
       <c r="E21" s="2">
-        <v>1860.1238938172387</v>
+        <v>1036.231437146655</v>
       </c>
       <c r="F21" s="2">
-        <v>-0.26711402880839363</v>
+        <v>-16.273811849212194</v>
       </c>
       <c r="G21" s="2">
-        <v>236.65921383767352</v>
+        <v>101.31472729715283</v>
       </c>
       <c r="H21" s="2">
-        <v>-0.15675101222561513</v>
+        <v>-0.45657753337363111</v>
       </c>
       <c r="I21" s="2">
-        <v>-0.2334328294893655</v>
+        <v>-0.19824564344411741</v>
       </c>
       <c r="J21" s="2">
-        <v>178.10812813316903</v>
+        <v>117.88915320511843</v>
       </c>
       <c r="K21" s="2">
-        <v>3075.5720272356239</v>
+        <v>1308.071686453269</v>
       </c>
       <c r="L21" s="2">
-        <v>82.77207841559202</v>
+        <v>53.958704464156312</v>
       </c>
       <c r="M21" s="2">
-        <v>0.96700177812472232</v>
+        <v>-5.8965824487376188E-2</v>
       </c>
       <c r="N21" s="2">
-        <v>1.6422288157108638</v>
+        <v>1.0384069729875334</v>
       </c>
       <c r="O21" s="2">
-        <v>29982.694860039748</v>
+        <v>4996.1249471852452</v>
       </c>
       <c r="P21" s="2">
-        <v>1035.7743059901118</v>
+        <v>1068.8534475922943</v>
       </c>
       <c r="Q21" s="2">
-        <v>9.912339755681165</v>
+        <v>4.089416606506262</v>
       </c>
       <c r="R21" s="2">
-        <v>-1.1990463986909176E-2</v>
+        <v>-0.50492415436178573</v>
       </c>
       <c r="S21" s="2">
-        <v>36.263231901413491</v>
+        <v>27.550866873044534</v>
       </c>
       <c r="T21" s="2">
-        <v>12.658578875179339</v>
+        <v>7.9246784811961737</v>
       </c>
       <c r="U21" s="2">
-        <v>0.50082881758738473</v>
+        <v>0.1009761118158277</v>
       </c>
       <c r="V21" s="2">
-        <v>-0.55095772109992602</v>
+        <v>-0.26145912224373097</v>
       </c>
       <c r="W21" s="2">
-        <v>7.538699213345236</v>
+        <v>3.8452045444973062</v>
       </c>
       <c r="X21" s="2">
-        <v>0.31092324635457497</v>
+        <v>9.5279041683327528E-2</v>
       </c>
       <c r="Y21" s="2">
-        <v>2.3318914028694897E-2</v>
+        <v>1.6531815645842371E-2</v>
       </c>
       <c r="Z21" s="2">
-        <v>2.9826139748215946E-2</v>
+        <v>2.7473008745095104E-2</v>
       </c>
       <c r="AA21" s="2">
-        <v>0.22890800464134167</v>
+        <v>0.12790154260146741</v>
       </c>
       <c r="AB21" s="2">
-        <v>70.69023090957927</v>
+        <v>30.512254155415455</v>
       </c>
       <c r="AC21" s="2">
-        <v>3.2816968700410385</v>
+        <v>3.8214473614038731</v>
       </c>
       <c r="AD21" s="2">
-        <v>0.10975216665876578</v>
+        <v>4.4691920412453054E-2</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2318,91 +2376,91 @@
         <v>48</v>
       </c>
       <c r="B22" s="2">
-        <v>5.6367430601636181</v>
+        <v>5.3631711327032212</v>
       </c>
       <c r="C22" s="2">
-        <v>95.736591332328032</v>
+        <v>78.942964984250381</v>
       </c>
       <c r="D22" s="2">
-        <v>208.9343902768168</v>
+        <v>205.05556789944288</v>
       </c>
       <c r="E22" s="2">
-        <v>1020.8470763510804</v>
+        <v>992.62110771468781</v>
       </c>
       <c r="F22" s="2">
-        <v>-11.811339043780041</v>
+        <v>10.440142818950596</v>
       </c>
       <c r="G22" s="2">
-        <v>207.96747592722875</v>
+        <v>99.609356397831661</v>
       </c>
       <c r="H22" s="2">
-        <v>-0.18875558249727917</v>
+        <v>-0.45518461215129563</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.13837558582597778</v>
+        <v>-0.16923555846330049</v>
       </c>
       <c r="J22" s="2">
-        <v>128.88529172240308</v>
+        <v>118.27849256379837</v>
       </c>
       <c r="K22" s="2">
-        <v>1362.4184794806288</v>
+        <v>1279.6989500421544</v>
       </c>
       <c r="L22" s="2">
-        <v>53.788745312114003</v>
+        <v>54.136169986286774</v>
       </c>
       <c r="M22" s="2">
-        <v>0.253470142275944</v>
+        <v>-1.8735262739195027E-2</v>
       </c>
       <c r="N22" s="2">
-        <v>1.0340408232828711</v>
+        <v>0.99537162967745652</v>
       </c>
       <c r="O22" s="2">
-        <v>25613.902480465953</v>
+        <v>4991.6142698747753</v>
       </c>
       <c r="P22" s="2">
-        <v>891.58314389460918</v>
+        <v>1137.7953542917289</v>
       </c>
       <c r="Q22" s="2">
-        <v>8.2673304968342123</v>
+        <v>4.2538740160005286</v>
       </c>
       <c r="R22" s="2">
-        <v>-0.31569002742685426</v>
+        <v>-0.36024456892053164</v>
       </c>
       <c r="S22" s="2">
-        <v>8.1795572247184278</v>
+        <v>5.8107527963860823</v>
       </c>
       <c r="T22" s="2">
-        <v>3.1412322608210261</v>
+        <v>2.526685552808861</v>
       </c>
       <c r="U22" s="2">
-        <v>0.41243127230009047</v>
+        <v>0.1058372756535233</v>
       </c>
       <c r="V22" s="2">
-        <v>-0.26816352665990878</v>
+        <v>-0.23455621842211186</v>
       </c>
       <c r="W22" s="2">
-        <v>4.2804005896683801</v>
+        <v>3.9491258977696817</v>
       </c>
       <c r="X22" s="2">
-        <v>0.25836411569943779</v>
+        <v>8.3749138900625616E-2</v>
       </c>
       <c r="Y22" s="2">
-        <v>2.4789416634526967E-2</v>
+        <v>1.8142452429898929E-2</v>
       </c>
       <c r="Z22" s="2">
-        <v>2.9874691773785302E-2</v>
+        <v>2.1812959022606496E-2</v>
       </c>
       <c r="AA22" s="2">
-        <v>0.15145387101031685</v>
+        <v>0.19339376786249909</v>
       </c>
       <c r="AB22" s="2">
-        <v>54.811764401560225</v>
+        <v>32.047541395386382</v>
       </c>
       <c r="AC22" s="2">
-        <v>4.0747946821776644</v>
+        <v>5.5722723277310005</v>
       </c>
       <c r="AD22" s="2">
-        <v>4.6727430673569673E-2</v>
+        <v>4.4637751993394065E-2</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,91 +2468,91 @@
         <v>49</v>
       </c>
       <c r="B23" s="2">
-        <v>5.5161878793675063</v>
+        <v>5.7236447507072086</v>
       </c>
       <c r="C23" s="2">
-        <v>118.72109389625467</v>
+        <v>79.923000776331804</v>
       </c>
       <c r="D23" s="2">
-        <v>212.19935014274668</v>
+        <v>266.48010625855244</v>
       </c>
       <c r="E23" s="2">
-        <v>1036.231437146655</v>
+        <v>1862.9436327691687</v>
       </c>
       <c r="F23" s="2">
-        <v>-16.273811849212194</v>
+        <v>-10.655089627334924</v>
       </c>
       <c r="G23" s="2">
-        <v>101.31472729715283</v>
+        <v>156.57284408383396</v>
       </c>
       <c r="H23" s="2">
-        <v>-0.45657753337363111</v>
+        <v>-1.0301829247679188</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.19824564344411741</v>
+        <v>-0.2278906150349318</v>
       </c>
       <c r="J23" s="2">
-        <v>117.88915320511843</v>
+        <v>154.81433325770013</v>
       </c>
       <c r="K23" s="2">
-        <v>1308.071686453269</v>
+        <v>1299.9209031938074</v>
       </c>
       <c r="L23" s="2">
-        <v>53.958704464156312</v>
+        <v>72.195634194897224</v>
       </c>
       <c r="M23" s="2">
-        <v>-5.8965824487376188E-2</v>
+        <v>1.3629156040519184</v>
       </c>
       <c r="N23" s="2">
-        <v>1.0384069729875334</v>
+        <v>1.893060473653279</v>
       </c>
       <c r="O23" s="2">
-        <v>4996.1249471852452</v>
+        <v>9601.5720206467722</v>
       </c>
       <c r="P23" s="2">
-        <v>1068.8534475922943</v>
+        <v>1046.146825058793</v>
       </c>
       <c r="Q23" s="2">
-        <v>4.089416606506262</v>
+        <v>5.7040634812444502</v>
       </c>
       <c r="R23" s="2">
-        <v>-0.50492415436178573</v>
+        <v>-1.0436727517786815E-2</v>
       </c>
       <c r="S23" s="2">
-        <v>27.550866873044534</v>
+        <v>16.628322254796075</v>
       </c>
       <c r="T23" s="2">
-        <v>7.9246784811961737</v>
+        <v>4.7326694843817885</v>
       </c>
       <c r="U23" s="2">
-        <v>0.1009761118158277</v>
+        <v>0.23596075522510795</v>
       </c>
       <c r="V23" s="2">
-        <v>-0.26145912224373097</v>
+        <v>-0.42102114676742702</v>
       </c>
       <c r="W23" s="2">
-        <v>3.8452045444973062</v>
+        <v>4.6292628952636274</v>
       </c>
       <c r="X23" s="2">
-        <v>9.5279041683327528E-2</v>
+        <v>0.11010581433995018</v>
       </c>
       <c r="Y23" s="2">
-        <v>1.6531815645842371E-2</v>
+        <v>2.1272514004907771E-2</v>
       </c>
       <c r="Z23" s="2">
-        <v>2.7473008745095104E-2</v>
+        <v>3.2546556231230671E-2</v>
       </c>
       <c r="AA23" s="2">
-        <v>0.12790154260146741</v>
+        <v>9.5169016702070439E-2</v>
       </c>
       <c r="AB23" s="2">
-        <v>30.512254155415455</v>
+        <v>43.488471835705539</v>
       </c>
       <c r="AC23" s="2">
-        <v>3.8214473614038731</v>
+        <v>10.155462041388052</v>
       </c>
       <c r="AD23" s="2">
-        <v>4.4691920412453054E-2</v>
+        <v>6.1400592754106233E-2</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,91 +2560,91 @@
         <v>50</v>
       </c>
       <c r="B24" s="2">
-        <v>5.3631711327032212</v>
+        <v>5.7235694947042157</v>
       </c>
       <c r="C24" s="2">
-        <v>78.942964984250381</v>
+        <v>131.30699518404117</v>
       </c>
       <c r="D24" s="2">
-        <v>205.05556789944288</v>
+        <v>261.5930898202522</v>
       </c>
       <c r="E24" s="2">
-        <v>992.62110771468781</v>
+        <v>1800.1414934165662</v>
       </c>
       <c r="F24" s="2">
-        <v>10.440142818950596</v>
+        <v>-1.6498658984614925</v>
       </c>
       <c r="G24" s="2">
-        <v>99.609356397831661</v>
+        <v>156.42013965312057</v>
       </c>
       <c r="H24" s="2">
-        <v>-0.45518461215129563</v>
+        <v>-0.96836782710438007</v>
       </c>
       <c r="I24" s="2">
-        <v>-0.16923555846330049</v>
+        <v>-0.21952763951343446</v>
       </c>
       <c r="J24" s="2">
-        <v>118.27849256379837</v>
+        <v>153.34175350186882</v>
       </c>
       <c r="K24" s="2">
-        <v>1279.6989500421544</v>
+        <v>1280.7721622894246</v>
       </c>
       <c r="L24" s="2">
-        <v>54.136169986286774</v>
+        <v>70.509597475091311</v>
       </c>
       <c r="M24" s="2">
-        <v>-1.8735262739195027E-2</v>
+        <v>1.3421973131664413</v>
       </c>
       <c r="N24" s="2">
-        <v>0.99537162967745652</v>
+        <v>1.8901370720847195</v>
       </c>
       <c r="O24" s="2">
-        <v>4991.6142698747753</v>
+        <v>9603.363853826173</v>
       </c>
       <c r="P24" s="2">
-        <v>1137.7953542917289</v>
+        <v>1052.3732188292468</v>
       </c>
       <c r="Q24" s="2">
-        <v>4.2538740160005286</v>
+        <v>5.6677220266345163</v>
       </c>
       <c r="R24" s="2">
-        <v>-0.36024456892053164</v>
+        <v>-4.3422231909901023E-3</v>
       </c>
       <c r="S24" s="2">
-        <v>5.8107527963860823</v>
+        <v>17.2332695197966</v>
       </c>
       <c r="T24" s="2">
-        <v>2.526685552808861</v>
+        <v>6.1278706528931304</v>
       </c>
       <c r="U24" s="2">
-        <v>0.1058372756535233</v>
+        <v>0.22395530006516623</v>
       </c>
       <c r="V24" s="2">
-        <v>-0.23455621842211186</v>
+        <v>-0.57777495298403225</v>
       </c>
       <c r="W24" s="2">
-        <v>3.9491258977696817</v>
+        <v>4.5108030515850546</v>
       </c>
       <c r="X24" s="2">
-        <v>8.3749138900625616E-2</v>
+        <v>9.8182473037223883E-2</v>
       </c>
       <c r="Y24" s="2">
-        <v>1.8142452429898929E-2</v>
+        <v>2.1385570068157181E-2</v>
       </c>
       <c r="Z24" s="2">
-        <v>2.1812959022606496E-2</v>
+        <v>4.0420976286736118E-2</v>
       </c>
       <c r="AA24" s="2">
-        <v>0.19339376786249909</v>
+        <v>0.11823118359542382</v>
       </c>
       <c r="AB24" s="2">
-        <v>32.047541395386382</v>
+        <v>43.525351259276903</v>
       </c>
       <c r="AC24" s="2">
-        <v>5.5722723277310005</v>
+        <v>5.9714203837300825</v>
       </c>
       <c r="AD24" s="2">
-        <v>4.4637751993394065E-2</v>
+        <v>5.9422423762825492E-2</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2594,91 +2652,91 @@
         <v>51</v>
       </c>
       <c r="B25" s="2">
-        <v>5.7236447507072086</v>
+        <v>5.0274589513572598</v>
       </c>
       <c r="C25" s="2">
-        <v>79.923000776331804</v>
+        <v>105.76339939050713</v>
       </c>
       <c r="D25" s="2">
-        <v>266.48010625855244</v>
+        <v>286.00021057076236</v>
       </c>
       <c r="E25" s="2">
-        <v>1862.9436327691687</v>
+        <v>1722.7787575874356</v>
       </c>
       <c r="F25" s="2">
-        <v>-10.655089627334924</v>
+        <v>-3.0469462347329714</v>
       </c>
       <c r="G25" s="2">
-        <v>156.57284408383396</v>
+        <v>361.95201854004881</v>
       </c>
       <c r="H25" s="2">
-        <v>-1.0301829247679188</v>
+        <v>-0.13662770823348044</v>
       </c>
       <c r="I25" s="2">
-        <v>-0.2278906150349318</v>
+        <v>-0.15620872727297924</v>
       </c>
       <c r="J25" s="2">
-        <v>154.81433325770013</v>
+        <v>228.13285001769711</v>
       </c>
       <c r="K25" s="2">
-        <v>1299.9209031938074</v>
+        <v>1830.0055161459691</v>
       </c>
       <c r="L25" s="2">
-        <v>72.195634194897224</v>
+        <v>71.001724718921608</v>
       </c>
       <c r="M25" s="2">
-        <v>1.3629156040519184</v>
+        <v>2.1038687575309827</v>
       </c>
       <c r="N25" s="2">
-        <v>1.893060473653279</v>
+        <v>2.4426024616377626</v>
       </c>
       <c r="O25" s="2">
-        <v>9601.5720206467722</v>
+        <v>10194.730561913277</v>
       </c>
       <c r="P25" s="2">
-        <v>1046.146825058793</v>
+        <v>3674.800841155643</v>
       </c>
       <c r="Q25" s="2">
-        <v>5.7040634812444502</v>
+        <v>6.4244519408220038</v>
       </c>
       <c r="R25" s="2">
-        <v>-1.0436727517786815E-2</v>
+        <v>0.19346593145992072</v>
       </c>
       <c r="S25" s="2">
-        <v>16.628322254796075</v>
+        <v>3.073682960313874</v>
       </c>
       <c r="T25" s="2">
-        <v>4.7326694843817885</v>
+        <v>10.08125098368231</v>
       </c>
       <c r="U25" s="2">
-        <v>0.23596075522510795</v>
+        <v>0.75472233609191286</v>
       </c>
       <c r="V25" s="2">
-        <v>-0.42102114676742702</v>
+        <v>-0.37322039159748627</v>
       </c>
       <c r="W25" s="2">
-        <v>4.6292628952636274</v>
+        <v>9.0588909876825774</v>
       </c>
       <c r="X25" s="2">
-        <v>0.11010581433995018</v>
+        <v>0.34163702748916219</v>
       </c>
       <c r="Y25" s="2">
-        <v>2.1272514004907771E-2</v>
+        <v>5.2262040353440176E-2</v>
       </c>
       <c r="Z25" s="2">
-        <v>3.2546556231230671E-2</v>
+        <v>7.1228543793029883E-2</v>
       </c>
       <c r="AA25" s="2">
-        <v>9.5169016702070439E-2</v>
+        <v>1.0033934013569019</v>
       </c>
       <c r="AB25" s="2">
-        <v>43.488471835705539</v>
+        <v>203.01792518682754</v>
       </c>
       <c r="AC25" s="2">
-        <v>10.155462041388052</v>
+        <v>70.300930918825244</v>
       </c>
       <c r="AD25" s="2">
-        <v>6.1400592754106233E-2</v>
+        <v>0.10440121164718857</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2686,91 +2744,91 @@
         <v>52</v>
       </c>
       <c r="B26" s="2">
-        <v>5.7235694947042157</v>
+        <v>5.1993025379889568</v>
       </c>
       <c r="C26" s="2">
-        <v>131.30699518404117</v>
+        <v>70.256133173156641</v>
       </c>
       <c r="D26" s="2">
-        <v>261.5930898202522</v>
+        <v>208.48171291066672</v>
       </c>
       <c r="E26" s="2">
-        <v>1800.1414934165662</v>
+        <v>1309.2394175468526</v>
       </c>
       <c r="F26" s="2">
-        <v>-1.6498658984614925</v>
+        <v>-1.8895754817059591</v>
       </c>
       <c r="G26" s="2">
-        <v>156.42013965312057</v>
+        <v>151.98293655319441</v>
       </c>
       <c r="H26" s="2">
-        <v>-0.96836782710438007</v>
+        <v>-0.25951319278966156</v>
       </c>
       <c r="I26" s="2">
-        <v>-0.21952763951343446</v>
+        <v>-0.14390632523517477</v>
       </c>
       <c r="J26" s="2">
-        <v>153.34175350186882</v>
+        <v>141.13475151864492</v>
       </c>
       <c r="K26" s="2">
-        <v>1280.7721622894246</v>
+        <v>1050.6603034610391</v>
       </c>
       <c r="L26" s="2">
-        <v>70.509597475091311</v>
+        <v>61.68480981062276</v>
       </c>
       <c r="M26" s="2">
-        <v>1.3421973131664413</v>
+        <v>0.9046820707249148</v>
       </c>
       <c r="N26" s="2">
-        <v>1.8901370720847195</v>
+        <v>1.355574229956523</v>
       </c>
       <c r="O26" s="2">
-        <v>9603.363853826173</v>
+        <v>12529.984281476269</v>
       </c>
       <c r="P26" s="2">
-        <v>1052.3732188292468</v>
+        <v>214.40097550766018</v>
       </c>
       <c r="Q26" s="2">
-        <v>5.6677220266345163</v>
+        <v>1.3871411241399192</v>
       </c>
       <c r="R26" s="2">
-        <v>-4.3422231909901023E-3</v>
+        <v>-6.3312807532541468E-2</v>
       </c>
       <c r="S26" s="2">
-        <v>17.2332695197966</v>
+        <v>2.4851787475482161</v>
       </c>
       <c r="T26" s="2">
-        <v>6.1278706528931304</v>
+        <v>4.8045827951138973</v>
       </c>
       <c r="U26" s="2">
-        <v>0.22395530006516623</v>
+        <v>0.5095107790541139</v>
       </c>
       <c r="V26" s="2">
-        <v>-0.57777495298403225</v>
+        <v>-0.41260805651050009</v>
       </c>
       <c r="W26" s="2">
-        <v>4.5108030515850546</v>
+        <v>3.3917572547086579</v>
       </c>
       <c r="X26" s="2">
-        <v>9.8182473037223883E-2</v>
+        <v>0.26803317747506189</v>
       </c>
       <c r="Y26" s="2">
-        <v>2.1385570068157181E-2</v>
+        <v>4.739745145747376E-2</v>
       </c>
       <c r="Z26" s="2">
-        <v>4.0420976286736118E-2</v>
+        <v>5.3759398263177133E-2</v>
       </c>
       <c r="AA26" s="2">
-        <v>0.11823118359542382</v>
+        <v>0.64003484798780341</v>
       </c>
       <c r="AB26" s="2">
-        <v>43.525351259276903</v>
+        <v>35.169971689828856</v>
       </c>
       <c r="AC26" s="2">
-        <v>5.9714203837300825</v>
+        <v>28.524817636853516</v>
       </c>
       <c r="AD26" s="2">
-        <v>5.9422423762825492E-2</v>
+        <v>6.2705514872109874E-2</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2778,91 +2836,91 @@
         <v>53</v>
       </c>
       <c r="B27" s="2">
-        <v>5.0274589513572598</v>
+        <v>5.9087551036278239</v>
       </c>
       <c r="C27" s="2">
-        <v>105.76339939050713</v>
+        <v>84.87779187089032</v>
       </c>
       <c r="D27" s="2">
-        <v>286.00021057076236</v>
+        <v>227.29475778962373</v>
       </c>
       <c r="E27" s="2">
-        <v>1722.7787575874356</v>
+        <v>1532.2771451447359</v>
       </c>
       <c r="F27" s="2">
-        <v>-3.0469462347329714</v>
+        <v>3.6918265463242754</v>
       </c>
       <c r="G27" s="2">
-        <v>361.95201854004881</v>
+        <v>136.139277613936</v>
       </c>
       <c r="H27" s="2">
-        <v>-0.13662770823348044</v>
+        <v>-0.37465716535984739</v>
       </c>
       <c r="I27" s="2">
-        <v>-0.15620872727297924</v>
+        <v>-0.11738070863679644</v>
       </c>
       <c r="J27" s="2">
-        <v>228.13285001769711</v>
+        <v>146.52576180585729</v>
       </c>
       <c r="K27" s="2">
-        <v>1830.0055161459691</v>
+        <v>1216.9484947867154</v>
       </c>
       <c r="L27" s="2">
-        <v>71.001724718921608</v>
+        <v>66.009281383730936</v>
       </c>
       <c r="M27" s="2">
-        <v>2.1038687575309827</v>
+        <v>0.70692487816890337</v>
       </c>
       <c r="N27" s="2">
-        <v>2.4426024616377626</v>
+        <v>1.2601401607237201</v>
       </c>
       <c r="O27" s="2">
-        <v>10194.730561913277</v>
+        <v>10959.783039003099</v>
       </c>
       <c r="P27" s="2">
-        <v>3674.800841155643</v>
+        <v>181.63912220052964</v>
       </c>
       <c r="Q27" s="2">
-        <v>6.4244519408220038</v>
+        <v>1.1974699528158379</v>
       </c>
       <c r="R27" s="2">
-        <v>0.19346593145992072</v>
+        <v>-0.13509119773567016</v>
       </c>
       <c r="S27" s="2">
-        <v>3.073682960313874</v>
+        <v>3.7287158788573946</v>
       </c>
       <c r="T27" s="2">
-        <v>10.08125098368231</v>
+        <v>4.688824042076412</v>
       </c>
       <c r="U27" s="2">
-        <v>0.75472233609191286</v>
+        <v>0.42883194400575986</v>
       </c>
       <c r="V27" s="2">
-        <v>-0.37322039159748627</v>
+        <v>-0.438603655518573</v>
       </c>
       <c r="W27" s="2">
-        <v>9.0588909876825774</v>
+        <v>3.5789080221335206</v>
       </c>
       <c r="X27" s="2">
-        <v>0.34163702748916219</v>
+        <v>0.2139517678130631</v>
       </c>
       <c r="Y27" s="2">
-        <v>5.2262040353440176E-2</v>
+        <v>5.6299483505682466E-2</v>
       </c>
       <c r="Z27" s="2">
-        <v>7.1228543793029883E-2</v>
+        <v>4.0958896992294651E-2</v>
       </c>
       <c r="AA27" s="2">
-        <v>1.0033934013569019</v>
+        <v>0.53632292774595924</v>
       </c>
       <c r="AB27" s="2">
-        <v>203.01792518682754</v>
+        <v>31.383791028959141</v>
       </c>
       <c r="AC27" s="2">
-        <v>70.300930918825244</v>
+        <v>11.966972643836607</v>
       </c>
       <c r="AD27" s="2">
-        <v>0.10440121164718857</v>
+        <v>5.7787530693259204E-2</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,91 +2928,91 @@
         <v>54</v>
       </c>
       <c r="B28" s="2">
-        <v>5.1993025379889568</v>
+        <v>7.6424085022693404</v>
       </c>
       <c r="C28" s="2">
-        <v>70.256133173156641</v>
+        <v>156.10676767618941</v>
       </c>
       <c r="D28" s="2">
-        <v>208.48171291066672</v>
+        <v>364.09614094113749</v>
       </c>
       <c r="E28" s="2">
-        <v>1309.2394175468526</v>
+        <v>1422.8966541301706</v>
       </c>
       <c r="F28" s="2">
-        <v>-1.8895754817059591</v>
+        <v>-26.016366631059601</v>
       </c>
       <c r="G28" s="2">
-        <v>151.98293655319441</v>
+        <v>61.332217005592952</v>
       </c>
       <c r="H28" s="2">
-        <v>-0.25951319278966156</v>
+        <v>-0.82702540493929244</v>
       </c>
       <c r="I28" s="2">
-        <v>-0.14390632523517477</v>
+        <v>-0.20029010297412361</v>
       </c>
       <c r="J28" s="2">
-        <v>141.13475151864492</v>
+        <v>131.1139120423542</v>
       </c>
       <c r="K28" s="2">
-        <v>1050.6603034610391</v>
+        <v>2311.8414373334908</v>
       </c>
       <c r="L28" s="2">
-        <v>61.68480981062276</v>
+        <v>71.058313800601539</v>
       </c>
       <c r="M28" s="2">
-        <v>0.9046820707249148</v>
+        <v>-8.9363345130741428E-2</v>
       </c>
       <c r="N28" s="2">
-        <v>1.355574229956523</v>
+        <v>1.2239673480716504</v>
       </c>
       <c r="O28" s="2">
-        <v>12529.984281476269</v>
+        <v>2548.1288114686959</v>
       </c>
       <c r="P28" s="2">
-        <v>214.40097550766018</v>
+        <v>698.57439636502556</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.3871411241399192</v>
+        <v>1.5541182630064476</v>
       </c>
       <c r="R28" s="2">
-        <v>-6.3312807532541468E-2</v>
+        <v>-0.31972517931629629</v>
       </c>
       <c r="S28" s="2">
-        <v>2.4851787475482161</v>
+        <v>1.8259890530042671</v>
       </c>
       <c r="T28" s="2">
-        <v>4.8045827951138973</v>
+        <v>3.8294228588485364</v>
       </c>
       <c r="U28" s="2">
-        <v>0.5095107790541139</v>
+        <v>0.14765980766183048</v>
       </c>
       <c r="V28" s="2">
-        <v>-0.41260805651050009</v>
+        <v>-0.34688402170214072</v>
       </c>
       <c r="W28" s="2">
-        <v>3.3917572547086579</v>
+        <v>5.4050442890461783</v>
       </c>
       <c r="X28" s="2">
-        <v>0.26803317747506189</v>
+        <v>9.9758887667596108E-2</v>
       </c>
       <c r="Y28" s="2">
-        <v>4.739745145747376E-2</v>
+        <v>5.3661016637043181E-2</v>
       </c>
       <c r="Z28" s="2">
-        <v>5.3759398263177133E-2</v>
+        <v>2.3191839613081584E-2</v>
       </c>
       <c r="AA28" s="2">
-        <v>0.64003484798780341</v>
+        <v>0.3831842075205093</v>
       </c>
       <c r="AB28" s="2">
-        <v>35.169971689828856</v>
+        <v>42.982100537561308</v>
       </c>
       <c r="AC28" s="2">
-        <v>28.524817636853516</v>
+        <v>4.9874068563057881</v>
       </c>
       <c r="AD28" s="2">
-        <v>6.2705514872109874E-2</v>
+        <v>6.9483528730077321E-2</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2962,643 +3020,643 @@
         <v>55</v>
       </c>
       <c r="B29" s="2">
-        <v>5.9087551036278239</v>
+        <v>6.3221229818907787</v>
       </c>
       <c r="C29" s="2">
-        <v>84.87779187089032</v>
+        <v>123.21938407460928</v>
       </c>
       <c r="D29" s="2">
-        <v>227.29475778962373</v>
+        <v>235.62680288174121</v>
       </c>
       <c r="E29" s="2">
-        <v>1532.2771451447359</v>
+        <v>1441.6364958894703</v>
       </c>
       <c r="F29" s="2">
-        <v>3.6918265463242754</v>
+        <v>-1.9796676587212871</v>
       </c>
       <c r="G29" s="2">
-        <v>136.139277613936</v>
+        <v>107.95178340785223</v>
       </c>
       <c r="H29" s="2">
-        <v>-0.37465716535984739</v>
+        <v>-0.51712688231873594</v>
       </c>
       <c r="I29" s="2">
-        <v>-0.11738070863679644</v>
+        <v>-0.14715322416374405</v>
       </c>
       <c r="J29" s="2">
-        <v>146.52576180585729</v>
+        <v>129.1522345511988</v>
       </c>
       <c r="K29" s="2">
-        <v>1216.9484947867154</v>
+        <v>1398.7232861705938</v>
       </c>
       <c r="L29" s="2">
-        <v>66.009281383730936</v>
+        <v>64.779831566107163</v>
       </c>
       <c r="M29" s="2">
-        <v>0.70692487816890337</v>
+        <v>0.35906671479113189</v>
       </c>
       <c r="N29" s="2">
-        <v>1.2601401607237201</v>
+        <v>1.2077247094295043</v>
       </c>
       <c r="O29" s="2">
-        <v>10959.783039003099</v>
+        <v>12008.354362528638</v>
       </c>
       <c r="P29" s="2">
-        <v>181.63912220052964</v>
+        <v>128.10659907890471</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.1974699528158379</v>
+        <v>0.82877667559580537</v>
       </c>
       <c r="R29" s="2">
-        <v>-0.13509119773567016</v>
+        <v>-0.1006664981746405</v>
       </c>
       <c r="S29" s="2">
-        <v>3.7287158788573946</v>
+        <v>2.3233710661449516</v>
       </c>
       <c r="T29" s="2">
-        <v>4.688824042076412</v>
+        <v>3.9434098402712112</v>
       </c>
       <c r="U29" s="2">
-        <v>0.42883194400575986</v>
+        <v>0.41169933533807057</v>
       </c>
       <c r="V29" s="2">
-        <v>-0.438603655518573</v>
+        <v>-0.32225383381090505</v>
       </c>
       <c r="W29" s="2">
-        <v>3.5789080221335206</v>
+        <v>3.7143301036307315</v>
       </c>
       <c r="X29" s="2">
-        <v>0.2139517678130631</v>
+        <v>0.20563659763030484</v>
       </c>
       <c r="Y29" s="2">
-        <v>5.6299483505682466E-2</v>
+        <v>5.0998598447091627E-2</v>
       </c>
       <c r="Z29" s="2">
-        <v>4.0958896992294651E-2</v>
+        <v>2.9736598958369415E-2</v>
       </c>
       <c r="AA29" s="2">
-        <v>0.53632292774595924</v>
+        <v>0.23820462285891195</v>
       </c>
       <c r="AB29" s="2">
-        <v>31.383791028959141</v>
+        <v>26.216434868276348</v>
       </c>
       <c r="AC29" s="2">
-        <v>11.966972643836607</v>
+        <v>17.520375244883688</v>
       </c>
       <c r="AD29" s="2">
-        <v>5.7787530693259204E-2</v>
+        <v>5.5558197469164988E-2</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
+      <c r="A30" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B30" s="2">
-        <v>7.6424085022693404</v>
+        <v>5.8764144982184172</v>
       </c>
       <c r="C30" s="2">
-        <v>156.10676767618941</v>
+        <v>98.230916209212154</v>
       </c>
       <c r="D30" s="2">
-        <v>364.09614094113749</v>
+        <v>214.37002174326437</v>
       </c>
       <c r="E30" s="2">
-        <v>1422.8966541301706</v>
+        <v>1248.4681056754082</v>
       </c>
       <c r="F30" s="2">
-        <v>-26.016366631059601</v>
+        <v>-9.8573026148016005</v>
       </c>
       <c r="G30" s="2">
-        <v>61.332217005592952</v>
+        <v>100.53687752795921</v>
       </c>
       <c r="H30" s="2">
-        <v>-0.82702540493929244</v>
+        <v>-0.38347812058030367</v>
       </c>
       <c r="I30" s="2">
-        <v>-0.20029010297412361</v>
+        <v>-0.17986322900598978</v>
       </c>
       <c r="J30" s="2">
-        <v>131.1139120423542</v>
+        <v>120.41719168130109</v>
       </c>
       <c r="K30" s="2">
-        <v>2311.8414373334908</v>
+        <v>1254.9878311666819</v>
       </c>
       <c r="L30" s="2">
-        <v>71.058313800601539</v>
+        <v>60.982355471028448</v>
       </c>
       <c r="M30" s="2">
-        <v>-8.9363345130741428E-2</v>
+        <v>0.1916832795669334</v>
       </c>
       <c r="N30" s="2">
-        <v>1.2239673480716504</v>
+        <v>1.1709149318427521</v>
       </c>
       <c r="O30" s="2">
-        <v>2548.1288114686959</v>
+        <v>12084.944731817288</v>
       </c>
       <c r="P30" s="2">
-        <v>698.57439636502556</v>
+        <v>124.1207133146923</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.5541182630064476</v>
+        <v>0.79119860711490397</v>
       </c>
       <c r="R30" s="2">
-        <v>-0.31972517931629629</v>
+        <v>-9.1509362871301708E-2</v>
       </c>
       <c r="S30" s="2">
-        <v>1.8259890530042671</v>
+        <v>2.1145756791261587</v>
       </c>
       <c r="T30" s="2">
-        <v>3.8294228588485364</v>
+        <v>3.2951850835460719</v>
       </c>
       <c r="U30" s="2">
-        <v>0.14765980766183048</v>
+        <v>0.41012617735920015</v>
       </c>
       <c r="V30" s="2">
-        <v>-0.34688402170214072</v>
+        <v>-0.26714487890401573</v>
       </c>
       <c r="W30" s="2">
-        <v>5.4050442890461783</v>
+        <v>3.4417063772675753</v>
       </c>
       <c r="X30" s="2">
-        <v>9.9758887667596108E-2</v>
+        <v>0.18873101299247069</v>
       </c>
       <c r="Y30" s="2">
-        <v>5.3661016637043181E-2</v>
+        <v>6.408105108261615E-2</v>
       </c>
       <c r="Z30" s="2">
-        <v>2.3191839613081584E-2</v>
+        <v>3.9961792934732038E-2</v>
       </c>
       <c r="AA30" s="2">
-        <v>0.3831842075205093</v>
+        <v>0.18877477336377529</v>
       </c>
       <c r="AB30" s="2">
-        <v>42.982100537561308</v>
+        <v>25.374670748860332</v>
       </c>
       <c r="AC30" s="2">
-        <v>4.9874068563057881</v>
+        <v>6.9530788889223523</v>
       </c>
       <c r="AD30" s="2">
-        <v>6.9483528730077321E-2</v>
+        <v>5.0093050440028514E-2</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5.3038395699447687</v>
+      </c>
+      <c r="C31" s="2">
+        <v>235.79754134945671</v>
+      </c>
+      <c r="D31" s="2">
+        <v>216.03508295867931</v>
+      </c>
+      <c r="E31" s="2">
+        <v>925.22058663101939</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-19.35439081373789</v>
+      </c>
+      <c r="G31" s="2">
+        <v>66.976143341115687</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-0.65714934710132655</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-0.24413268418011472</v>
+      </c>
+      <c r="J31" s="2">
+        <v>113.19910056402678</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1326.2212750339615</v>
+      </c>
+      <c r="L31" s="2">
+        <v>53.687591535378907</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-0.1921750369054063</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.85103091117228202</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3788.2403522995273</v>
+      </c>
+      <c r="P31" s="2">
+        <v>955.33530637283127</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2.2661500192304711</v>
+      </c>
+      <c r="R31" s="2">
+        <v>-0.59048740899258201</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1.9299410393511833</v>
+      </c>
+      <c r="T31" s="2">
+        <v>3.3257172464924825</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.20121407642092035</v>
+      </c>
+      <c r="V31" s="2">
+        <v>-0.27541614922946134</v>
+      </c>
+      <c r="W31" s="2">
+        <v>4.1121237996893294</v>
+      </c>
+      <c r="X31" s="2">
+        <v>7.4775062959617652E-2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1.8757055052734783E-2</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>3.4195493430706395E-2</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.1455176323347307</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>52.985755590591374</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>3.6331431389042699</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>4.5550387722476299E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2">
-        <v>6.3221229818907787</v>
-      </c>
-      <c r="C31" s="2">
-        <v>123.21938407460928</v>
-      </c>
-      <c r="D31" s="2">
-        <v>235.62680288174121</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1441.6364958894703</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-1.9796676587212871</v>
-      </c>
-      <c r="G31" s="2">
-        <v>107.95178340785223</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-0.51712688231873594</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-0.14715322416374405</v>
-      </c>
-      <c r="J31" s="2">
-        <v>129.1522345511988</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1398.7232861705938</v>
-      </c>
-      <c r="L31" s="2">
-        <v>64.779831566107163</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.35906671479113189</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1.2077247094295043</v>
-      </c>
-      <c r="O31" s="2">
-        <v>12008.354362528638</v>
-      </c>
-      <c r="P31" s="2">
-        <v>128.10659907890471</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.82877667559580537</v>
-      </c>
-      <c r="R31" s="2">
-        <v>-0.1006664981746405</v>
-      </c>
-      <c r="S31" s="2">
-        <v>2.3233710661449516</v>
-      </c>
-      <c r="T31" s="2">
-        <v>3.9434098402712112</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0.41169933533807057</v>
-      </c>
-      <c r="V31" s="2">
-        <v>-0.32225383381090505</v>
-      </c>
-      <c r="W31" s="2">
-        <v>3.7143301036307315</v>
-      </c>
-      <c r="X31" s="2">
-        <v>0.20563659763030484</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>5.0998598447091627E-2</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>2.9736598958369415E-2</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>0.23820462285891195</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>26.216434868276348</v>
-      </c>
-      <c r="AC31" s="2">
-        <v>17.520375244883688</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>5.5558197469164988E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="B32" s="2">
-        <v>5.8764144982184172</v>
+        <v>9.3573618111318542</v>
       </c>
       <c r="C32" s="2">
-        <v>98.230916209212154</v>
+        <v>136.85934191545161</v>
       </c>
       <c r="D32" s="2">
-        <v>214.37002174326437</v>
+        <v>511.88974925583665</v>
       </c>
       <c r="E32" s="2">
-        <v>1248.4681056754082</v>
+        <v>2278.4656905515089</v>
       </c>
       <c r="F32" s="2">
-        <v>-9.8573026148016005</v>
+        <v>21.487166176185809</v>
       </c>
       <c r="G32" s="2">
-        <v>100.53687752795921</v>
+        <v>110.89349469517424</v>
       </c>
       <c r="H32" s="2">
-        <v>-0.38347812058030367</v>
+        <v>-0.81647019934830745</v>
       </c>
       <c r="I32" s="2">
-        <v>-0.17986322900598978</v>
+        <v>-0.31498000274998361</v>
       </c>
       <c r="J32" s="2">
-        <v>120.41719168130109</v>
+        <v>171.0451566921999</v>
       </c>
       <c r="K32" s="2">
-        <v>1254.9878311666819</v>
+        <v>3150.5150411617656</v>
       </c>
       <c r="L32" s="2">
-        <v>60.982355471028448</v>
+        <v>92.14080696874403</v>
       </c>
       <c r="M32" s="2">
-        <v>0.1916832795669334</v>
+        <v>1.2067077154805628</v>
       </c>
       <c r="N32" s="2">
-        <v>1.1709149318427521</v>
+        <v>2.8214161963802549</v>
       </c>
       <c r="O32" s="2">
-        <v>12084.944731817288</v>
+        <v>14818.052697294856</v>
       </c>
       <c r="P32" s="2">
-        <v>124.1207133146923</v>
+        <v>267.68489689165932</v>
       </c>
       <c r="Q32" s="2">
-        <v>0.79119860711490397</v>
+        <v>1.643636218951398</v>
       </c>
       <c r="R32" s="2">
-        <v>-9.1509362871301708E-2</v>
+        <v>0.40455401851342276</v>
       </c>
       <c r="S32" s="2">
-        <v>2.1145756791261587</v>
+        <v>4.2573160522459705</v>
       </c>
       <c r="T32" s="2">
-        <v>3.2951850835460719</v>
+        <v>5.7550250960430045</v>
       </c>
       <c r="U32" s="2">
-        <v>0.41012617735920015</v>
+        <v>0.58937078187186553</v>
       </c>
       <c r="V32" s="2">
-        <v>-0.26714487890401573</v>
+        <v>-0.61436358029499538</v>
       </c>
       <c r="W32" s="2">
-        <v>3.4417063772675753</v>
+        <v>7.1810323683498174</v>
       </c>
       <c r="X32" s="2">
-        <v>0.18873101299247069</v>
+        <v>0.2679286505719482</v>
       </c>
       <c r="Y32" s="2">
-        <v>6.408105108261615E-2</v>
+        <v>2.3702093876230224E-2</v>
       </c>
       <c r="Z32" s="2">
-        <v>3.9961792934732038E-2</v>
+        <v>4.3680042099798845E-2</v>
       </c>
       <c r="AA32" s="2">
-        <v>0.18877477336377529</v>
+        <v>0.27241041648324354</v>
       </c>
       <c r="AB32" s="2">
-        <v>25.374670748860332</v>
+        <v>42.029056156855248</v>
       </c>
       <c r="AC32" s="2">
-        <v>6.9530788889223523</v>
+        <v>9.5671655938096514</v>
       </c>
       <c r="AD32" s="2">
-        <v>5.0093050440028514E-2</v>
+        <v>0.11400741367267454</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>58</v>
+      <c r="A33" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B33" s="2">
-        <v>5.3038395699447687</v>
+        <v>5.4535636015238982</v>
       </c>
       <c r="C33" s="2">
-        <v>235.79754134945671</v>
+        <v>324.21352343573272</v>
       </c>
       <c r="D33" s="2">
-        <v>216.03508295867931</v>
+        <v>215.90673629971587</v>
       </c>
       <c r="E33" s="2">
-        <v>925.22058663101939</v>
+        <v>1389.7521470999154</v>
       </c>
       <c r="F33" s="2">
-        <v>-19.35439081373789</v>
+        <v>-20.899695586862155</v>
       </c>
       <c r="G33" s="2">
-        <v>66.976143341115687</v>
+        <v>113.0053539945896</v>
       </c>
       <c r="H33" s="2">
-        <v>-0.65714934710132655</v>
+        <v>-0.52924239816018237</v>
       </c>
       <c r="I33" s="2">
-        <v>-0.24413268418011472</v>
+        <v>-0.22459580183675909</v>
       </c>
       <c r="J33" s="2">
-        <v>113.19910056402678</v>
+        <v>128.55370568103623</v>
       </c>
       <c r="K33" s="2">
-        <v>1326.2212750339615</v>
+        <v>1209.2590066714085</v>
       </c>
       <c r="L33" s="2">
-        <v>53.687591535378907</v>
+        <v>61.772905700760269</v>
       </c>
       <c r="M33" s="2">
-        <v>-0.1921750369054063</v>
+        <v>0.74515701811790058</v>
       </c>
       <c r="N33" s="2">
-        <v>0.85103091117228202</v>
+        <v>1.5473132049471943</v>
       </c>
       <c r="O33" s="2">
-        <v>3788.2403522995273</v>
+        <v>13869.571398447408</v>
       </c>
       <c r="P33" s="2">
-        <v>955.33530637283127</v>
+        <v>235.56037651945437</v>
       </c>
       <c r="Q33" s="2">
-        <v>2.2661500192304711</v>
+        <v>1.5402476462964632</v>
       </c>
       <c r="R33" s="2">
-        <v>-0.59048740899258201</v>
+        <v>-0.3480348462175199</v>
       </c>
       <c r="S33" s="2">
-        <v>1.9299410393511833</v>
+        <v>2.3360922257900176</v>
       </c>
       <c r="T33" s="2">
-        <v>3.3257172464924825</v>
+        <v>3.638874998125226</v>
       </c>
       <c r="U33" s="2">
-        <v>0.20121407642092035</v>
+        <v>0.52702723799062567</v>
       </c>
       <c r="V33" s="2">
-        <v>-0.27541614922946134</v>
+        <v>-0.31400155441879701</v>
       </c>
       <c r="W33" s="2">
-        <v>4.1121237996893294</v>
+        <v>3.6644577400524678</v>
       </c>
       <c r="X33" s="2">
-        <v>7.4775062959617652E-2</v>
+        <v>0.19005982093203988</v>
       </c>
       <c r="Y33" s="2">
-        <v>1.8757055052734783E-2</v>
+        <v>2.5559743691375748E-2</v>
       </c>
       <c r="Z33" s="2">
-        <v>3.4195493430706395E-2</v>
+        <v>3.6463199504738544E-2</v>
       </c>
       <c r="AA33" s="2">
-        <v>0.1455176323347307</v>
+        <v>0.1520341373798052</v>
       </c>
       <c r="AB33" s="2">
-        <v>52.985755590591374</v>
+        <v>36.60553768353779</v>
       </c>
       <c r="AC33" s="2">
-        <v>3.6331431389042699</v>
+        <v>41.158721793774745</v>
       </c>
       <c r="AD33" s="2">
-        <v>4.5550387722476299E-2</v>
+        <v>5.4203569158116194E-2</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.55448592131689689</v>
+      </c>
+      <c r="C34" s="2">
+        <v>19.362673271026946</v>
+      </c>
+      <c r="D34" s="2">
+        <v>114.87161610364038</v>
+      </c>
+      <c r="E34" s="2">
+        <v>484.91993839856559</v>
+      </c>
+      <c r="F34" s="2">
+        <v>70.687056830303305</v>
+      </c>
+      <c r="G34" s="2">
+        <v>44.184057825119226</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-1.0476753435010171</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-0.34794585216662388</v>
+      </c>
+      <c r="J34" s="2">
+        <v>39.501960728112863</v>
+      </c>
+      <c r="K34" s="2">
+        <v>146.82374976132837</v>
+      </c>
+      <c r="L34" s="2">
+        <v>20.37635470387993</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1.6594513660886698E-2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.4272657136809608</v>
+      </c>
+      <c r="O34" s="2">
+        <v>786.67452507151916</v>
+      </c>
+      <c r="P34" s="2">
+        <v>16.826022876014132</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.34581865884225377</v>
+      </c>
+      <c r="R34" s="2">
+        <v>-0.24564802064771943</v>
+      </c>
+      <c r="S34" s="2">
+        <v>7.1994165055738417</v>
+      </c>
+      <c r="T34" s="2">
+        <v>11.736765190638469</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.48617068714764355</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.25500742006302002</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0.58486767079931912</v>
+      </c>
+      <c r="X34" s="2">
+        <v>3.9829292568359542E-2</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>7.765574496186152E-3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>8.2138647333434872E-2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>8.5913377482468273E-2</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>11.165175611246692</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>132.67135418586065</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>4.7368094643407944E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="2">
-        <v>9.3573618111318542</v>
-      </c>
-      <c r="C34" s="2">
-        <v>136.85934191545161</v>
-      </c>
-      <c r="D34" s="2">
-        <v>511.88974925583665</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2278.4656905515089</v>
-      </c>
-      <c r="F34" s="2">
-        <v>21.487166176185809</v>
-      </c>
-      <c r="G34" s="2">
-        <v>110.89349469517424</v>
-      </c>
-      <c r="H34" s="2">
-        <v>-0.81647019934830745</v>
-      </c>
-      <c r="I34" s="2">
-        <v>-0.31498000274998361</v>
-      </c>
-      <c r="J34" s="2">
-        <v>171.0451566921999</v>
-      </c>
-      <c r="K34" s="2">
-        <v>3150.5150411617656</v>
-      </c>
-      <c r="L34" s="2">
-        <v>92.14080696874403</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1.2067077154805628</v>
-      </c>
-      <c r="N34" s="2">
-        <v>2.8214161963802549</v>
-      </c>
-      <c r="O34" s="2">
-        <v>14818.052697294856</v>
-      </c>
-      <c r="P34" s="2">
-        <v>267.68489689165932</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>1.643636218951398</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0.40455401851342276</v>
-      </c>
-      <c r="S34" s="2">
-        <v>4.2573160522459705</v>
-      </c>
-      <c r="T34" s="2">
-        <v>5.7550250960430045</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0.58937078187186553</v>
-      </c>
-      <c r="V34" s="2">
-        <v>-0.61436358029499538</v>
-      </c>
-      <c r="W34" s="2">
-        <v>7.1810323683498174</v>
-      </c>
-      <c r="X34" s="2">
-        <v>0.2679286505719482</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>2.3702093876230224E-2</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>4.3680042099798845E-2</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>0.27241041648324354</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>42.029056156855248</v>
-      </c>
-      <c r="AC34" s="2">
-        <v>9.5671655938096514</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>0.11400741367267454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="B35" s="2">
-        <v>5.4535636015238982</v>
+        <v>-2.6567255875510013E-2</v>
       </c>
       <c r="C35" s="2">
-        <v>324.21352343573272</v>
+        <v>6.6576965113608244</v>
       </c>
       <c r="D35" s="2">
-        <v>215.90673629971587</v>
+        <v>0.35410658623824937</v>
       </c>
       <c r="E35" s="2">
-        <v>1389.7521470999154</v>
+        <v>1.2142095824915393</v>
       </c>
       <c r="F35" s="2">
-        <v>-20.899695586862155</v>
+        <v>-16.223115671867788</v>
       </c>
       <c r="G35" s="2">
-        <v>113.0053539945896</v>
+        <v>13.099896084693516</v>
       </c>
       <c r="H35" s="2">
-        <v>-0.52924239816018237</v>
+        <v>-1.0225981493459586</v>
       </c>
       <c r="I35" s="2">
-        <v>-0.22459580183675909</v>
+        <v>-0.39058497419518934</v>
       </c>
       <c r="J35" s="2">
-        <v>128.55370568103623</v>
+        <v>-10.370736815150336</v>
       </c>
       <c r="K35" s="2">
-        <v>1209.2590066714085</v>
+        <v>-3.6885020613297002</v>
       </c>
       <c r="L35" s="2">
-        <v>61.772905700760269</v>
+        <v>0.10676606615387342</v>
       </c>
       <c r="M35" s="2">
-        <v>0.74515701811790058</v>
+        <v>-1.3730478629659162</v>
       </c>
       <c r="N35" s="2">
-        <v>1.5473132049471943</v>
+        <v>6.3988159839842212E-2</v>
       </c>
       <c r="O35" s="2">
-        <v>13869.571398447408</v>
+        <v>29.848745844231861</v>
       </c>
       <c r="P35" s="2">
-        <v>235.56037651945437</v>
+        <v>3.0277385085602741E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>1.5402476462964632</v>
+        <v>1.6705286086612448E-3</v>
       </c>
       <c r="R35" s="2">
-        <v>-0.3480348462175199</v>
+        <v>-1.2234167383931147</v>
       </c>
       <c r="S35" s="2">
-        <v>2.3360922257900176</v>
+        <v>-7.9586285105450322E-2</v>
       </c>
       <c r="T35" s="2">
-        <v>3.638874998125226</v>
+        <v>-0.37285414590812066</v>
       </c>
       <c r="U35" s="2">
-        <v>0.52702723799062567</v>
+        <v>-3.3670859833038053E-2</v>
       </c>
       <c r="V35" s="2">
-        <v>-0.31400155441879701</v>
+        <v>-8.3289327169389221E-2</v>
       </c>
       <c r="W35" s="2">
-        <v>3.6644577400524678</v>
+        <v>5.1980146526974446E-3</v>
       </c>
       <c r="X35" s="2">
-        <v>0.19005982093203988</v>
+        <v>0.14224374147495789</v>
       </c>
       <c r="Y35" s="2">
-        <v>2.5559743691375748E-2</v>
+        <v>1.0073841048166079E-2</v>
       </c>
       <c r="Z35" s="2">
-        <v>3.6463199504738544E-2</v>
+        <v>1.6920921980949064E-2</v>
       </c>
       <c r="AA35" s="2">
-        <v>0.1520341373798052</v>
+        <v>1.0192531848587063</v>
       </c>
       <c r="AB35" s="2">
-        <v>36.60553768353779</v>
+        <v>2.0203165405582144E-3</v>
       </c>
       <c r="AC35" s="2">
-        <v>41.158721793774745</v>
+        <v>0.13122343492151284</v>
       </c>
       <c r="AD35" s="2">
-        <v>5.4203569158116194E-2</v>
+        <v>4.0161098192494069E-2</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3606,91 +3664,91 @@
         <v>60</v>
       </c>
       <c r="B36" s="2">
-        <v>0.55448592131689689</v>
+        <v>6.6486441995726562</v>
       </c>
       <c r="C36" s="2">
-        <v>19.362673271026946</v>
+        <v>245.27946171154923</v>
       </c>
       <c r="D36" s="2">
-        <v>114.87161610364038</v>
+        <v>309.93741549022735</v>
       </c>
       <c r="E36" s="2">
-        <v>484.91993839856559</v>
+        <v>4416.5045154088584</v>
       </c>
       <c r="F36" s="2">
-        <v>70.687056830303305</v>
+        <v>-106.3887735478263</v>
       </c>
       <c r="G36" s="2">
-        <v>44.184057825119226</v>
+        <v>225.36388573202552</v>
       </c>
       <c r="H36" s="2">
-        <v>-1.0476753435010171</v>
+        <v>-2.3673332234476274</v>
       </c>
       <c r="I36" s="2">
-        <v>-0.34794585216662388</v>
+        <v>-0.22889926386754111</v>
       </c>
       <c r="J36" s="2">
-        <v>39.501960728112863</v>
+        <v>233.25200733305644</v>
       </c>
       <c r="K36" s="2">
-        <v>146.82374976132837</v>
+        <v>1218.2539481545452</v>
       </c>
       <c r="L36" s="2">
-        <v>20.37635470387993</v>
+        <v>94.427529268511208</v>
       </c>
       <c r="M36" s="2">
-        <v>1.6594513660886698E-2</v>
+        <v>3.9487739694719401</v>
       </c>
       <c r="N36" s="2">
-        <v>1.4272657136809608</v>
+        <v>3.7420500175525873</v>
       </c>
       <c r="O36" s="2">
-        <v>786.67452507151916</v>
+        <v>6131.4931686399541</v>
       </c>
       <c r="P36" s="2">
-        <v>16.826022876014132</v>
+        <v>314.00800889386949</v>
       </c>
       <c r="Q36" s="2">
-        <v>0.34581865884225377</v>
+        <v>2.5248232805351267</v>
       </c>
       <c r="R36" s="2">
-        <v>-0.24564802064771943</v>
+        <v>0.75987373760006383</v>
       </c>
       <c r="S36" s="2">
-        <v>7.1994165055738417</v>
+        <v>9.2873619808430163</v>
       </c>
       <c r="T36" s="2">
-        <v>11.736765190638469</v>
+        <v>12.171213291726771</v>
       </c>
       <c r="U36" s="2">
-        <v>0.48617068714764355</v>
+        <v>0.1958520118637618</v>
       </c>
       <c r="V36" s="2">
-        <v>0.25500742006302002</v>
+        <v>-0.94915824975008145</v>
       </c>
       <c r="W36" s="2">
-        <v>0.58486767079931912</v>
+        <v>5.7657096241699026</v>
       </c>
       <c r="X36" s="2">
-        <v>3.9829292568359542E-2</v>
+        <v>0.14278646789566946</v>
       </c>
       <c r="Y36" s="2">
-        <v>7.765574496186152E-3</v>
+        <v>0.18122078046756507</v>
       </c>
       <c r="Z36" s="2">
-        <v>8.2138647333434872E-2</v>
+        <v>7.9873259041123995E-2</v>
       </c>
       <c r="AA36" s="2">
-        <v>8.5913377482468273E-2</v>
+        <v>0.56581998439274739</v>
       </c>
       <c r="AB36" s="2">
-        <v>11.165175611246692</v>
+        <v>57.839943443933024</v>
       </c>
       <c r="AC36" s="2">
-        <v>132.67135418586065</v>
+        <v>6.9040967502382893</v>
       </c>
       <c r="AD36" s="2">
-        <v>4.7368094643407944E-2</v>
+        <v>9.6137440829305268E-2</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3698,91 +3756,91 @@
         <v>61</v>
       </c>
       <c r="B37" s="2">
-        <v>-2.6567255875510013E-2</v>
+        <v>6.3589056103979038</v>
       </c>
       <c r="C37" s="2">
-        <v>6.6576965113608244</v>
+        <v>102.25676766458524</v>
       </c>
       <c r="D37" s="2">
-        <v>0.35410658623824937</v>
+        <v>305.66750040623924</v>
       </c>
       <c r="E37" s="2">
-        <v>1.2142095824915393</v>
+        <v>4213.6262116464004</v>
       </c>
       <c r="F37" s="2">
-        <v>-16.223115671867788</v>
+        <v>-109.07017825574823</v>
       </c>
       <c r="G37" s="2">
-        <v>13.099896084693516</v>
+        <v>233.61229870277845</v>
       </c>
       <c r="H37" s="2">
-        <v>-1.0225981493459586</v>
+        <v>-2.349286309250306</v>
       </c>
       <c r="I37" s="2">
-        <v>-0.39058497419518934</v>
+        <v>-0.24997764494247826</v>
       </c>
       <c r="J37" s="2">
-        <v>-10.370736815150336</v>
+        <v>232.93945098504835</v>
       </c>
       <c r="K37" s="2">
-        <v>-3.6885020613297002</v>
+        <v>1193.6955675771553</v>
       </c>
       <c r="L37" s="2">
-        <v>0.10676606615387342</v>
+        <v>91.255987842117747</v>
       </c>
       <c r="M37" s="2">
-        <v>-1.3730478629659162</v>
+        <v>4.0815398784028858</v>
       </c>
       <c r="N37" s="2">
-        <v>6.3988159839842212E-2</v>
+        <v>3.6821485101567073</v>
       </c>
       <c r="O37" s="2">
-        <v>29.848745844231861</v>
+        <v>6608.8028183960096</v>
       </c>
       <c r="P37" s="2">
-        <v>3.0277385085602741E-2</v>
+        <v>335.83209896099095</v>
       </c>
       <c r="Q37" s="2">
-        <v>1.6705286086612448E-3</v>
+        <v>2.574254994480127</v>
       </c>
       <c r="R37" s="2">
-        <v>-1.2234167383931147</v>
+        <v>0.59402727375246434</v>
       </c>
       <c r="S37" s="2">
-        <v>-7.9586285105450322E-2</v>
+        <v>4.9780348827826533</v>
       </c>
       <c r="T37" s="2">
-        <v>-0.37285414590812066</v>
+        <v>10.454506676977264</v>
       </c>
       <c r="U37" s="2">
-        <v>-3.3670859833038053E-2</v>
+        <v>0.21732610691039447</v>
       </c>
       <c r="V37" s="2">
-        <v>-8.3289327169389221E-2</v>
+        <v>-1.2185732471015887</v>
       </c>
       <c r="W37" s="2">
-        <v>5.1980146526974446E-3</v>
+        <v>5.9066289748199816</v>
       </c>
       <c r="X37" s="2">
-        <v>0.14224374147495789</v>
+        <v>0.11828953043833917</v>
       </c>
       <c r="Y37" s="2">
-        <v>1.0073841048166079E-2</v>
+        <v>0.11831676228261616</v>
       </c>
       <c r="Z37" s="2">
-        <v>1.6920921980949064E-2</v>
+        <v>3.5858369205909568E-2</v>
       </c>
       <c r="AA37" s="2">
-        <v>1.0192531848587063</v>
+        <v>0.28789125265500753</v>
       </c>
       <c r="AB37" s="2">
-        <v>2.0203165405582144E-3</v>
+        <v>62.381840227109763</v>
       </c>
       <c r="AC37" s="2">
-        <v>0.13122343492151284</v>
+        <v>8.9565665726248813</v>
       </c>
       <c r="AD37" s="2">
-        <v>4.0161098192494069E-2</v>
+        <v>8.9875087377136162E-2</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,91 +3848,91 @@
         <v>62</v>
       </c>
       <c r="B38" s="2">
-        <v>6.6486441995726562</v>
+        <v>8.1027974043609152</v>
       </c>
       <c r="C38" s="2">
-        <v>245.27946171154923</v>
+        <v>100.61866353180784</v>
       </c>
       <c r="D38" s="2">
-        <v>309.93741549022735</v>
+        <v>487.75414281394978</v>
       </c>
       <c r="E38" s="2">
-        <v>4416.5045154088584</v>
+        <v>6012.0230521296771</v>
       </c>
       <c r="F38" s="2">
-        <v>-106.3887735478263</v>
+        <v>-110.23040517396636</v>
       </c>
       <c r="G38" s="2">
-        <v>225.36388573202552</v>
+        <v>434.81256085349253</v>
       </c>
       <c r="H38" s="2">
-        <v>-2.3673332234476274</v>
+        <v>-2.1340578163382928</v>
       </c>
       <c r="I38" s="2">
-        <v>-0.22889926386754111</v>
+        <v>-0.37787571019113919</v>
       </c>
       <c r="J38" s="2">
-        <v>233.25200733305644</v>
+        <v>318.77886413690527</v>
       </c>
       <c r="K38" s="2">
-        <v>1218.2539481545452</v>
+        <v>1965.23265561054</v>
       </c>
       <c r="L38" s="2">
-        <v>94.427529268511208</v>
+        <v>132.6657744180805</v>
       </c>
       <c r="M38" s="2">
-        <v>3.9487739694719401</v>
+        <v>7.8759981433222865</v>
       </c>
       <c r="N38" s="2">
-        <v>3.7420500175525873</v>
+        <v>4.7165866931550884</v>
       </c>
       <c r="O38" s="2">
-        <v>6131.4931686399541</v>
+        <v>51299.24100264068</v>
       </c>
       <c r="P38" s="2">
-        <v>314.00800889386949</v>
+        <v>377.14232982850348</v>
       </c>
       <c r="Q38" s="2">
-        <v>2.5248232805351267</v>
+        <v>3.2338777533694807</v>
       </c>
       <c r="R38" s="2">
-        <v>0.75987373760006383</v>
+        <v>1.3388880097429707</v>
       </c>
       <c r="S38" s="2">
-        <v>9.2873619808430163</v>
+        <v>14.42580025380188</v>
       </c>
       <c r="T38" s="2">
-        <v>12.171213291726771</v>
+        <v>14.049157995524592</v>
       </c>
       <c r="U38" s="2">
-        <v>0.1958520118637618</v>
+        <v>1.7135918613967123</v>
       </c>
       <c r="V38" s="2">
-        <v>-0.94915824975008145</v>
+        <v>-1.1226535006301173</v>
       </c>
       <c r="W38" s="2">
-        <v>5.7657096241699026</v>
+        <v>9.8661902521219744</v>
       </c>
       <c r="X38" s="2">
-        <v>0.14278646789566946</v>
+        <v>1.0185183953250951</v>
       </c>
       <c r="Y38" s="2">
-        <v>0.18122078046756507</v>
+        <v>0.10344450407635357</v>
       </c>
       <c r="Z38" s="2">
-        <v>7.9873259041123995E-2</v>
+        <v>7.4656784203431428E-2</v>
       </c>
       <c r="AA38" s="2">
-        <v>0.56581998439274739</v>
+        <v>0.22618934401910926</v>
       </c>
       <c r="AB38" s="2">
-        <v>57.839943443933024</v>
+        <v>76.231618609498923</v>
       </c>
       <c r="AC38" s="2">
-        <v>6.9040967502382893</v>
+        <v>8.7508701538095419</v>
       </c>
       <c r="AD38" s="2">
-        <v>9.6137440829305268E-2</v>
+        <v>0.13900117798296996</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3882,91 +3940,91 @@
         <v>63</v>
       </c>
       <c r="B39" s="2">
-        <v>6.3589056103979038</v>
+        <v>5.5269009948451231</v>
       </c>
       <c r="C39" s="2">
-        <v>102.25676766458524</v>
+        <v>102.35325173771078</v>
       </c>
       <c r="D39" s="2">
-        <v>305.66750040623924</v>
+        <v>247.63925497593283</v>
       </c>
       <c r="E39" s="2">
-        <v>4213.6262116464004</v>
+        <v>2241.9612549190824</v>
       </c>
       <c r="F39" s="2">
-        <v>-109.07017825574823</v>
+        <v>7.4192665481800271</v>
       </c>
       <c r="G39" s="2">
-        <v>233.61229870277845</v>
+        <v>220.72104912835968</v>
       </c>
       <c r="H39" s="2">
-        <v>-2.349286309250306</v>
+        <v>-1.2135631719437747</v>
       </c>
       <c r="I39" s="2">
-        <v>-0.24997764494247826</v>
+        <v>-8.8381935142542965E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>232.93945098504835</v>
+        <v>148.42642880288707</v>
       </c>
       <c r="K39" s="2">
-        <v>1193.6955675771553</v>
+        <v>1191.9762689151567</v>
       </c>
       <c r="L39" s="2">
-        <v>91.255987842117747</v>
+        <v>67.761431385548221</v>
       </c>
       <c r="M39" s="2">
-        <v>4.0815398784028858</v>
+        <v>2.8988603989603448</v>
       </c>
       <c r="N39" s="2">
-        <v>3.6821485101567073</v>
+        <v>2.2552841788977842</v>
       </c>
       <c r="O39" s="2">
-        <v>6608.8028183960096</v>
+        <v>25997.39833013096</v>
       </c>
       <c r="P39" s="2">
-        <v>335.83209896099095</v>
+        <v>183.30820199117429</v>
       </c>
       <c r="Q39" s="2">
-        <v>2.574254994480127</v>
+        <v>1.5108632116014673</v>
       </c>
       <c r="R39" s="2">
-        <v>0.59402727375246434</v>
+        <v>-7.4871787722319422E-2</v>
       </c>
       <c r="S39" s="2">
-        <v>4.9780348827826533</v>
+        <v>7.5714629793832469</v>
       </c>
       <c r="T39" s="2">
-        <v>10.454506676977264</v>
+        <v>6.1294938845413576</v>
       </c>
       <c r="U39" s="2">
-        <v>0.21732610691039447</v>
+        <v>0.73101365449782174</v>
       </c>
       <c r="V39" s="2">
-        <v>-1.2185732471015887</v>
+        <v>-0.58781990121857353</v>
       </c>
       <c r="W39" s="2">
-        <v>5.9066289748199816</v>
+        <v>5.3649509664430965</v>
       </c>
       <c r="X39" s="2">
-        <v>0.11828953043833917</v>
+        <v>0.47133171108965782</v>
       </c>
       <c r="Y39" s="2">
-        <v>0.11831676228261616</v>
+        <v>9.7193354676991764E-2</v>
       </c>
       <c r="Z39" s="2">
-        <v>3.5858369205909568E-2</v>
+        <v>3.7796100367657771E-2</v>
       </c>
       <c r="AA39" s="2">
-        <v>0.28789125265500753</v>
+        <v>0.17285761144194381</v>
       </c>
       <c r="AB39" s="2">
-        <v>62.381840227109763</v>
+        <v>37.152964687271904</v>
       </c>
       <c r="AC39" s="2">
-        <v>8.9565665726248813</v>
+        <v>5.5792736376907373</v>
       </c>
       <c r="AD39" s="2">
-        <v>8.9875087377136162E-2</v>
+        <v>6.4286890351707357E-2</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3974,91 +4032,91 @@
         <v>64</v>
       </c>
       <c r="B40" s="2">
-        <v>8.1027974043609152</v>
+        <v>8.8030441145059921</v>
       </c>
       <c r="C40" s="2">
-        <v>100.61866353180784</v>
+        <v>110.09625810617752</v>
       </c>
       <c r="D40" s="2">
-        <v>487.75414281394978</v>
+        <v>563.00692915660045</v>
       </c>
       <c r="E40" s="2">
-        <v>6012.0230521296771</v>
+        <v>2703.7076341165075</v>
       </c>
       <c r="F40" s="2">
-        <v>-110.23040517396636</v>
+        <v>32.685580411801872</v>
       </c>
       <c r="G40" s="2">
-        <v>434.81256085349253</v>
+        <v>223.43388047257048</v>
       </c>
       <c r="H40" s="2">
-        <v>-2.1340578163382928</v>
+        <v>-1.5992755985977789</v>
       </c>
       <c r="I40" s="2">
-        <v>-0.37787571019113919</v>
+        <v>-0.33714010441634235</v>
       </c>
       <c r="J40" s="2">
-        <v>318.77886413690527</v>
+        <v>220.16292316090889</v>
       </c>
       <c r="K40" s="2">
-        <v>1965.23265561054</v>
+        <v>3372.736801158198</v>
       </c>
       <c r="L40" s="2">
-        <v>132.6657744180805</v>
+        <v>94.218966204247749</v>
       </c>
       <c r="M40" s="2">
-        <v>7.8759981433222865</v>
+        <v>1.5548165430854828</v>
       </c>
       <c r="N40" s="2">
-        <v>4.7165866931550884</v>
+        <v>2.1756148016010903</v>
       </c>
       <c r="O40" s="2">
-        <v>51299.24100264068</v>
+        <v>4787.1439360324866</v>
       </c>
       <c r="P40" s="2">
-        <v>377.14232982850348</v>
+        <v>761.60954733782421</v>
       </c>
       <c r="Q40" s="2">
-        <v>3.2338777533694807</v>
+        <v>2.7259731443938047</v>
       </c>
       <c r="R40" s="2">
-        <v>1.3388880097429707</v>
+        <v>-0.15242080939275282</v>
       </c>
       <c r="S40" s="2">
-        <v>14.42580025380188</v>
+        <v>5.290399930119464</v>
       </c>
       <c r="T40" s="2">
-        <v>14.049157995524592</v>
+        <v>8.0387254229131315</v>
       </c>
       <c r="U40" s="2">
-        <v>1.7135918613967123</v>
+        <v>0.14562649684316073</v>
       </c>
       <c r="V40" s="2">
-        <v>-1.1226535006301173</v>
+        <v>-0.68757413896132547</v>
       </c>
       <c r="W40" s="2">
-        <v>9.8661902521219744</v>
+        <v>7.8060620746658129</v>
       </c>
       <c r="X40" s="2">
-        <v>1.0185183953250951</v>
+        <v>0.11933291779093473</v>
       </c>
       <c r="Y40" s="2">
-        <v>0.10344450407635357</v>
+        <v>0.11697579676971649</v>
       </c>
       <c r="Z40" s="2">
-        <v>7.4656784203431428E-2</v>
+        <v>4.5436917204577813E-2</v>
       </c>
       <c r="AA40" s="2">
-        <v>0.22618934401910926</v>
+        <v>0.44770531996642482</v>
       </c>
       <c r="AB40" s="2">
-        <v>76.231618609498923</v>
+        <v>35.55304205332309</v>
       </c>
       <c r="AC40" s="2">
-        <v>8.7508701538095419</v>
+        <v>5.7827674655107506</v>
       </c>
       <c r="AD40" s="2">
-        <v>0.13900117798296996</v>
+        <v>0.13002390874963055</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4066,91 +4124,91 @@
         <v>65</v>
       </c>
       <c r="B41" s="2">
-        <v>5.5269009948451231</v>
+        <v>5.8422500845947063</v>
       </c>
       <c r="C41" s="2">
-        <v>102.35325173771078</v>
+        <v>114.27618241945832</v>
       </c>
       <c r="D41" s="2">
-        <v>247.63925497593283</v>
+        <v>231.1646339466437</v>
       </c>
       <c r="E41" s="2">
-        <v>2241.9612549190824</v>
+        <v>1634.949959533395</v>
       </c>
       <c r="F41" s="2">
-        <v>7.4192665481800271</v>
+        <v>118.47054551287388</v>
       </c>
       <c r="G41" s="2">
-        <v>220.72104912835968</v>
+        <v>153.96440841521783</v>
       </c>
       <c r="H41" s="2">
-        <v>-1.2135631719437747</v>
+        <v>-1.6422395633980087</v>
       </c>
       <c r="I41" s="2">
-        <v>-8.8381935142542965E-3</v>
+        <v>-0.23898895191041455</v>
       </c>
       <c r="J41" s="2">
-        <v>148.42642880288707</v>
+        <v>167.49326449731294</v>
       </c>
       <c r="K41" s="2">
-        <v>1191.9762689151567</v>
+        <v>1290.6388534797752</v>
       </c>
       <c r="L41" s="2">
-        <v>67.761431385548221</v>
+        <v>59.746260537516434</v>
       </c>
       <c r="M41" s="2">
-        <v>2.8988603989603448</v>
+        <v>0.72901292153453356</v>
       </c>
       <c r="N41" s="2">
-        <v>2.2552841788977842</v>
+        <v>1.5146329031413712</v>
       </c>
       <c r="O41" s="2">
-        <v>25997.39833013096</v>
+        <v>4138.6409897024923</v>
       </c>
       <c r="P41" s="2">
-        <v>183.30820199117429</v>
+        <v>618.40277300105186</v>
       </c>
       <c r="Q41" s="2">
-        <v>1.5108632116014673</v>
+        <v>2.3109730717344985</v>
       </c>
       <c r="R41" s="2">
-        <v>-7.4871787722319422E-2</v>
+        <v>-0.27779179176681612</v>
       </c>
       <c r="S41" s="2">
-        <v>7.5714629793832469</v>
+        <v>4.7958717719676285</v>
       </c>
       <c r="T41" s="2">
-        <v>6.1294938845413576</v>
+        <v>6.1418214104190501</v>
       </c>
       <c r="U41" s="2">
-        <v>0.73101365449782174</v>
+        <v>0.15603256888626568</v>
       </c>
       <c r="V41" s="2">
-        <v>-0.58781990121857353</v>
+        <v>-0.56842519918742618</v>
       </c>
       <c r="W41" s="2">
-        <v>5.3649509664430965</v>
+        <v>3.9094281691263606</v>
       </c>
       <c r="X41" s="2">
-        <v>0.47133171108965782</v>
+        <v>6.3547803156753804E-2</v>
       </c>
       <c r="Y41" s="2">
-        <v>9.7193354676991764E-2</v>
+        <v>0.10494874245344946</v>
       </c>
       <c r="Z41" s="2">
-        <v>3.7796100367657771E-2</v>
+        <v>4.879179776380272E-2</v>
       </c>
       <c r="AA41" s="2">
-        <v>0.17285761144194381</v>
+        <v>0.20879330076618799</v>
       </c>
       <c r="AB41" s="2">
-        <v>37.152964687271904</v>
+        <v>27.436150998857432</v>
       </c>
       <c r="AC41" s="2">
-        <v>5.5792736376907373</v>
+        <v>3.8857730424282946</v>
       </c>
       <c r="AD41" s="2">
-        <v>6.4286890351707357E-2</v>
+        <v>4.8540974336320007E-2</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,91 +4216,91 @@
         <v>66</v>
       </c>
       <c r="B42" s="2">
-        <v>8.8030441145059921</v>
+        <v>6.1821912498755438</v>
       </c>
       <c r="C42" s="2">
-        <v>110.09625810617752</v>
+        <v>106.66731691734762</v>
       </c>
       <c r="D42" s="2">
-        <v>563.00692915660045</v>
+        <v>258.24708680557887</v>
       </c>
       <c r="E42" s="2">
-        <v>2703.7076341165075</v>
+        <v>1410.5854783098541</v>
       </c>
       <c r="F42" s="2">
-        <v>32.685580411801872</v>
+        <v>-28.006475186838042</v>
       </c>
       <c r="G42" s="2">
-        <v>223.43388047257048</v>
+        <v>195.9780650041732</v>
       </c>
       <c r="H42" s="2">
-        <v>-1.5992755985977789</v>
+        <v>-0.87723249881013921</v>
       </c>
       <c r="I42" s="2">
-        <v>-0.33714010441634235</v>
+        <v>0.16340359449467404</v>
       </c>
       <c r="J42" s="2">
-        <v>220.16292316090889</v>
+        <v>146.24940493130543</v>
       </c>
       <c r="K42" s="2">
-        <v>3372.736801158198</v>
+        <v>1551.9251161785382</v>
       </c>
       <c r="L42" s="2">
-        <v>94.218966204247749</v>
+        <v>56.459216447704833</v>
       </c>
       <c r="M42" s="2">
-        <v>1.5548165430854828</v>
+        <v>1.0690466525498277</v>
       </c>
       <c r="N42" s="2">
-        <v>2.1756148016010903</v>
+        <v>1.499433494497221</v>
       </c>
       <c r="O42" s="2">
-        <v>4787.1439360324866</v>
+        <v>33562.957881079543</v>
       </c>
       <c r="P42" s="2">
-        <v>761.60954733782421</v>
+        <v>351.68881301325951</v>
       </c>
       <c r="Q42" s="2">
-        <v>2.7259731443938047</v>
+        <v>2.6224300970687344</v>
       </c>
       <c r="R42" s="2">
-        <v>-0.15242080939275282</v>
+        <v>6.1283508334751949E-2</v>
       </c>
       <c r="S42" s="2">
-        <v>5.290399930119464</v>
+        <v>6.9948687654997661</v>
       </c>
       <c r="T42" s="2">
-        <v>8.0387254229131315</v>
+        <v>5.2720020381173596</v>
       </c>
       <c r="U42" s="2">
-        <v>0.14562649684316073</v>
+        <v>0.70680594647300166</v>
       </c>
       <c r="V42" s="2">
-        <v>-0.68757413896132547</v>
+        <v>-8.9279229444536215E-2</v>
       </c>
       <c r="W42" s="2">
-        <v>7.8060620746658129</v>
+        <v>7.0514945637826205</v>
       </c>
       <c r="X42" s="2">
-        <v>0.11933291779093473</v>
+        <v>0.76812468822443736</v>
       </c>
       <c r="Y42" s="2">
-        <v>0.11697579676971649</v>
+        <v>9.4680724023596813E-2</v>
       </c>
       <c r="Z42" s="2">
-        <v>4.5436917204577813E-2</v>
+        <v>4.7502850721156342E-2</v>
       </c>
       <c r="AA42" s="2">
-        <v>0.44770531996642482</v>
+        <v>0.55237072103959028</v>
       </c>
       <c r="AB42" s="2">
-        <v>35.55304205332309</v>
+        <v>172.26567786122666</v>
       </c>
       <c r="AC42" s="2">
-        <v>5.7827674655107506</v>
+        <v>3.6402075148178485</v>
       </c>
       <c r="AD42" s="2">
-        <v>0.13002390874963055</v>
+        <v>5.2006682366852929E-2</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4250,91 +4308,91 @@
         <v>67</v>
       </c>
       <c r="B43" s="2">
-        <v>5.8422500845947063</v>
+        <v>5.1919047030860375</v>
       </c>
       <c r="C43" s="2">
-        <v>114.27618241945832</v>
+        <v>92.014093165560965</v>
       </c>
       <c r="D43" s="2">
-        <v>231.1646339466437</v>
+        <v>217.8006712812842</v>
       </c>
       <c r="E43" s="2">
-        <v>1634.949959533395</v>
+        <v>1170.5209565638324</v>
       </c>
       <c r="F43" s="2">
-        <v>118.47054551287388</v>
+        <v>-6.5587479175670307</v>
       </c>
       <c r="G43" s="2">
-        <v>153.96440841521783</v>
+        <v>192.94553643114708</v>
       </c>
       <c r="H43" s="2">
-        <v>-1.6422395633980087</v>
+        <v>-0.80747590599724473</v>
       </c>
       <c r="I43" s="2">
-        <v>-0.23898895191041455</v>
+        <v>0.18485995967624017</v>
       </c>
       <c r="J43" s="2">
-        <v>167.49326449731294</v>
+        <v>121.77069412941397</v>
       </c>
       <c r="K43" s="2">
-        <v>1290.6388534797752</v>
+        <v>1294.0178677535935</v>
       </c>
       <c r="L43" s="2">
-        <v>59.746260537516434</v>
+        <v>48.919251495372094</v>
       </c>
       <c r="M43" s="2">
-        <v>0.72901292153453356</v>
+        <v>0.90609969508360333</v>
       </c>
       <c r="N43" s="2">
-        <v>1.5146329031413712</v>
+        <v>1.2872321019519197</v>
       </c>
       <c r="O43" s="2">
-        <v>4138.6409897024923</v>
+        <v>32502.90300526825</v>
       </c>
       <c r="P43" s="2">
-        <v>618.40277300105186</v>
+        <v>338.08747528314854</v>
       </c>
       <c r="Q43" s="2">
-        <v>2.3109730717344985</v>
+        <v>2.4424564787294898</v>
       </c>
       <c r="R43" s="2">
-        <v>-0.27779179176681612</v>
+        <v>-2.9706397712981131E-2</v>
       </c>
       <c r="S43" s="2">
-        <v>4.7958717719676285</v>
+        <v>6.8051214790672674</v>
       </c>
       <c r="T43" s="2">
-        <v>6.1418214104190501</v>
+        <v>9.882532592639178</v>
       </c>
       <c r="U43" s="2">
-        <v>0.15603256888626568</v>
+        <v>0.70875875747961326</v>
       </c>
       <c r="V43" s="2">
-        <v>-0.56842519918742618</v>
+        <v>-0.21316241400909497</v>
       </c>
       <c r="W43" s="2">
-        <v>3.9094281691263606</v>
+        <v>5.6982093927745954</v>
       </c>
       <c r="X43" s="2">
-        <v>6.3547803156753804E-2</v>
+        <v>0.72248735136308595</v>
       </c>
       <c r="Y43" s="2">
-        <v>0.10494874245344946</v>
+        <v>0.10588734126464971</v>
       </c>
       <c r="Z43" s="2">
-        <v>4.879179776380272E-2</v>
+        <v>6.2831794533443064E-2</v>
       </c>
       <c r="AA43" s="2">
-        <v>0.20879330076618799</v>
+        <v>0.28140532036334154</v>
       </c>
       <c r="AB43" s="2">
-        <v>27.436150998857432</v>
+        <v>127.60018390006242</v>
       </c>
       <c r="AC43" s="2">
-        <v>3.8857730424282946</v>
+        <v>3.888757696250019</v>
       </c>
       <c r="AD43" s="2">
-        <v>4.8540974336320007E-2</v>
+        <v>4.8749169299767039E-2</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4342,91 +4400,91 @@
         <v>68</v>
       </c>
       <c r="B44" s="2">
-        <v>6.1821912498755438</v>
+        <v>6.4351003323760825</v>
       </c>
       <c r="C44" s="2">
-        <v>106.66731691734762</v>
+        <v>112.97625288120965</v>
       </c>
       <c r="D44" s="2">
-        <v>258.24708680557887</v>
+        <v>279.10725488150467</v>
       </c>
       <c r="E44" s="2">
-        <v>1410.5854783098541</v>
+        <v>2170.7467725258703</v>
       </c>
       <c r="F44" s="2">
-        <v>-28.006475186838042</v>
+        <v>-56.200966196137166</v>
       </c>
       <c r="G44" s="2">
-        <v>195.9780650041732</v>
+        <v>207.30029478622475</v>
       </c>
       <c r="H44" s="2">
-        <v>-0.87723249881013921</v>
+        <v>-1.6222778925925614</v>
       </c>
       <c r="I44" s="2">
-        <v>0.16340359449467404</v>
+        <v>-0.1437906821694227</v>
       </c>
       <c r="J44" s="2">
-        <v>146.24940493130543</v>
+        <v>172.32238745289578</v>
       </c>
       <c r="K44" s="2">
-        <v>1551.9251161785382</v>
+        <v>1446.4724990452091</v>
       </c>
       <c r="L44" s="2">
-        <v>56.459216447704833</v>
+        <v>74.430080900280544</v>
       </c>
       <c r="M44" s="2">
-        <v>1.0690466525498277</v>
+        <v>1.2006990113488341</v>
       </c>
       <c r="N44" s="2">
-        <v>1.499433494497221</v>
+        <v>1.8763222473495551</v>
       </c>
       <c r="O44" s="2">
-        <v>33562.957881079543</v>
+        <v>6191.3729514503921</v>
       </c>
       <c r="P44" s="2">
-        <v>351.68881301325951</v>
+        <v>444.21275708902954</v>
       </c>
       <c r="Q44" s="2">
-        <v>2.6224300970687344</v>
+        <v>1.8832033400833377</v>
       </c>
       <c r="R44" s="2">
-        <v>6.1283508334751949E-2</v>
+        <v>0.12449302453211832</v>
       </c>
       <c r="S44" s="2">
-        <v>6.9948687654997661</v>
+        <v>6.1564066488466995</v>
       </c>
       <c r="T44" s="2">
-        <v>5.2720020381173596</v>
+        <v>6.5030437513342356</v>
       </c>
       <c r="U44" s="2">
-        <v>0.70680594647300166</v>
+        <v>0.1739929472659438</v>
       </c>
       <c r="V44" s="2">
-        <v>-8.9279229444536215E-2</v>
+        <v>-0.48564087383593285</v>
       </c>
       <c r="W44" s="2">
-        <v>7.0514945637826205</v>
+        <v>4.5086603443448139</v>
       </c>
       <c r="X44" s="2">
-        <v>0.76812468822443736</v>
+        <v>8.6529562340883867E-2</v>
       </c>
       <c r="Y44" s="2">
-        <v>9.4680724023596813E-2</v>
+        <v>7.6692764957004458E-2</v>
       </c>
       <c r="Z44" s="2">
-        <v>4.7502850721156342E-2</v>
+        <v>4.1439800429822801E-2</v>
       </c>
       <c r="AA44" s="2">
-        <v>0.55237072103959028</v>
+        <v>0.20796499905567195</v>
       </c>
       <c r="AB44" s="2">
-        <v>172.26567786122666</v>
+        <v>34.557594051259152</v>
       </c>
       <c r="AC44" s="2">
-        <v>3.6402075148178485</v>
+        <v>2.7840540527231257</v>
       </c>
       <c r="AD44" s="2">
-        <v>5.2006682366852929E-2</v>
+        <v>6.0394878622422432E-2</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4434,91 +4492,91 @@
         <v>69</v>
       </c>
       <c r="B45" s="2">
-        <v>5.1919047030860375</v>
+        <v>6.0450030262793693</v>
       </c>
       <c r="C45" s="2">
-        <v>92.014093165560965</v>
+        <v>86.615843493844352</v>
       </c>
       <c r="D45" s="2">
-        <v>217.8006712812842</v>
+        <v>268.85388600892514</v>
       </c>
       <c r="E45" s="2">
-        <v>1170.5209565638324</v>
+        <v>2072.0402544573185</v>
       </c>
       <c r="F45" s="2">
-        <v>-6.5587479175670307</v>
+        <v>-36.963053148180002</v>
       </c>
       <c r="G45" s="2">
-        <v>192.94553643114708</v>
+        <v>220.64261991824657</v>
       </c>
       <c r="H45" s="2">
-        <v>-0.80747590599724473</v>
+        <v>-1.7947637220953883</v>
       </c>
       <c r="I45" s="2">
-        <v>0.18485995967624017</v>
+        <v>-0.21595478479764574</v>
       </c>
       <c r="J45" s="2">
-        <v>121.77069412941397</v>
+        <v>164.81862694794142</v>
       </c>
       <c r="K45" s="2">
-        <v>1294.0178677535935</v>
+        <v>1291.7377344213635</v>
       </c>
       <c r="L45" s="2">
-        <v>48.919251495372094</v>
+        <v>70.726334962994883</v>
       </c>
       <c r="M45" s="2">
-        <v>0.90609969508360333</v>
+        <v>1.365973206682084</v>
       </c>
       <c r="N45" s="2">
-        <v>1.2872321019519197</v>
+        <v>1.9536917912115837</v>
       </c>
       <c r="O45" s="2">
-        <v>32502.90300526825</v>
+        <v>6371.3404149724274</v>
       </c>
       <c r="P45" s="2">
-        <v>338.08747528314854</v>
+        <v>451.92481823210323</v>
       </c>
       <c r="Q45" s="2">
-        <v>2.4424564787294898</v>
+        <v>1.9120129872240119</v>
       </c>
       <c r="R45" s="2">
-        <v>-2.9706397712981131E-2</v>
+        <v>5.4650900529725113E-2</v>
       </c>
       <c r="S45" s="2">
-        <v>6.8051214790672674</v>
+        <v>6.5997296860748325</v>
       </c>
       <c r="T45" s="2">
-        <v>9.882532592639178</v>
+        <v>7.7679196580382994</v>
       </c>
       <c r="U45" s="2">
-        <v>0.70875875747961326</v>
+        <v>0.22968198595985734</v>
       </c>
       <c r="V45" s="2">
-        <v>-0.21316241400909497</v>
+        <v>-0.47129443586945119</v>
       </c>
       <c r="W45" s="2">
-        <v>5.6982093927745954</v>
+        <v>4.3742535945969001</v>
       </c>
       <c r="X45" s="2">
-        <v>0.72248735136308595</v>
+        <v>0.22168470459062659</v>
       </c>
       <c r="Y45" s="2">
-        <v>0.10588734126464971</v>
+        <v>8.9804239658995783E-2</v>
       </c>
       <c r="Z45" s="2">
-        <v>6.2831794533443064E-2</v>
+        <v>6.7288951077885656E-2</v>
       </c>
       <c r="AA45" s="2">
-        <v>0.28140532036334154</v>
+        <v>1.0264932742057724</v>
       </c>
       <c r="AB45" s="2">
-        <v>127.60018390006242</v>
+        <v>36.64728852471152</v>
       </c>
       <c r="AC45" s="2">
-        <v>3.888757696250019</v>
+        <v>3.4683543684580722</v>
       </c>
       <c r="AD45" s="2">
-        <v>4.8749169299767039E-2</v>
+        <v>9.1034150420796184E-2</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4526,91 +4584,91 @@
         <v>70</v>
       </c>
       <c r="B46" s="2">
-        <v>6.4351003323760825</v>
+        <v>6.3242557019900962</v>
       </c>
       <c r="C46" s="2">
-        <v>112.97625288120965</v>
+        <v>93.687726685752168</v>
       </c>
       <c r="D46" s="2">
-        <v>279.10725488150467</v>
+        <v>249.06990644691601</v>
       </c>
       <c r="E46" s="2">
-        <v>2170.7467725258703</v>
+        <v>1226.2300576717346</v>
       </c>
       <c r="F46" s="2">
-        <v>-56.200966196137166</v>
+        <v>4.1102842749870643</v>
       </c>
       <c r="G46" s="2">
-        <v>207.30029478622475</v>
+        <v>157.3448989892523</v>
       </c>
       <c r="H46" s="2">
-        <v>-1.6222778925925614</v>
+        <v>-1.0041456721581268</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.1437906821694227</v>
+        <v>-2.7998833246413689E-2</v>
       </c>
       <c r="J46" s="2">
-        <v>172.32238745289578</v>
+        <v>128.96683662983281</v>
       </c>
       <c r="K46" s="2">
-        <v>1446.4724990452091</v>
+        <v>1516.8496553863481</v>
       </c>
       <c r="L46" s="2">
-        <v>74.430080900280544</v>
+        <v>57.451727288018148</v>
       </c>
       <c r="M46" s="2">
-        <v>1.2006990113488341</v>
+        <v>0.15087905166474427</v>
       </c>
       <c r="N46" s="2">
-        <v>1.8763222473495551</v>
+        <v>1.1333383680478111</v>
       </c>
       <c r="O46" s="2">
-        <v>6191.3729514503921</v>
+        <v>23548.175670478635</v>
       </c>
       <c r="P46" s="2">
-        <v>444.21275708902954</v>
+        <v>421.88714887419343</v>
       </c>
       <c r="Q46" s="2">
-        <v>1.8832033400833377</v>
+        <v>2.4151510571515598</v>
       </c>
       <c r="R46" s="2">
-        <v>0.12449302453211832</v>
+        <v>-0.17678879044320681</v>
       </c>
       <c r="S46" s="2">
-        <v>6.1564066488466995</v>
+        <v>5.4368362376360082</v>
       </c>
       <c r="T46" s="2">
-        <v>6.5030437513342356</v>
+        <v>4.4142855782032555</v>
       </c>
       <c r="U46" s="2">
-        <v>0.1739929472659438</v>
+        <v>0.32187858698357552</v>
       </c>
       <c r="V46" s="2">
-        <v>-0.48564087383593285</v>
+        <v>-0.31730068319554622</v>
       </c>
       <c r="W46" s="2">
-        <v>4.5086603443448139</v>
+        <v>5.4563610194407319</v>
       </c>
       <c r="X46" s="2">
-        <v>8.6529562340883867E-2</v>
+        <v>0.50080048043896996</v>
       </c>
       <c r="Y46" s="2">
-        <v>7.6692764957004458E-2</v>
+        <v>8.0970205518628949E-2</v>
       </c>
       <c r="Z46" s="2">
-        <v>4.1439800429822801E-2</v>
+        <v>4.2936035131086944E-2</v>
       </c>
       <c r="AA46" s="2">
-        <v>0.20796499905567195</v>
+        <v>0.53159997631994638</v>
       </c>
       <c r="AB46" s="2">
-        <v>34.557594051259152</v>
+        <v>58.247760174808079</v>
       </c>
       <c r="AC46" s="2">
-        <v>2.7840540527231257</v>
+        <v>5.2929466200053223</v>
       </c>
       <c r="AD46" s="2">
-        <v>6.0394878622422432E-2</v>
+        <v>5.5399877886954892E-2</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4618,91 +4676,91 @@
         <v>71</v>
       </c>
       <c r="B47" s="2">
-        <v>6.0450030262793693</v>
+        <v>9.7799538250552178</v>
       </c>
       <c r="C47" s="2">
-        <v>86.615843493844352</v>
+        <v>112.74776532835351</v>
       </c>
       <c r="D47" s="2">
-        <v>268.85388600892514</v>
+        <v>525.64942481653156</v>
       </c>
       <c r="E47" s="2">
-        <v>2072.0402544573185</v>
+        <v>1700.9715085828668</v>
       </c>
       <c r="F47" s="2">
-        <v>-36.963053148180002</v>
+        <v>-66.459493875077683</v>
       </c>
       <c r="G47" s="2">
-        <v>220.64261991824657</v>
+        <v>157.95991002206415</v>
       </c>
       <c r="H47" s="2">
-        <v>-1.7947637220953883</v>
+        <v>-1.4074603011104716</v>
       </c>
       <c r="I47" s="2">
-        <v>-0.21595478479764574</v>
+        <v>-0.34942731427204166</v>
       </c>
       <c r="J47" s="2">
-        <v>164.81862694794142</v>
+        <v>176.35219138151004</v>
       </c>
       <c r="K47" s="2">
-        <v>1291.7377344213635</v>
+        <v>3323.3752592899236</v>
       </c>
       <c r="L47" s="2">
-        <v>70.726334962994883</v>
+        <v>81.849967510677388</v>
       </c>
       <c r="M47" s="2">
-        <v>1.365973206682084</v>
+        <v>0.59517764217688773</v>
       </c>
       <c r="N47" s="2">
-        <v>1.9536917912115837</v>
+        <v>1.5557938494040515</v>
       </c>
       <c r="O47" s="2">
-        <v>6371.3404149724274</v>
+        <v>9237.4034826482857</v>
       </c>
       <c r="P47" s="2">
-        <v>451.92481823210323</v>
+        <v>657.91556633389655</v>
       </c>
       <c r="Q47" s="2">
-        <v>1.9120129872240119</v>
+        <v>2.7750293489575149</v>
       </c>
       <c r="R47" s="2">
-        <v>5.4650900529725113E-2</v>
+        <v>-0.3408635015175116</v>
       </c>
       <c r="S47" s="2">
-        <v>6.5997296860748325</v>
+        <v>5.8443369391893576</v>
       </c>
       <c r="T47" s="2">
-        <v>7.7679196580382994</v>
+        <v>4.3562305665969667</v>
       </c>
       <c r="U47" s="2">
-        <v>0.22968198595985734</v>
+        <v>0.25639247328535558</v>
       </c>
       <c r="V47" s="2">
-        <v>-0.47129443586945119</v>
+        <v>-0.52847578311163079</v>
       </c>
       <c r="W47" s="2">
-        <v>4.3742535945969001</v>
+        <v>7.5908040046029814</v>
       </c>
       <c r="X47" s="2">
-        <v>0.22168470459062659</v>
+        <v>0.1811166896932023</v>
       </c>
       <c r="Y47" s="2">
-        <v>8.9804239658995783E-2</v>
+        <v>9.963609082802713E-2</v>
       </c>
       <c r="Z47" s="2">
-        <v>6.7288951077885656E-2</v>
+        <v>3.1596208938097274E-2</v>
       </c>
       <c r="AA47" s="2">
-        <v>1.0264932742057724</v>
+        <v>0.43170160112524952</v>
       </c>
       <c r="AB47" s="2">
-        <v>36.64728852471152</v>
+        <v>34.094199059835084</v>
       </c>
       <c r="AC47" s="2">
-        <v>3.4683543684580722</v>
+        <v>3.0615381715099041</v>
       </c>
       <c r="AD47" s="2">
-        <v>9.1034150420796184E-2</v>
+        <v>0.11738852824909857</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,91 +4768,91 @@
         <v>72</v>
       </c>
       <c r="B48" s="2">
-        <v>6.3242557019900962</v>
+        <v>5.3656574019361072</v>
       </c>
       <c r="C48" s="2">
-        <v>93.687726685752168</v>
+        <v>97.195971050898578</v>
       </c>
       <c r="D48" s="2">
-        <v>249.06990644691601</v>
+        <v>185.67119016995454</v>
       </c>
       <c r="E48" s="2">
-        <v>1226.2300576717346</v>
+        <v>794.88964438383516</v>
       </c>
       <c r="F48" s="2">
-        <v>4.1102842749870643</v>
+        <v>-29.090297738899206</v>
       </c>
       <c r="G48" s="2">
-        <v>157.3448989892523</v>
+        <v>150.41658880714493</v>
       </c>
       <c r="H48" s="2">
-        <v>-1.0041456721581268</v>
+        <v>-1.1312048640269405</v>
       </c>
       <c r="I48" s="2">
-        <v>-2.7998833246413689E-2</v>
+        <v>-0.15401743881116425</v>
       </c>
       <c r="J48" s="2">
-        <v>128.96683662983281</v>
+        <v>125.93025122523623</v>
       </c>
       <c r="K48" s="2">
-        <v>1516.8496553863481</v>
+        <v>1160.4888655904806</v>
       </c>
       <c r="L48" s="2">
-        <v>57.451727288018148</v>
+        <v>46.904540516504746</v>
       </c>
       <c r="M48" s="2">
-        <v>0.15087905166474427</v>
+        <v>-8.3551911559593045E-2</v>
       </c>
       <c r="N48" s="2">
-        <v>1.1333383680478111</v>
+        <v>1.1245195759222815</v>
       </c>
       <c r="O48" s="2">
-        <v>23548.175670478635</v>
+        <v>8570.418803945593</v>
       </c>
       <c r="P48" s="2">
-        <v>421.88714887419343</v>
+        <v>586.62955632531384</v>
       </c>
       <c r="Q48" s="2">
-        <v>2.4151510571515598</v>
+        <v>2.4226958125125111</v>
       </c>
       <c r="R48" s="2">
-        <v>-0.17678879044320681</v>
+        <v>-0.37019459504103519</v>
       </c>
       <c r="S48" s="2">
-        <v>5.4368362376360082</v>
+        <v>7.5702742255865179</v>
       </c>
       <c r="T48" s="2">
-        <v>4.4142855782032555</v>
+        <v>16.172978834824296</v>
       </c>
       <c r="U48" s="2">
-        <v>0.32187858698357552</v>
+        <v>0.19696763327916814</v>
       </c>
       <c r="V48" s="2">
-        <v>-0.31730068319554622</v>
+        <v>-8.5789520936344121E-2</v>
       </c>
       <c r="W48" s="2">
-        <v>5.4563610194407319</v>
+        <v>3.6081043740711443</v>
       </c>
       <c r="X48" s="2">
-        <v>0.50080048043896996</v>
+        <v>0.12979279112561568</v>
       </c>
       <c r="Y48" s="2">
-        <v>8.0970205518628949E-2</v>
+        <v>9.6356832407063622E-2</v>
       </c>
       <c r="Z48" s="2">
-        <v>4.2936035131086944E-2</v>
+        <v>2.2911920342399528E-2</v>
       </c>
       <c r="AA48" s="2">
-        <v>0.53159997631994638</v>
+        <v>0.42113056525528297</v>
       </c>
       <c r="AB48" s="2">
-        <v>58.247760174808079</v>
+        <v>26.942548468072395</v>
       </c>
       <c r="AC48" s="2">
-        <v>5.2929466200053223</v>
+        <v>2.5187324759336214</v>
       </c>
       <c r="AD48" s="2">
-        <v>5.5399877886954892E-2</v>
+        <v>4.1191306744441575E-2</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4802,91 +4860,91 @@
         <v>73</v>
       </c>
       <c r="B49" s="2">
-        <v>9.7799538250552178</v>
+        <v>6.492441314611205</v>
       </c>
       <c r="C49" s="2">
-        <v>112.74776532835351</v>
+        <v>101.45167130366757</v>
       </c>
       <c r="D49" s="2">
-        <v>525.64942481653156</v>
+        <v>322.44470038378159</v>
       </c>
       <c r="E49" s="2">
-        <v>1700.9715085828668</v>
+        <v>1063.2160307314084</v>
       </c>
       <c r="F49" s="2">
-        <v>-66.459493875077683</v>
+        <v>15.30409118181154</v>
       </c>
       <c r="G49" s="2">
-        <v>157.95991002206415</v>
+        <v>440.81412945801867</v>
       </c>
       <c r="H49" s="2">
-        <v>-1.4074603011104716</v>
+        <v>-0.85980578364972904</v>
       </c>
       <c r="I49" s="2">
-        <v>-0.34942731427204166</v>
+        <v>0.13256439968814654</v>
       </c>
       <c r="J49" s="2">
-        <v>176.35219138151004</v>
+        <v>146.6390646803541</v>
       </c>
       <c r="K49" s="2">
-        <v>3323.3752592899236</v>
+        <v>2496.7240087138493</v>
       </c>
       <c r="L49" s="2">
-        <v>81.849967510677388</v>
+        <v>57.129711360000485</v>
       </c>
       <c r="M49" s="2">
-        <v>0.59517764217688773</v>
+        <v>0.45800954997838117</v>
       </c>
       <c r="N49" s="2">
-        <v>1.5557938494040515</v>
+        <v>1.1245145417502644</v>
       </c>
       <c r="O49" s="2">
-        <v>9237.4034826482857</v>
+        <v>34861.357182472784</v>
       </c>
       <c r="P49" s="2">
-        <v>657.91556633389655</v>
+        <v>631.47567773096091</v>
       </c>
       <c r="Q49" s="2">
-        <v>2.7750293489575149</v>
+        <v>3.304191583665077</v>
       </c>
       <c r="R49" s="2">
-        <v>-0.3408635015175116</v>
+        <v>-0.23961809297996647</v>
       </c>
       <c r="S49" s="2">
-        <v>5.8443369391893576</v>
+        <v>6.8907284555270092</v>
       </c>
       <c r="T49" s="2">
-        <v>4.3562305665969667</v>
+        <v>7.3365826175958047</v>
       </c>
       <c r="U49" s="2">
-        <v>0.25639247328535558</v>
+        <v>0.66153211859387229</v>
       </c>
       <c r="V49" s="2">
-        <v>-0.52847578311163079</v>
+        <v>-0.28042320303134977</v>
       </c>
       <c r="W49" s="2">
-        <v>7.5908040046029814</v>
+        <v>13.572928288238836</v>
       </c>
       <c r="X49" s="2">
-        <v>0.1811166896932023</v>
+        <v>0.432053248396502</v>
       </c>
       <c r="Y49" s="2">
-        <v>9.963609082802713E-2</v>
+        <v>8.7104637361383006E-2</v>
       </c>
       <c r="Z49" s="2">
-        <v>3.1596208938097274E-2</v>
+        <v>4.3894171900893654E-2</v>
       </c>
       <c r="AA49" s="2">
-        <v>0.43170160112524952</v>
+        <v>0.23162374950992468</v>
       </c>
       <c r="AB49" s="2">
-        <v>34.094199059835084</v>
+        <v>474.09903420546686</v>
       </c>
       <c r="AC49" s="2">
-        <v>3.0615381715099041</v>
+        <v>3.6242765766852023</v>
       </c>
       <c r="AD49" s="2">
-        <v>0.11738852824909857</v>
+        <v>5.7836311900455788E-2</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4894,91 +4952,91 @@
         <v>74</v>
       </c>
       <c r="B50" s="2">
-        <v>5.3656574019361072</v>
+        <v>5.8136725426986127</v>
       </c>
       <c r="C50" s="2">
-        <v>97.195971050898578</v>
+        <v>89.977539504795772</v>
       </c>
       <c r="D50" s="2">
-        <v>185.67119016995454</v>
+        <v>237.71025680932595</v>
       </c>
       <c r="E50" s="2">
-        <v>794.88964438383516</v>
+        <v>1068.3135736308795</v>
       </c>
       <c r="F50" s="2">
-        <v>-29.090297738899206</v>
+        <v>-7.1831737239979434</v>
       </c>
       <c r="G50" s="2">
-        <v>150.41658880714493</v>
+        <v>433.15901735970311</v>
       </c>
       <c r="H50" s="2">
-        <v>-1.1312048640269405</v>
+        <v>-1.2876932375113803</v>
       </c>
       <c r="I50" s="2">
-        <v>-0.15401743881116425</v>
+        <v>-6.7202652005907054E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>125.93025122523623</v>
+        <v>122.65180955584832</v>
       </c>
       <c r="K50" s="2">
-        <v>1160.4888655904806</v>
+        <v>1449.0462590634495</v>
       </c>
       <c r="L50" s="2">
-        <v>46.904540516504746</v>
+        <v>61.143688871407932</v>
       </c>
       <c r="M50" s="2">
-        <v>-8.3551911559593045E-2</v>
+        <v>5.3637950387712539E-2</v>
       </c>
       <c r="N50" s="2">
-        <v>1.1245195759222815</v>
+        <v>1.3752770869630764</v>
       </c>
       <c r="O50" s="2">
-        <v>8570.418803945593</v>
+        <v>7540.0750114490502</v>
       </c>
       <c r="P50" s="2">
-        <v>586.62955632531384</v>
+        <v>463.09203401845718</v>
       </c>
       <c r="Q50" s="2">
-        <v>2.4226958125125111</v>
+        <v>2.158616113030154</v>
       </c>
       <c r="R50" s="2">
-        <v>-0.37019459504103519</v>
+        <v>-0.44839756491413529</v>
       </c>
       <c r="S50" s="2">
-        <v>7.5702742255865179</v>
+        <v>56.233335706325327</v>
       </c>
       <c r="T50" s="2">
-        <v>16.172978834824296</v>
+        <v>16.143252489306168</v>
       </c>
       <c r="U50" s="2">
-        <v>0.19696763327916814</v>
+        <v>0.17140409728506809</v>
       </c>
       <c r="V50" s="2">
-        <v>-8.5789520936344121E-2</v>
+        <v>-0.23388557290543621</v>
       </c>
       <c r="W50" s="2">
-        <v>3.6081043740711443</v>
+        <v>4.4499435428357188</v>
       </c>
       <c r="X50" s="2">
-        <v>0.12979279112561568</v>
+        <v>8.872914440540236E-2</v>
       </c>
       <c r="Y50" s="2">
-        <v>9.6356832407063622E-2</v>
+        <v>6.7847664068134819E-2</v>
       </c>
       <c r="Z50" s="2">
-        <v>2.2911920342399528E-2</v>
+        <v>4.0023353261700444E-2</v>
       </c>
       <c r="AA50" s="2">
-        <v>0.42113056525528297</v>
+        <v>0.16211459582886981</v>
       </c>
       <c r="AB50" s="2">
-        <v>26.942548468072395</v>
+        <v>33.402533592654528</v>
       </c>
       <c r="AC50" s="2">
-        <v>2.5187324759336214</v>
+        <v>1.7359129772362973</v>
       </c>
       <c r="AD50" s="2">
-        <v>4.1191306744441575E-2</v>
+        <v>4.6274271987638491E-2</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4986,91 +5044,91 @@
         <v>75</v>
       </c>
       <c r="B51" s="2">
-        <v>6.492441314611205</v>
+        <v>5.8056036886041671</v>
       </c>
       <c r="C51" s="2">
-        <v>101.45167130366757</v>
+        <v>88.681287105023713</v>
       </c>
       <c r="D51" s="2">
-        <v>322.44470038378159</v>
+        <v>227.15372850415397</v>
       </c>
       <c r="E51" s="2">
-        <v>1063.2160307314084</v>
+        <v>1005.5960910320596</v>
       </c>
       <c r="F51" s="2">
-        <v>15.30409118181154</v>
+        <v>4.2139507694577789</v>
       </c>
       <c r="G51" s="2">
-        <v>440.81412945801867</v>
+        <v>148.72708666406646</v>
       </c>
       <c r="H51" s="2">
-        <v>-0.85980578364972904</v>
+        <v>-1.1939119599257899</v>
       </c>
       <c r="I51" s="2">
-        <v>0.13256439968814654</v>
+        <v>-0.20313866438277484</v>
       </c>
       <c r="J51" s="2">
-        <v>146.6390646803541</v>
+        <v>127.06285577632828</v>
       </c>
       <c r="K51" s="2">
-        <v>2496.7240087138493</v>
+        <v>1358.561630375403</v>
       </c>
       <c r="L51" s="2">
-        <v>57.129711360000485</v>
+        <v>56.210394918361843</v>
       </c>
       <c r="M51" s="2">
-        <v>0.45800954997838117</v>
+        <v>-0.10561361262253356</v>
       </c>
       <c r="N51" s="2">
-        <v>1.1245145417502644</v>
+        <v>1.0957829478437413</v>
       </c>
       <c r="O51" s="2">
-        <v>34861.357182472784</v>
+        <v>5962.4339030457131</v>
       </c>
       <c r="P51" s="2">
-        <v>631.47567773096091</v>
+        <v>211.30664932645038</v>
       </c>
       <c r="Q51" s="2">
-        <v>3.304191583665077</v>
+        <v>1.3263697341329461</v>
       </c>
       <c r="R51" s="2">
-        <v>-0.23961809297996647</v>
+        <v>-0.53259663541723834</v>
       </c>
       <c r="S51" s="2">
-        <v>6.8907284555270092</v>
+        <v>4.34563283095238</v>
       </c>
       <c r="T51" s="2">
-        <v>7.3365826175958047</v>
+        <v>4.144414944831798</v>
       </c>
       <c r="U51" s="2">
-        <v>0.66153211859387229</v>
+        <v>0.13817903711910126</v>
       </c>
       <c r="V51" s="2">
-        <v>-0.28042320303134977</v>
+        <v>-0.2800010528353189</v>
       </c>
       <c r="W51" s="2">
-        <v>13.572928288238836</v>
+        <v>3.6099170173008073</v>
       </c>
       <c r="X51" s="2">
-        <v>0.432053248396502</v>
+        <v>6.8948726327523427E-2</v>
       </c>
       <c r="Y51" s="2">
-        <v>8.7104637361383006E-2</v>
+        <v>6.029107496552847E-2</v>
       </c>
       <c r="Z51" s="2">
-        <v>4.3894171900893654E-2</v>
+        <v>2.7831884631563206E-2</v>
       </c>
       <c r="AA51" s="2">
-        <v>0.23162374950992468</v>
+        <v>0.20120775343722427</v>
       </c>
       <c r="AB51" s="2">
-        <v>474.09903420546686</v>
+        <v>19.134021789799139</v>
       </c>
       <c r="AC51" s="2">
-        <v>3.6242765766852023</v>
+        <v>3.5306301928776311</v>
       </c>
       <c r="AD51" s="2">
-        <v>5.7836311900455788E-2</v>
+        <v>4.5066037832859292E-2</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5078,91 +5136,91 @@
         <v>76</v>
       </c>
       <c r="B52" s="2">
-        <v>5.8136725426986127</v>
+        <v>4.6714060304004938</v>
       </c>
       <c r="C52" s="2">
-        <v>89.977539504795772</v>
+        <v>101.23975233367702</v>
       </c>
       <c r="D52" s="2">
-        <v>237.71025680932595</v>
+        <v>208.33368028828127</v>
       </c>
       <c r="E52" s="2">
-        <v>1068.3135736308795</v>
+        <v>721.97205985013386</v>
       </c>
       <c r="F52" s="2">
-        <v>-7.1831737239979434</v>
+        <v>25.745075304439911</v>
       </c>
       <c r="G52" s="2">
-        <v>433.15901735970311</v>
+        <v>370.28512519948515</v>
       </c>
       <c r="H52" s="2">
-        <v>-1.2876932375113803</v>
+        <v>-0.69405537297658437</v>
       </c>
       <c r="I52" s="2">
-        <v>-6.7202652005907054E-2</v>
+        <v>-9.7895751426417627E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>122.65180955584832</v>
+        <v>114.36892853300407</v>
       </c>
       <c r="K52" s="2">
-        <v>1449.0462590634495</v>
+        <v>1471.3772841697703</v>
       </c>
       <c r="L52" s="2">
-        <v>61.143688871407932</v>
+        <v>42.91036608962505</v>
       </c>
       <c r="M52" s="2">
-        <v>5.3637950387712539E-2</v>
+        <v>9.932915690681178E-2</v>
       </c>
       <c r="N52" s="2">
-        <v>1.3752770869630764</v>
+        <v>0.92690162842715329</v>
       </c>
       <c r="O52" s="2">
-        <v>7540.0750114490502</v>
+        <v>32855.753341066775</v>
       </c>
       <c r="P52" s="2">
-        <v>463.09203401845718</v>
+        <v>443.12036536052949</v>
       </c>
       <c r="Q52" s="2">
-        <v>2.158616113030154</v>
+        <v>3.0469438871293097</v>
       </c>
       <c r="R52" s="2">
-        <v>-0.44839756491413529</v>
+        <v>-0.48368651336721052</v>
       </c>
       <c r="S52" s="2">
-        <v>56.233335706325327</v>
+        <v>36.716343719969913</v>
       </c>
       <c r="T52" s="2">
-        <v>16.143252489306168</v>
+        <v>13.00889910692003</v>
       </c>
       <c r="U52" s="2">
-        <v>0.17140409728506809</v>
+        <v>0.68709391056924785</v>
       </c>
       <c r="V52" s="2">
-        <v>-0.23388557290543621</v>
+        <v>-0.16324573440690601</v>
       </c>
       <c r="W52" s="2">
-        <v>4.4499435428357188</v>
+        <v>7.8783087137145325</v>
       </c>
       <c r="X52" s="2">
-        <v>8.872914440540236E-2</v>
+        <v>0.31882204663850705</v>
       </c>
       <c r="Y52" s="2">
-        <v>6.7847664068134819E-2</v>
+        <v>7.6257496762900362E-2</v>
       </c>
       <c r="Z52" s="2">
-        <v>4.0023353261700444E-2</v>
+        <v>3.4384220791671791E-2</v>
       </c>
       <c r="AA52" s="2">
-        <v>0.16211459582886981</v>
+        <v>0.16754983796958681</v>
       </c>
       <c r="AB52" s="2">
-        <v>33.402533592654528</v>
+        <v>200.73338403284086</v>
       </c>
       <c r="AC52" s="2">
-        <v>1.7359129772362973</v>
+        <v>2.3776216404726358</v>
       </c>
       <c r="AD52" s="2">
-        <v>4.6274271987638491E-2</v>
+        <v>3.9153432952978358E-2</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5170,91 +5228,91 @@
         <v>77</v>
       </c>
       <c r="B53" s="2">
-        <v>5.8056036886041671</v>
+        <v>4.3690813670340196</v>
       </c>
       <c r="C53" s="2">
-        <v>88.681287105023713</v>
+        <v>83.871314772388928</v>
       </c>
       <c r="D53" s="2">
-        <v>227.15372850415397</v>
+        <v>185.89420716570851</v>
       </c>
       <c r="E53" s="2">
-        <v>1005.5960910320596</v>
+        <v>1365.726319026119</v>
       </c>
       <c r="F53" s="2">
-        <v>4.2139507694577789</v>
+        <v>-36.981845280296177</v>
       </c>
       <c r="G53" s="2">
-        <v>148.72708666406646</v>
+        <v>98.287586824599927</v>
       </c>
       <c r="H53" s="2">
-        <v>-1.1939119599257899</v>
+        <v>-1.8706663324242083</v>
       </c>
       <c r="I53" s="2">
-        <v>-0.20313866438277484</v>
+        <v>-0.27777519315985111</v>
       </c>
       <c r="J53" s="2">
-        <v>127.06285577632828</v>
+        <v>129.15291561461234</v>
       </c>
       <c r="K53" s="2">
-        <v>1358.561630375403</v>
+        <v>907.50446700923192</v>
       </c>
       <c r="L53" s="2">
-        <v>56.210394918361843</v>
+        <v>50.394803303597179</v>
       </c>
       <c r="M53" s="2">
-        <v>-0.10561361262253356</v>
+        <v>0.59319747386876487</v>
       </c>
       <c r="N53" s="2">
-        <v>1.0957829478437413</v>
+        <v>1.5249546830049787</v>
       </c>
       <c r="O53" s="2">
-        <v>5962.4339030457131</v>
+        <v>2656.9847281927478</v>
       </c>
       <c r="P53" s="2">
-        <v>211.30664932645038</v>
+        <v>455.50804058024744</v>
       </c>
       <c r="Q53" s="2">
-        <v>1.3263697341329461</v>
+        <v>1.238496645504261</v>
       </c>
       <c r="R53" s="2">
-        <v>-0.53259663541723834</v>
+        <v>-0.57069327778535572</v>
       </c>
       <c r="S53" s="2">
-        <v>4.34563283095238</v>
+        <v>5.8504293308542401</v>
       </c>
       <c r="T53" s="2">
-        <v>4.144414944831798</v>
+        <v>9.2013930026006765</v>
       </c>
       <c r="U53" s="2">
-        <v>0.13817903711910126</v>
+        <v>0.12144121151699787</v>
       </c>
       <c r="V53" s="2">
-        <v>-0.2800010528353189</v>
+        <v>-0.37075472541278998</v>
       </c>
       <c r="W53" s="2">
-        <v>3.6099170173008073</v>
+        <v>3.2140978486993794</v>
       </c>
       <c r="X53" s="2">
-        <v>6.8948726327523427E-2</v>
+        <v>3.1548775423526736E-2</v>
       </c>
       <c r="Y53" s="2">
-        <v>6.029107496552847E-2</v>
+        <v>6.5929737184735521E-2</v>
       </c>
       <c r="Z53" s="2">
-        <v>2.7831884631563206E-2</v>
+        <v>3.6292198574937241E-2</v>
       </c>
       <c r="AA53" s="2">
-        <v>0.20120775343722427</v>
+        <v>0.12164631715497057</v>
       </c>
       <c r="AB53" s="2">
-        <v>19.134021789799139</v>
+        <v>34.332972109415813</v>
       </c>
       <c r="AC53" s="2">
-        <v>3.5306301928776311</v>
+        <v>8.2101087741122161</v>
       </c>
       <c r="AD53" s="2">
-        <v>4.5066037832859292E-2</v>
+        <v>4.9848693089121376E-2</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5262,91 +5320,91 @@
         <v>78</v>
       </c>
       <c r="B54" s="2">
-        <v>4.6714060304004938</v>
+        <v>4.6437350038283816</v>
       </c>
       <c r="C54" s="2">
-        <v>101.23975233367702</v>
+        <v>86.937725739179228</v>
       </c>
       <c r="D54" s="2">
-        <v>208.33368028828127</v>
+        <v>204.34179505046629</v>
       </c>
       <c r="E54" s="2">
-        <v>721.97205985013386</v>
+        <v>1586.1531816045415</v>
       </c>
       <c r="F54" s="2">
-        <v>25.745075304439911</v>
+        <v>-52.389395548561758</v>
       </c>
       <c r="G54" s="2">
-        <v>370.28512519948515</v>
+        <v>117.87471206428334</v>
       </c>
       <c r="H54" s="2">
-        <v>-0.69405537297658437</v>
+        <v>-1.8447430184637734</v>
       </c>
       <c r="I54" s="2">
-        <v>-9.7895751426417627E-2</v>
+        <v>-0.29353106507484056</v>
       </c>
       <c r="J54" s="2">
-        <v>114.36892853300407</v>
+        <v>149.44303550802712</v>
       </c>
       <c r="K54" s="2">
-        <v>1471.3772841697703</v>
+        <v>986.4526565714142</v>
       </c>
       <c r="L54" s="2">
-        <v>42.91036608962505</v>
+        <v>53.735795082695475</v>
       </c>
       <c r="M54" s="2">
-        <v>9.932915690681178E-2</v>
+        <v>1.0850247824405779</v>
       </c>
       <c r="N54" s="2">
-        <v>0.92690162842715329</v>
+        <v>1.7945709252528199</v>
       </c>
       <c r="O54" s="2">
-        <v>32855.753341066775</v>
+        <v>3447.125204455785</v>
       </c>
       <c r="P54" s="2">
-        <v>443.12036536052949</v>
+        <v>704.92380928960836</v>
       </c>
       <c r="Q54" s="2">
-        <v>3.0469438871293097</v>
+        <v>1.6239106916833927</v>
       </c>
       <c r="R54" s="2">
-        <v>-0.48368651336721052</v>
+        <v>-0.35641981679254336</v>
       </c>
       <c r="S54" s="2">
-        <v>36.716343719969913</v>
+        <v>10.768529470472863</v>
       </c>
       <c r="T54" s="2">
-        <v>13.00889910692003</v>
+        <v>15.774633172293516</v>
       </c>
       <c r="U54" s="2">
-        <v>0.68709391056924785</v>
+        <v>0.16656967395357847</v>
       </c>
       <c r="V54" s="2">
-        <v>-0.16324573440690601</v>
+        <v>-0.30306398445845617</v>
       </c>
       <c r="W54" s="2">
-        <v>7.8783087137145325</v>
+        <v>3.880015670545748</v>
       </c>
       <c r="X54" s="2">
-        <v>0.31882204663850705</v>
+        <v>4.0304550811070608E-2</v>
       </c>
       <c r="Y54" s="2">
-        <v>7.6257496762900362E-2</v>
+        <v>8.1894169591902613E-2</v>
       </c>
       <c r="Z54" s="2">
-        <v>3.4384220791671791E-2</v>
+        <v>4.6253504048982916E-2</v>
       </c>
       <c r="AA54" s="2">
-        <v>0.16754983796958681</v>
+        <v>0.11205522003964548</v>
       </c>
       <c r="AB54" s="2">
-        <v>200.73338403284086</v>
+        <v>45.721060456437769</v>
       </c>
       <c r="AC54" s="2">
-        <v>2.3776216404726358</v>
+        <v>12.312603867261265</v>
       </c>
       <c r="AD54" s="2">
-        <v>3.9153432952978358E-2</v>
+        <v>5.6054218495718282E-2</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5354,91 +5412,91 @@
         <v>79</v>
       </c>
       <c r="B55" s="2">
-        <v>4.3690813670340196</v>
+        <v>5.4313735108352725</v>
       </c>
       <c r="C55" s="2">
-        <v>83.871314772388928</v>
+        <v>74.507789944218857</v>
       </c>
       <c r="D55" s="2">
-        <v>185.89420716570851</v>
+        <v>247.98730618665567</v>
       </c>
       <c r="E55" s="2">
-        <v>1365.726319026119</v>
+        <v>2704.0102918517405</v>
       </c>
       <c r="F55" s="2">
-        <v>-36.981845280296177</v>
+        <v>-27.756273966950637</v>
       </c>
       <c r="G55" s="2">
-        <v>98.287586824599927</v>
+        <v>161.94931053079048</v>
       </c>
       <c r="H55" s="2">
-        <v>-1.8706663324242083</v>
+        <v>-2.6479126668217496</v>
       </c>
       <c r="I55" s="2">
-        <v>-0.27777519315985111</v>
+        <v>-0.20924679882727021</v>
       </c>
       <c r="J55" s="2">
-        <v>129.15291561461234</v>
+        <v>143.73333777128556</v>
       </c>
       <c r="K55" s="2">
-        <v>907.50446700923192</v>
+        <v>948.89638573893433</v>
       </c>
       <c r="L55" s="2">
-        <v>50.394803303597179</v>
+        <v>69.215706162961126</v>
       </c>
       <c r="M55" s="2">
-        <v>0.59319747386876487</v>
+        <v>3.2276669250695553</v>
       </c>
       <c r="N55" s="2">
-        <v>1.5249546830049787</v>
+        <v>2.9520086627975433</v>
       </c>
       <c r="O55" s="2">
-        <v>2656.9847281927478</v>
+        <v>7300.5771430414707</v>
       </c>
       <c r="P55" s="2">
-        <v>455.50804058024744</v>
+        <v>211.83637979760877</v>
       </c>
       <c r="Q55" s="2">
-        <v>1.238496645504261</v>
+        <v>1.7418865666788088</v>
       </c>
       <c r="R55" s="2">
-        <v>-0.57069327778535572</v>
+        <v>-1.1248849315450612E-2</v>
       </c>
       <c r="S55" s="2">
-        <v>5.8504293308542401</v>
+        <v>6.1912928085575878</v>
       </c>
       <c r="T55" s="2">
-        <v>9.2013930026006765</v>
+        <v>11.605838789713868</v>
       </c>
       <c r="U55" s="2">
-        <v>0.12144121151699787</v>
+        <v>0.37654908396565329</v>
       </c>
       <c r="V55" s="2">
-        <v>-0.37075472541278998</v>
+        <v>-0.78134709019424786</v>
       </c>
       <c r="W55" s="2">
-        <v>3.2140978486993794</v>
+        <v>3.7797364497437131</v>
       </c>
       <c r="X55" s="2">
-        <v>3.1548775423526736E-2</v>
+        <v>0.22559609283903259</v>
       </c>
       <c r="Y55" s="2">
-        <v>6.5929737184735521E-2</v>
+        <v>8.8942271959690275E-2</v>
       </c>
       <c r="Z55" s="2">
-        <v>3.6292198574937241E-2</v>
+        <v>4.1279171389513716E-2</v>
       </c>
       <c r="AA55" s="2">
-        <v>0.12164631715497057</v>
+        <v>1.0528263119124546</v>
       </c>
       <c r="AB55" s="2">
-        <v>34.332972109415813</v>
+        <v>47.119598758786118</v>
       </c>
       <c r="AC55" s="2">
-        <v>8.2101087741122161</v>
+        <v>39.138225730410902</v>
       </c>
       <c r="AD55" s="2">
-        <v>4.9848693089121376E-2</v>
+        <v>0.12651332046235839</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5446,91 +5504,91 @@
         <v>80</v>
       </c>
       <c r="B56" s="2">
-        <v>4.6437350038283816</v>
+        <v>4.4582152049868151</v>
       </c>
       <c r="C56" s="2">
-        <v>86.937725739179228</v>
+        <v>74.852266846960035</v>
       </c>
       <c r="D56" s="2">
-        <v>204.34179505046629</v>
+        <v>202.44687888697274</v>
       </c>
       <c r="E56" s="2">
-        <v>1586.1531816045415</v>
+        <v>1942.9658695163318</v>
       </c>
       <c r="F56" s="2">
-        <v>-52.389395548561758</v>
+        <v>-62.558544691493175</v>
       </c>
       <c r="G56" s="2">
-        <v>117.87471206428334</v>
+        <v>173.80957650063968</v>
       </c>
       <c r="H56" s="2">
-        <v>-1.8447430184637734</v>
+        <v>-2.1626929491738052</v>
       </c>
       <c r="I56" s="2">
-        <v>-0.29353106507484056</v>
+        <v>-0.23712061361730133</v>
       </c>
       <c r="J56" s="2">
-        <v>149.44303550802712</v>
+        <v>122.90494697995199</v>
       </c>
       <c r="K56" s="2">
-        <v>986.4526565714142</v>
+        <v>781.66666076396314</v>
       </c>
       <c r="L56" s="2">
-        <v>53.735795082695475</v>
+        <v>46.905889758138699</v>
       </c>
       <c r="M56" s="2">
-        <v>1.0850247824405779</v>
+        <v>2.7868112384732244</v>
       </c>
       <c r="N56" s="2">
-        <v>1.7945709252528199</v>
+        <v>2.5583944830676075</v>
       </c>
       <c r="O56" s="2">
-        <v>3447.125204455785</v>
+        <v>7829.8465223335661</v>
       </c>
       <c r="P56" s="2">
-        <v>704.92380928960836</v>
+        <v>190.89771881760774</v>
       </c>
       <c r="Q56" s="2">
-        <v>1.6239106916833927</v>
+        <v>1.5885719611314328</v>
       </c>
       <c r="R56" s="2">
-        <v>-0.35641981679254336</v>
+        <v>-0.28969214294275236</v>
       </c>
       <c r="S56" s="2">
-        <v>10.768529470472863</v>
+        <v>9.0044056193405755</v>
       </c>
       <c r="T56" s="2">
-        <v>15.774633172293516</v>
+        <v>9.8671496850667264</v>
       </c>
       <c r="U56" s="2">
-        <v>0.16656967395357847</v>
+        <v>0.35854880793230515</v>
       </c>
       <c r="V56" s="2">
-        <v>-0.30306398445845617</v>
+        <v>-0.62163117197806395</v>
       </c>
       <c r="W56" s="2">
-        <v>3.880015670545748</v>
+        <v>3.1811481487822535</v>
       </c>
       <c r="X56" s="2">
-        <v>4.0304550811070608E-2</v>
+        <v>0.12621727471920954</v>
       </c>
       <c r="Y56" s="2">
-        <v>8.1894169591902613E-2</v>
+        <v>9.1893150231279086E-2</v>
       </c>
       <c r="Z56" s="2">
-        <v>4.6253504048982916E-2</v>
+        <v>4.3352191019913271E-2</v>
       </c>
       <c r="AA56" s="2">
-        <v>0.11205522003964548</v>
+        <v>0.49800398070799518</v>
       </c>
       <c r="AB56" s="2">
-        <v>45.721060456437769</v>
+        <v>44.080907957023932</v>
       </c>
       <c r="AC56" s="2">
-        <v>12.312603867261265</v>
+        <v>12.311250977106015</v>
       </c>
       <c r="AD56" s="2">
-        <v>5.6054218495718282E-2</v>
+        <v>8.9934450841252525E-2</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,91 +5596,91 @@
         <v>81</v>
       </c>
       <c r="B57" s="2">
-        <v>5.4313735108352725</v>
+        <v>4.2322951029423015</v>
       </c>
       <c r="C57" s="2">
-        <v>74.507789944218857</v>
+        <v>86.159076675071532</v>
       </c>
       <c r="D57" s="2">
-        <v>247.98730618665567</v>
+        <v>164.95125202420701</v>
       </c>
       <c r="E57" s="2">
-        <v>2704.0102918517405</v>
+        <v>923.82804418605224</v>
       </c>
       <c r="F57" s="2">
-        <v>-27.756273966950637</v>
+        <v>-38.899960159971506</v>
       </c>
       <c r="G57" s="2">
-        <v>161.94931053079048</v>
+        <v>102.19014055196166</v>
       </c>
       <c r="H57" s="2">
-        <v>-2.6479126668217496</v>
+        <v>-1.4810213890074906</v>
       </c>
       <c r="I57" s="2">
-        <v>-0.20924679882727021</v>
+        <v>-0.27581109052181746</v>
       </c>
       <c r="J57" s="2">
-        <v>143.73333777128556</v>
+        <v>117.82514415323789</v>
       </c>
       <c r="K57" s="2">
-        <v>948.89638573893433</v>
+        <v>1024.7072857796386</v>
       </c>
       <c r="L57" s="2">
-        <v>69.215706162961126</v>
+        <v>44.215011909459022</v>
       </c>
       <c r="M57" s="2">
-        <v>3.2276669250695553</v>
+        <v>0.25905012700827201</v>
       </c>
       <c r="N57" s="2">
-        <v>2.9520086627975433</v>
+        <v>1.2813680510416323</v>
       </c>
       <c r="O57" s="2">
-        <v>7300.5771430414707</v>
+        <v>4287.7133940784897</v>
       </c>
       <c r="P57" s="2">
-        <v>211.83637979760877</v>
+        <v>663.18026193657454</v>
       </c>
       <c r="Q57" s="2">
-        <v>1.7418865666788088</v>
+        <v>1.6902373450517909</v>
       </c>
       <c r="R57" s="2">
-        <v>-1.1248849315450612E-2</v>
+        <v>-0.21993009960236143</v>
       </c>
       <c r="S57" s="2">
-        <v>6.1912928085575878</v>
+        <v>6.8055268936912299</v>
       </c>
       <c r="T57" s="2">
-        <v>11.605838789713868</v>
+        <v>19.129435880887279</v>
       </c>
       <c r="U57" s="2">
-        <v>0.37654908396565329</v>
+        <v>0.17402140910178876</v>
       </c>
       <c r="V57" s="2">
-        <v>-0.78134709019424786</v>
+        <v>-0.33889234164310778</v>
       </c>
       <c r="W57" s="2">
-        <v>3.7797364497437131</v>
+        <v>3.5994894246164124</v>
       </c>
       <c r="X57" s="2">
-        <v>0.22559609283903259</v>
+        <v>9.5161142821422795E-2</v>
       </c>
       <c r="Y57" s="2">
-        <v>8.8942271959690275E-2</v>
+        <v>6.8267943898642755E-2</v>
       </c>
       <c r="Z57" s="2">
-        <v>4.1279171389513716E-2</v>
+        <v>4.6235741733903879E-2</v>
       </c>
       <c r="AA57" s="2">
-        <v>1.0528263119124546</v>
+        <v>0.35876261865787923</v>
       </c>
       <c r="AB57" s="2">
-        <v>47.119598758786118</v>
+        <v>52.809453921550102</v>
       </c>
       <c r="AC57" s="2">
-        <v>39.138225730410902</v>
+        <v>7.1176469153346007</v>
       </c>
       <c r="AD57" s="2">
-        <v>0.12651332046235839</v>
+        <v>4.7444902911328114E-2</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5630,91 +5688,91 @@
         <v>82</v>
       </c>
       <c r="B58" s="2">
-        <v>4.4582152049868151</v>
+        <v>5.0514824582278877</v>
       </c>
       <c r="C58" s="2">
-        <v>74.852266846960035</v>
+        <v>81.589695459823474</v>
       </c>
       <c r="D58" s="2">
-        <v>202.44687888697274</v>
+        <v>200.14333328953379</v>
       </c>
       <c r="E58" s="2">
-        <v>1942.9658695163318</v>
+        <v>1339.7014651242994</v>
       </c>
       <c r="F58" s="2">
-        <v>-62.558544691493175</v>
+        <v>-52.723371074997843</v>
       </c>
       <c r="G58" s="2">
-        <v>173.80957650063968</v>
+        <v>125.96054625642444</v>
       </c>
       <c r="H58" s="2">
-        <v>-2.1626929491738052</v>
+        <v>-1.3516623762515612</v>
       </c>
       <c r="I58" s="2">
-        <v>-0.23712061361730133</v>
+        <v>-0.26871773573105556</v>
       </c>
       <c r="J58" s="2">
-        <v>122.90494697995199</v>
+        <v>136.33417490190513</v>
       </c>
       <c r="K58" s="2">
-        <v>781.66666076396314</v>
+        <v>1221.0937328034661</v>
       </c>
       <c r="L58" s="2">
-        <v>46.905889758138699</v>
+        <v>52.975219082673028</v>
       </c>
       <c r="M58" s="2">
-        <v>2.7868112384732244</v>
+        <v>0.84356198756812217</v>
       </c>
       <c r="N58" s="2">
-        <v>2.5583944830676075</v>
+        <v>1.5869097385495223</v>
       </c>
       <c r="O58" s="2">
-        <v>7829.8465223335661</v>
+        <v>4610.5440105903581</v>
       </c>
       <c r="P58" s="2">
-        <v>190.89771881760774</v>
+        <v>572.25568782149662</v>
       </c>
       <c r="Q58" s="2">
-        <v>1.5885719611314328</v>
+        <v>2.0666785863395032</v>
       </c>
       <c r="R58" s="2">
-        <v>-0.28969214294275236</v>
+        <v>6.0816722567749656E-2</v>
       </c>
       <c r="S58" s="2">
-        <v>9.0044056193405755</v>
+        <v>8.1373902544207475</v>
       </c>
       <c r="T58" s="2">
-        <v>9.8671496850667264</v>
+        <v>24.350742282872915</v>
       </c>
       <c r="U58" s="2">
-        <v>0.35854880793230515</v>
+        <v>0.20281765621457823</v>
       </c>
       <c r="V58" s="2">
-        <v>-0.62163117197806395</v>
+        <v>-0.37782092058832117</v>
       </c>
       <c r="W58" s="2">
-        <v>3.1811481487822535</v>
+        <v>4.1610186020161306</v>
       </c>
       <c r="X58" s="2">
-        <v>0.12621727471920954</v>
+        <v>7.719858791405837E-2</v>
       </c>
       <c r="Y58" s="2">
-        <v>9.1893150231279086E-2</v>
+        <v>7.5931489601343938E-2</v>
       </c>
       <c r="Z58" s="2">
-        <v>4.3352191019913271E-2</v>
+        <v>4.9355496762987616E-2</v>
       </c>
       <c r="AA58" s="2">
-        <v>0.49800398070799518</v>
+        <v>0.18241710995844637</v>
       </c>
       <c r="AB58" s="2">
-        <v>44.080907957023932</v>
+        <v>46.796212944496617</v>
       </c>
       <c r="AC58" s="2">
-        <v>12.311250977106015</v>
+        <v>15.407681151405869</v>
       </c>
       <c r="AD58" s="2">
-        <v>8.9934450841252525E-2</v>
+        <v>5.4442416594706625E-2</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,91 +5780,91 @@
         <v>83</v>
       </c>
       <c r="B59" s="2">
-        <v>4.2322951029423015</v>
+        <v>4.7784801005361874</v>
       </c>
       <c r="C59" s="2">
-        <v>86.159076675071532</v>
+        <v>97.918825362916664</v>
       </c>
       <c r="D59" s="2">
-        <v>164.95125202420701</v>
+        <v>201.88356267289763</v>
       </c>
       <c r="E59" s="2">
-        <v>923.82804418605224</v>
+        <v>2062.0855822465978</v>
       </c>
       <c r="F59" s="2">
-        <v>-38.899960159971506</v>
+        <v>-15.867521896078062</v>
       </c>
       <c r="G59" s="2">
-        <v>102.19014055196166</v>
+        <v>199.21425833738286</v>
       </c>
       <c r="H59" s="2">
-        <v>-1.4810213890074906</v>
+        <v>-1.6865896618606775</v>
       </c>
       <c r="I59" s="2">
-        <v>-0.27581109052181746</v>
+        <v>7.6933233605615287E-3</v>
       </c>
       <c r="J59" s="2">
-        <v>117.82514415323789</v>
+        <v>135.89751232896435</v>
       </c>
       <c r="K59" s="2">
-        <v>1024.7072857796386</v>
+        <v>886.88873770828422</v>
       </c>
       <c r="L59" s="2">
-        <v>44.215011909459022</v>
+        <v>58.629882088954162</v>
       </c>
       <c r="M59" s="2">
-        <v>0.25905012700827201</v>
+        <v>2.6058693389866572</v>
       </c>
       <c r="N59" s="2">
-        <v>1.2813680510416323</v>
+        <v>2.4848911591980665</v>
       </c>
       <c r="O59" s="2">
-        <v>4287.7133940784897</v>
+        <v>12920.736391571811</v>
       </c>
       <c r="P59" s="2">
-        <v>663.18026193657454</v>
+        <v>251.1278389201797</v>
       </c>
       <c r="Q59" s="2">
-        <v>1.6902373450517909</v>
+        <v>1.7658198753963439</v>
       </c>
       <c r="R59" s="2">
-        <v>-0.21993009960236143</v>
+        <v>-0.14851511255923466</v>
       </c>
       <c r="S59" s="2">
-        <v>6.8055268936912299</v>
+        <v>4.1754720416531388</v>
       </c>
       <c r="T59" s="2">
-        <v>19.129435880887279</v>
+        <v>13.620455478682555</v>
       </c>
       <c r="U59" s="2">
-        <v>0.17402140910178876</v>
+        <v>0.64467535503830231</v>
       </c>
       <c r="V59" s="2">
-        <v>-0.33889234164310778</v>
+        <v>-0.55714625561933373</v>
       </c>
       <c r="W59" s="2">
-        <v>3.5994894246164124</v>
+        <v>3.543326308462845</v>
       </c>
       <c r="X59" s="2">
-        <v>9.5161142821422795E-2</v>
+        <v>0.15983859085946286</v>
       </c>
       <c r="Y59" s="2">
-        <v>6.8267943898642755E-2</v>
+        <v>9.6691525692697344E-2</v>
       </c>
       <c r="Z59" s="2">
-        <v>4.6235741733903879E-2</v>
+        <v>4.6009321509721812E-2</v>
       </c>
       <c r="AA59" s="2">
-        <v>0.35876261865787923</v>
+        <v>0.18170062049830396</v>
       </c>
       <c r="AB59" s="2">
-        <v>52.809453921550102</v>
+        <v>40.114050956643332</v>
       </c>
       <c r="AC59" s="2">
-        <v>7.1176469153346007</v>
+        <v>46.798847206585101</v>
       </c>
       <c r="AD59" s="2">
-        <v>4.7444902911328114E-2</v>
+        <v>7.3390464750028472E-2</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5814,91 +5872,91 @@
         <v>84</v>
       </c>
       <c r="B60" s="2">
-        <v>5.0514824582278877</v>
+        <v>4.9230462511921136</v>
       </c>
       <c r="C60" s="2">
-        <v>81.589695459823474</v>
+        <v>353.45011269252882</v>
       </c>
       <c r="D60" s="2">
-        <v>200.14333328953379</v>
+        <v>165.1588351414446</v>
       </c>
       <c r="E60" s="2">
-        <v>1339.7014651242994</v>
+        <v>1278.3546574852635</v>
       </c>
       <c r="F60" s="2">
-        <v>-52.723371074997843</v>
+        <v>-38.186766747450726</v>
       </c>
       <c r="G60" s="2">
-        <v>125.96054625642444</v>
+        <v>85.026987736381557</v>
       </c>
       <c r="H60" s="2">
-        <v>-1.3516623762515612</v>
+        <v>-1.5381699620641316</v>
       </c>
       <c r="I60" s="2">
-        <v>-0.26871773573105556</v>
+        <v>-0.2102462161921112</v>
       </c>
       <c r="J60" s="2">
-        <v>136.33417490190513</v>
+        <v>103.83487541284431</v>
       </c>
       <c r="K60" s="2">
-        <v>1221.0937328034661</v>
+        <v>981.88698126124586</v>
       </c>
       <c r="L60" s="2">
-        <v>52.975219082673028</v>
+        <v>50.145262300671135</v>
       </c>
       <c r="M60" s="2">
-        <v>0.84356198756812217</v>
+        <v>0.4579257058304872</v>
       </c>
       <c r="N60" s="2">
-        <v>1.5869097385495223</v>
+        <v>1.3380904622142313</v>
       </c>
       <c r="O60" s="2">
-        <v>4610.5440105903581</v>
+        <v>5579.6533748070324</v>
       </c>
       <c r="P60" s="2">
-        <v>572.25568782149662</v>
+        <v>99.96225205363713</v>
       </c>
       <c r="Q60" s="2">
-        <v>2.0666785863395032</v>
+        <v>0.75523966726821978</v>
       </c>
       <c r="R60" s="2">
-        <v>6.0816722567749656E-2</v>
+        <v>-0.55727122532568918</v>
       </c>
       <c r="S60" s="2">
-        <v>8.1373902544207475</v>
+        <v>2.195745837842042</v>
       </c>
       <c r="T60" s="2">
-        <v>24.350742282872915</v>
+        <v>5.2005332817524135</v>
       </c>
       <c r="U60" s="2">
-        <v>0.20281765621457823</v>
+        <v>0.23204202944107416</v>
       </c>
       <c r="V60" s="2">
-        <v>-0.37782092058832117</v>
+        <v>-0.18126185065359876</v>
       </c>
       <c r="W60" s="2">
-        <v>4.1610186020161306</v>
+        <v>2.8849105799943549</v>
       </c>
       <c r="X60" s="2">
-        <v>7.719858791405837E-2</v>
+        <v>8.6257810082560102E-2</v>
       </c>
       <c r="Y60" s="2">
-        <v>7.5931489601343938E-2</v>
+        <v>8.2013312180248335E-2</v>
       </c>
       <c r="Z60" s="2">
-        <v>4.9355496762987616E-2</v>
+        <v>2.4212006950751153E-2</v>
       </c>
       <c r="AA60" s="2">
-        <v>0.18241710995844637</v>
+        <v>0.12150591116907071</v>
       </c>
       <c r="AB60" s="2">
-        <v>46.796212944496617</v>
+        <v>18.542184814905443</v>
       </c>
       <c r="AC60" s="2">
-        <v>15.407681151405869</v>
+        <v>11.690364294679558</v>
       </c>
       <c r="AD60" s="2">
-        <v>5.4442416594706625E-2</v>
+        <v>4.6657015826208542E-2</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,91 +5964,91 @@
         <v>85</v>
       </c>
       <c r="B61" s="2">
-        <v>4.7784801005361874</v>
+        <v>6.2533027574346569</v>
       </c>
       <c r="C61" s="2">
-        <v>97.918825362916664</v>
+        <v>97.415208876758712</v>
       </c>
       <c r="D61" s="2">
-        <v>201.88356267289763</v>
+        <v>276.44799376750262</v>
       </c>
       <c r="E61" s="2">
-        <v>2062.0855822465978</v>
+        <v>1569.0368478978457</v>
       </c>
       <c r="F61" s="2">
-        <v>-15.867521896078062</v>
+        <v>-36.014752137268502</v>
       </c>
       <c r="G61" s="2">
-        <v>199.21425833738286</v>
+        <v>88.609609479733138</v>
       </c>
       <c r="H61" s="2">
-        <v>-1.6865896618606775</v>
+        <v>-1.4363156122280492</v>
       </c>
       <c r="I61" s="2">
-        <v>7.6933233605615287E-3</v>
+        <v>-0.29297167575653515</v>
       </c>
       <c r="J61" s="2">
-        <v>135.89751232896435</v>
+        <v>147.94113196189755</v>
       </c>
       <c r="K61" s="2">
-        <v>886.88873770828422</v>
+        <v>1761.5521675137597</v>
       </c>
       <c r="L61" s="2">
-        <v>58.629882088954162</v>
+        <v>70.747994166270843</v>
       </c>
       <c r="M61" s="2">
-        <v>2.6058693389866572</v>
+        <v>0.15322363827172136</v>
       </c>
       <c r="N61" s="2">
-        <v>2.4848911591980665</v>
+        <v>1.3709708338761022</v>
       </c>
       <c r="O61" s="2">
-        <v>12920.736391571811</v>
+        <v>3740.2584870838814</v>
       </c>
       <c r="P61" s="2">
-        <v>251.1278389201797</v>
+        <v>306.49038404436834</v>
       </c>
       <c r="Q61" s="2">
-        <v>1.7658198753963439</v>
+        <v>1.0831465125905237</v>
       </c>
       <c r="R61" s="2">
-        <v>-0.14851511255923466</v>
+        <v>-0.66519770335482786</v>
       </c>
       <c r="S61" s="2">
-        <v>4.1754720416531388</v>
+        <v>2.3512494877905583</v>
       </c>
       <c r="T61" s="2">
-        <v>13.620455478682555</v>
+        <v>5.5883569353599496</v>
       </c>
       <c r="U61" s="2">
-        <v>0.64467535503830231</v>
+        <v>0.16157052602918293</v>
       </c>
       <c r="V61" s="2">
-        <v>-0.55714625561933373</v>
+        <v>-0.22512048670505563</v>
       </c>
       <c r="W61" s="2">
-        <v>3.543326308462845</v>
+        <v>5.1050173825981995</v>
       </c>
       <c r="X61" s="2">
-        <v>0.15983859085946286</v>
+        <v>5.1753310282452475E-2</v>
       </c>
       <c r="Y61" s="2">
-        <v>9.6691525692697344E-2</v>
+        <v>6.4329949135371794E-2</v>
       </c>
       <c r="Z61" s="2">
-        <v>4.6009321509721812E-2</v>
+        <v>2.5321043510323226E-2</v>
       </c>
       <c r="AA61" s="2">
-        <v>0.18170062049830396</v>
+        <v>0.14581089439048167</v>
       </c>
       <c r="AB61" s="2">
-        <v>40.114050956643332</v>
+        <v>36.893761942717582</v>
       </c>
       <c r="AC61" s="2">
-        <v>46.798847206585101</v>
+        <v>14.325642075776837</v>
       </c>
       <c r="AD61" s="2">
-        <v>7.3390464750028472E-2</v>
+        <v>6.1724989890243283E-2</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,91 +6056,91 @@
         <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>4.9230462511921136</v>
+        <v>4.5219597008343007</v>
       </c>
       <c r="C62" s="2">
-        <v>353.45011269252882</v>
+        <v>77.079298607462263</v>
       </c>
       <c r="D62" s="2">
-        <v>165.1588351414446</v>
+        <v>184.12584000048199</v>
       </c>
       <c r="E62" s="2">
-        <v>1278.3546574852635</v>
+        <v>923.61183149398846</v>
       </c>
       <c r="F62" s="2">
-        <v>-38.186766747450726</v>
+        <v>-44.449679763758823</v>
       </c>
       <c r="G62" s="2">
-        <v>85.026987736381557</v>
+        <v>99.591085482727905</v>
       </c>
       <c r="H62" s="2">
-        <v>-1.5381699620641316</v>
+        <v>-1.1108549142550916</v>
       </c>
       <c r="I62" s="2">
-        <v>-0.2102462161921112</v>
+        <v>-0.27971418345221721</v>
       </c>
       <c r="J62" s="2">
-        <v>103.83487541284431</v>
+        <v>127.93177482916293</v>
       </c>
       <c r="K62" s="2">
-        <v>981.88698126124586</v>
+        <v>1084.5249465405022</v>
       </c>
       <c r="L62" s="2">
-        <v>50.145262300671135</v>
+        <v>51.849006870057913</v>
       </c>
       <c r="M62" s="2">
-        <v>0.4579257058304872</v>
+        <v>-3.3046021833429806E-2</v>
       </c>
       <c r="N62" s="2">
-        <v>1.3380904622142313</v>
+        <v>1.1170952457754879</v>
       </c>
       <c r="O62" s="2">
-        <v>5579.6533748070324</v>
+        <v>3626.6140360871459</v>
       </c>
       <c r="P62" s="2">
-        <v>99.96225205363713</v>
+        <v>484.09817988632147</v>
       </c>
       <c r="Q62" s="2">
-        <v>0.75523966726821978</v>
+        <v>1.2489245554880044</v>
       </c>
       <c r="R62" s="2">
-        <v>-0.55727122532568918</v>
+        <v>-0.84811914927397403</v>
       </c>
       <c r="S62" s="2">
-        <v>2.195745837842042</v>
+        <v>2.9976993931240679</v>
       </c>
       <c r="T62" s="2">
-        <v>5.2005332817524135</v>
+        <v>7.1522812772132021</v>
       </c>
       <c r="U62" s="2">
-        <v>0.23204202944107416</v>
+        <v>0.16693708516961631</v>
       </c>
       <c r="V62" s="2">
-        <v>-0.18126185065359876</v>
+        <v>-0.19193258487129086</v>
       </c>
       <c r="W62" s="2">
-        <v>2.8849105799943549</v>
+        <v>3.9058760458926436</v>
       </c>
       <c r="X62" s="2">
-        <v>8.6257810082560102E-2</v>
+        <v>4.0453052871289162E-2</v>
       </c>
       <c r="Y62" s="2">
-        <v>8.2013312180248335E-2</v>
+        <v>7.4616080964058459E-2</v>
       </c>
       <c r="Z62" s="2">
-        <v>2.4212006950751153E-2</v>
+        <v>3.1712289589880642E-2</v>
       </c>
       <c r="AA62" s="2">
-        <v>0.12150591116907071</v>
+        <v>0.13055414799584747</v>
       </c>
       <c r="AB62" s="2">
-        <v>18.542184814905443</v>
+        <v>46.117905071445996</v>
       </c>
       <c r="AC62" s="2">
-        <v>11.690364294679558</v>
+        <v>10.331936534741892</v>
       </c>
       <c r="AD62" s="2">
-        <v>4.6657015826208542E-2</v>
+        <v>4.3108443375849362E-2</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6090,91 +6148,91 @@
         <v>87</v>
       </c>
       <c r="B63" s="2">
-        <v>6.2533027574346569</v>
+        <v>4.7730887263501049</v>
       </c>
       <c r="C63" s="2">
-        <v>97.415208876758712</v>
+        <v>89.403831806731247</v>
       </c>
       <c r="D63" s="2">
-        <v>276.44799376750262</v>
+        <v>178.45110169218779</v>
       </c>
       <c r="E63" s="2">
-        <v>1569.0368478978457</v>
+        <v>1247.9035082455771</v>
       </c>
       <c r="F63" s="2">
-        <v>-36.014752137268502</v>
+        <v>-30.710624637347156</v>
       </c>
       <c r="G63" s="2">
-        <v>88.609609479733138</v>
+        <v>111.19896815565785</v>
       </c>
       <c r="H63" s="2">
-        <v>-1.4363156122280492</v>
+        <v>-1.5176318428174305</v>
       </c>
       <c r="I63" s="2">
-        <v>-0.29297167575653515</v>
+        <v>-0.22494919980765329</v>
       </c>
       <c r="J63" s="2">
-        <v>147.94113196189755</v>
+        <v>110.31232441459112</v>
       </c>
       <c r="K63" s="2">
-        <v>1761.5521675137597</v>
+        <v>956.83499299216112</v>
       </c>
       <c r="L63" s="2">
-        <v>70.747994166270843</v>
+        <v>54.174352437117875</v>
       </c>
       <c r="M63" s="2">
-        <v>0.15322363827172136</v>
+        <v>0.69540273502743732</v>
       </c>
       <c r="N63" s="2">
-        <v>1.3709708338761022</v>
+        <v>1.4544790343843943</v>
       </c>
       <c r="O63" s="2">
-        <v>3740.2584870838814</v>
+        <v>8949.4342215599954</v>
       </c>
       <c r="P63" s="2">
-        <v>306.49038404436834</v>
+        <v>187.2965960816058</v>
       </c>
       <c r="Q63" s="2">
-        <v>1.0831465125905237</v>
+        <v>1.0847997405824839</v>
       </c>
       <c r="R63" s="2">
-        <v>-0.66519770335482786</v>
+        <v>-0.91313821872092737</v>
       </c>
       <c r="S63" s="2">
-        <v>2.3512494877905583</v>
+        <v>2.20198507617462</v>
       </c>
       <c r="T63" s="2">
-        <v>5.5883569353599496</v>
+        <v>4.4418563679539629</v>
       </c>
       <c r="U63" s="2">
-        <v>0.16157052602918293</v>
+        <v>0.30545438223904714</v>
       </c>
       <c r="V63" s="2">
-        <v>-0.22512048670505563</v>
+        <v>-0.30631590353162019</v>
       </c>
       <c r="W63" s="2">
-        <v>5.1050173825981995</v>
+        <v>3.103304044534581</v>
       </c>
       <c r="X63" s="2">
-        <v>5.1753310282452475E-2</v>
+        <v>0.11311033935908993</v>
       </c>
       <c r="Y63" s="2">
-        <v>6.4329949135371794E-2</v>
+        <v>7.9503088573865718E-2</v>
       </c>
       <c r="Z63" s="2">
-        <v>2.5321043510323226E-2</v>
+        <v>3.0292484987280963E-2</v>
       </c>
       <c r="AA63" s="2">
-        <v>0.14581089439048167</v>
+        <v>0.13808169736421397</v>
       </c>
       <c r="AB63" s="2">
-        <v>36.893761942717582</v>
+        <v>31.363890814572095</v>
       </c>
       <c r="AC63" s="2">
-        <v>14.325642075776837</v>
+        <v>63.881113358874877</v>
       </c>
       <c r="AD63" s="2">
-        <v>6.1724989890243283E-2</v>
+        <v>5.289958622093275E-2</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6182,91 +6240,91 @@
         <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>4.5219597008343007</v>
+        <v>4.4167577487589753</v>
       </c>
       <c r="C64" s="2">
-        <v>77.079298607462263</v>
+        <v>77.997207261280934</v>
       </c>
       <c r="D64" s="2">
-        <v>184.12584000048199</v>
+        <v>174.48835035939123</v>
       </c>
       <c r="E64" s="2">
-        <v>923.61183149398846</v>
+        <v>1166.8319611329935</v>
       </c>
       <c r="F64" s="2">
-        <v>-44.449679763758823</v>
+        <v>-35.640632061141766</v>
       </c>
       <c r="G64" s="2">
-        <v>99.591085482727905</v>
+        <v>123.57021124314923</v>
       </c>
       <c r="H64" s="2">
-        <v>-1.1108549142550916</v>
+        <v>-1.267118665706727</v>
       </c>
       <c r="I64" s="2">
-        <v>-0.27971418345221721</v>
+        <v>-0.20924129863813423</v>
       </c>
       <c r="J64" s="2">
-        <v>127.93177482916293</v>
+        <v>109.15680103285212</v>
       </c>
       <c r="K64" s="2">
-        <v>1084.5249465405022</v>
+        <v>928.53203686057384</v>
       </c>
       <c r="L64" s="2">
-        <v>51.849006870057913</v>
+        <v>49.418850612222222</v>
       </c>
       <c r="M64" s="2">
-        <v>-3.3046021833429806E-2</v>
+        <v>0.78275955807432751</v>
       </c>
       <c r="N64" s="2">
-        <v>1.1170952457754879</v>
+        <v>1.5313145734905538</v>
       </c>
       <c r="O64" s="2">
-        <v>3626.6140360871459</v>
+        <v>9291.4909524632767</v>
       </c>
       <c r="P64" s="2">
-        <v>484.09817988632147</v>
+        <v>237.03324136902194</v>
       </c>
       <c r="Q64" s="2">
-        <v>1.2489245554880044</v>
+        <v>1.2952602141996044</v>
       </c>
       <c r="R64" s="2">
-        <v>-0.84811914927397403</v>
+        <v>-0.70721569548030738</v>
       </c>
       <c r="S64" s="2">
-        <v>2.9976993931240679</v>
+        <v>2.2424714971990478</v>
       </c>
       <c r="T64" s="2">
-        <v>7.1522812772132021</v>
+        <v>4.8312022072800369</v>
       </c>
       <c r="U64" s="2">
-        <v>0.16693708516961631</v>
+        <v>0.37731139318352597</v>
       </c>
       <c r="V64" s="2">
-        <v>-0.19193258487129086</v>
+        <v>-0.22234559898259551</v>
       </c>
       <c r="W64" s="2">
-        <v>3.9058760458926436</v>
+        <v>3.299546404473706</v>
       </c>
       <c r="X64" s="2">
-        <v>4.0453052871289162E-2</v>
+        <v>0.12250153574285216</v>
       </c>
       <c r="Y64" s="2">
-        <v>7.4616080964058459E-2</v>
+        <v>9.3857171416754995E-2</v>
       </c>
       <c r="Z64" s="2">
-        <v>3.1712289589880642E-2</v>
+        <v>3.0247316896426381E-2</v>
       </c>
       <c r="AA64" s="2">
-        <v>0.13055414799584747</v>
+        <v>-1.1054047972693954E-2</v>
       </c>
       <c r="AB64" s="2">
-        <v>46.117905071445996</v>
+        <v>35.281965673876634</v>
       </c>
       <c r="AC64" s="2">
-        <v>10.331936534741892</v>
+        <v>35.987287967433737</v>
       </c>
       <c r="AD64" s="2">
-        <v>4.3108443375849362E-2</v>
+        <v>5.1024419649591674E-2</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6274,91 +6332,91 @@
         <v>89</v>
       </c>
       <c r="B65" s="2">
-        <v>4.7730887263501049</v>
+        <v>5.0716521602893154</v>
       </c>
       <c r="C65" s="2">
-        <v>89.403831806731247</v>
+        <v>151.24319328888507</v>
       </c>
       <c r="D65" s="2">
-        <v>178.45110169218779</v>
+        <v>196.28738746303114</v>
       </c>
       <c r="E65" s="2">
-        <v>1247.9035082455771</v>
+        <v>761.28429741695595</v>
       </c>
       <c r="F65" s="2">
-        <v>-30.710624637347156</v>
+        <v>-40.639438929995563</v>
       </c>
       <c r="G65" s="2">
-        <v>111.19896815565785</v>
+        <v>87.757131496617603</v>
       </c>
       <c r="H65" s="2">
-        <v>-1.5176318428174305</v>
+        <v>-1.5537106105783582</v>
       </c>
       <c r="I65" s="2">
-        <v>-0.22494919980765329</v>
+        <v>-0.40757059803525963</v>
       </c>
       <c r="J65" s="2">
-        <v>110.31232441459112</v>
+        <v>132.48016528148014</v>
       </c>
       <c r="K65" s="2">
-        <v>956.83499299216112</v>
+        <v>1242.0701659858867</v>
       </c>
       <c r="L65" s="2">
-        <v>54.174352437117875</v>
+        <v>49.645712014182386</v>
       </c>
       <c r="M65" s="2">
-        <v>0.69540273502743732</v>
+        <v>-0.47283724668721067</v>
       </c>
       <c r="N65" s="2">
-        <v>1.4544790343843943</v>
+        <v>0.78838734140005839</v>
       </c>
       <c r="O65" s="2">
-        <v>8949.4342215599954</v>
+        <v>4045.123938068989</v>
       </c>
       <c r="P65" s="2">
-        <v>187.2965960816058</v>
+        <v>343.13448249372021</v>
       </c>
       <c r="Q65" s="2">
-        <v>1.0847997405824839</v>
+        <v>0.88782627775056999</v>
       </c>
       <c r="R65" s="2">
-        <v>-0.91313821872092737</v>
+        <v>-1.0133729486222152</v>
       </c>
       <c r="S65" s="2">
-        <v>2.20198507617462</v>
+        <v>1.718653447996904</v>
       </c>
       <c r="T65" s="2">
-        <v>4.4418563679539629</v>
+        <v>3.586750397253097</v>
       </c>
       <c r="U65" s="2">
-        <v>0.30545438223904714</v>
+        <v>0.19225003829711437</v>
       </c>
       <c r="V65" s="2">
-        <v>-0.30631590353162019</v>
+        <v>-0.14210625826224521</v>
       </c>
       <c r="W65" s="2">
-        <v>3.103304044534581</v>
+        <v>4.1500449189120685</v>
       </c>
       <c r="X65" s="2">
-        <v>0.11311033935908993</v>
+        <v>0.20947937670694114</v>
       </c>
       <c r="Y65" s="2">
-        <v>7.9503088573865718E-2</v>
+        <v>0.10083322625599192</v>
       </c>
       <c r="Z65" s="2">
-        <v>3.0292484987280963E-2</v>
+        <v>2.8605209405251499E-2</v>
       </c>
       <c r="AA65" s="2">
-        <v>0.13808169736421397</v>
+        <v>0.98337479445158649</v>
       </c>
       <c r="AB65" s="2">
-        <v>31.363890814572095</v>
+        <v>35.800708590277729</v>
       </c>
       <c r="AC65" s="2">
-        <v>63.881113358874877</v>
+        <v>6.1190675155539482</v>
       </c>
       <c r="AD65" s="2">
-        <v>5.289958622093275E-2</v>
+        <v>7.4163561450011614E-2</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6366,91 +6424,91 @@
         <v>90</v>
       </c>
       <c r="B66" s="2">
-        <v>4.4167577487589753</v>
+        <v>4.0060451235039167</v>
       </c>
       <c r="C66" s="2">
-        <v>77.997207261280934</v>
+        <v>73.616678751679956</v>
       </c>
       <c r="D66" s="2">
-        <v>174.48835035939123</v>
+        <v>152.27700564650399</v>
       </c>
       <c r="E66" s="2">
-        <v>1166.8319611329935</v>
+        <v>522.76228721679774</v>
       </c>
       <c r="F66" s="2">
-        <v>-35.640632061141766</v>
+        <v>-34.386082047407214</v>
       </c>
       <c r="G66" s="2">
-        <v>123.57021124314923</v>
+        <v>83.460167541042082</v>
       </c>
       <c r="H66" s="2">
-        <v>-1.267118665706727</v>
+        <v>-1.4230249364248759</v>
       </c>
       <c r="I66" s="2">
-        <v>-0.20924129863813423</v>
+        <v>-0.36807106728365035</v>
       </c>
       <c r="J66" s="2">
-        <v>109.15680103285212</v>
+        <v>111.66249464166123</v>
       </c>
       <c r="K66" s="2">
-        <v>928.53203686057384</v>
+        <v>895.5966605060155</v>
       </c>
       <c r="L66" s="2">
-        <v>49.418850612222222</v>
+        <v>39.008571560734964</v>
       </c>
       <c r="M66" s="2">
-        <v>0.78275955807432751</v>
+        <v>-0.67452259954482119</v>
       </c>
       <c r="N66" s="2">
-        <v>1.5313145734905538</v>
+        <v>0.63307605424714464</v>
       </c>
       <c r="O66" s="2">
-        <v>9291.4909524632767</v>
+        <v>3166.7193121202986</v>
       </c>
       <c r="P66" s="2">
-        <v>237.03324136902194</v>
+        <v>303.41973149973808</v>
       </c>
       <c r="Q66" s="2">
-        <v>1.2952602141996044</v>
+        <v>0.79814303116906071</v>
       </c>
       <c r="R66" s="2">
-        <v>-0.70721569548030738</v>
+        <v>-1.3127790797107477</v>
       </c>
       <c r="S66" s="2">
-        <v>2.2424714971990478</v>
+        <v>1.4173894726514851</v>
       </c>
       <c r="T66" s="2">
-        <v>4.8312022072800369</v>
+        <v>2.8678825918025499</v>
       </c>
       <c r="U66" s="2">
-        <v>0.37731139318352597</v>
+        <v>0.15377904135512599</v>
       </c>
       <c r="V66" s="2">
-        <v>-0.22234559898259551</v>
+        <v>-0.25438582212134403</v>
       </c>
       <c r="W66" s="2">
-        <v>3.299546404473706</v>
+        <v>3.2051388811753476</v>
       </c>
       <c r="X66" s="2">
-        <v>0.12250153574285216</v>
+        <v>9.7441563262361724E-2</v>
       </c>
       <c r="Y66" s="2">
-        <v>9.3857171416754995E-2</v>
+        <v>7.1613627331646668E-2</v>
       </c>
       <c r="Z66" s="2">
-        <v>3.0247316896426381E-2</v>
+        <v>2.1383094635532996E-2</v>
       </c>
       <c r="AA66" s="2">
-        <v>-1.1054047972693954E-2</v>
+        <v>0.40451955345111362</v>
       </c>
       <c r="AB66" s="2">
-        <v>35.281965673876634</v>
+        <v>30.690787648266166</v>
       </c>
       <c r="AC66" s="2">
-        <v>35.987287967433737</v>
+        <v>2.9033163461078866</v>
       </c>
       <c r="AD66" s="2">
-        <v>5.1024419649591674E-2</v>
+        <v>4.2545573865765046E-2</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6458,91 +6516,91 @@
         <v>91</v>
       </c>
       <c r="B67" s="2">
-        <v>5.0716521602893154</v>
+        <v>3.8313671386399974</v>
       </c>
       <c r="C67" s="2">
-        <v>151.24319328888507</v>
+        <v>86.302344088631855</v>
       </c>
       <c r="D67" s="2">
-        <v>196.28738746303114</v>
+        <v>150.71143465740184</v>
       </c>
       <c r="E67" s="2">
-        <v>761.28429741695595</v>
+        <v>766.78092189702761</v>
       </c>
       <c r="F67" s="2">
-        <v>-40.639438929995563</v>
+        <v>-18.290456741459685</v>
       </c>
       <c r="G67" s="2">
-        <v>87.757131496617603</v>
+        <v>106.14098244044698</v>
       </c>
       <c r="H67" s="2">
-        <v>-1.5537106105783582</v>
+        <v>-1.1681209111582449</v>
       </c>
       <c r="I67" s="2">
-        <v>-0.40757059803525963</v>
+        <v>-0.24742055693220116</v>
       </c>
       <c r="J67" s="2">
-        <v>132.48016528148014</v>
+        <v>109.48877669722538</v>
       </c>
       <c r="K67" s="2">
-        <v>1242.0701659858867</v>
+        <v>766.98846265916939</v>
       </c>
       <c r="L67" s="2">
-        <v>49.645712014182386</v>
+        <v>39.289519475857688</v>
       </c>
       <c r="M67" s="2">
-        <v>-0.47283724668721067</v>
+        <v>0.25416795821260879</v>
       </c>
       <c r="N67" s="2">
-        <v>0.78838734140005839</v>
+        <v>1.2001415745466197</v>
       </c>
       <c r="O67" s="2">
-        <v>4045.123938068989</v>
+        <v>10247.78104541193</v>
       </c>
       <c r="P67" s="2">
-        <v>343.13448249372021</v>
+        <v>333.25551767113404</v>
       </c>
       <c r="Q67" s="2">
-        <v>0.88782627775056999</v>
+        <v>1.3806449511812673</v>
       </c>
       <c r="R67" s="2">
-        <v>-1.0133729486222152</v>
+        <v>-0.75005737039844067</v>
       </c>
       <c r="S67" s="2">
-        <v>1.718653447996904</v>
+        <v>2.2104203999124055</v>
       </c>
       <c r="T67" s="2">
-        <v>3.586750397253097</v>
+        <v>5.4238884239346916</v>
       </c>
       <c r="U67" s="2">
-        <v>0.19225003829711437</v>
+        <v>0.31993773297195921</v>
       </c>
       <c r="V67" s="2">
-        <v>-0.14210625826224521</v>
+        <v>-0.14928071080903585</v>
       </c>
       <c r="W67" s="2">
-        <v>4.1500449189120685</v>
+        <v>2.7388645558209666</v>
       </c>
       <c r="X67" s="2">
-        <v>0.20947937670694114</v>
+        <v>0.19517929330916578</v>
       </c>
       <c r="Y67" s="2">
-        <v>0.10083322625599192</v>
+        <v>8.7481725108022518E-2</v>
       </c>
       <c r="Z67" s="2">
-        <v>2.8605209405251499E-2</v>
+        <v>4.356379816437711E-2</v>
       </c>
       <c r="AA67" s="2">
-        <v>0.98337479445158649</v>
+        <v>0.23920162543683016</v>
       </c>
       <c r="AB67" s="2">
-        <v>35.800708590277729</v>
+        <v>29.767228846407221</v>
       </c>
       <c r="AC67" s="2">
-        <v>6.1190675155539482</v>
+        <v>22.008483078000388</v>
       </c>
       <c r="AD67" s="2">
-        <v>7.4163561450011614E-2</v>
+        <v>4.8477879928473681E-2</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6550,91 +6608,91 @@
         <v>92</v>
       </c>
       <c r="B68" s="2">
-        <v>4.0060451235039167</v>
+        <v>4.0555596584065716</v>
       </c>
       <c r="C68" s="2">
-        <v>73.616678751679956</v>
+        <v>70.54436908559839</v>
       </c>
       <c r="D68" s="2">
-        <v>152.27700564650399</v>
+        <v>152.0452078108589</v>
       </c>
       <c r="E68" s="2">
-        <v>522.76228721679774</v>
+        <v>665.30037668123077</v>
       </c>
       <c r="F68" s="2">
-        <v>-34.386082047407214</v>
+        <v>-38.949636150772669</v>
       </c>
       <c r="G68" s="2">
-        <v>83.460167541042082</v>
+        <v>101.73625702838848</v>
       </c>
       <c r="H68" s="2">
-        <v>-1.4230249364248759</v>
+        <v>-1.0690153944168492</v>
       </c>
       <c r="I68" s="2">
-        <v>-0.36807106728365035</v>
+        <v>-0.25727923910887596</v>
       </c>
       <c r="J68" s="2">
-        <v>111.66249464166123</v>
+        <v>112.84002075376438</v>
       </c>
       <c r="K68" s="2">
-        <v>895.5966605060155</v>
+        <v>863.14909718187937</v>
       </c>
       <c r="L68" s="2">
-        <v>39.008571560734964</v>
+        <v>40.370468807833916</v>
       </c>
       <c r="M68" s="2">
-        <v>-0.67452259954482119</v>
+        <v>-0.2099407387819891</v>
       </c>
       <c r="N68" s="2">
-        <v>0.63307605424714464</v>
+        <v>0.85967015757084941</v>
       </c>
       <c r="O68" s="2">
-        <v>3166.7193121202986</v>
+        <v>11927.083520079648</v>
       </c>
       <c r="P68" s="2">
-        <v>303.41973149973808</v>
+        <v>406.81328966817603</v>
       </c>
       <c r="Q68" s="2">
-        <v>0.79814303116906071</v>
+        <v>1.5079864176745648</v>
       </c>
       <c r="R68" s="2">
-        <v>-1.3127790797107477</v>
+        <v>-1.039107494717237</v>
       </c>
       <c r="S68" s="2">
-        <v>1.4173894726514851</v>
+        <v>1.7385692108623201</v>
       </c>
       <c r="T68" s="2">
-        <v>2.8678825918025499</v>
+        <v>4.5976220780068893</v>
       </c>
       <c r="U68" s="2">
-        <v>0.15377904135512599</v>
+        <v>0.36431211627069859</v>
       </c>
       <c r="V68" s="2">
-        <v>-0.25438582212134403</v>
+        <v>-0.13653777586801849</v>
       </c>
       <c r="W68" s="2">
-        <v>3.2051388811753476</v>
+        <v>3.0076612298891936</v>
       </c>
       <c r="X68" s="2">
-        <v>9.7441563262361724E-2</v>
+        <v>0.21937120013758493</v>
       </c>
       <c r="Y68" s="2">
-        <v>7.1613627331646668E-2</v>
+        <v>6.4762614919924036E-2</v>
       </c>
       <c r="Z68" s="2">
-        <v>2.1383094635532996E-2</v>
+        <v>2.7027002270248041E-2</v>
       </c>
       <c r="AA68" s="2">
-        <v>0.40451955345111362</v>
+        <v>0.17948765232340697</v>
       </c>
       <c r="AB68" s="2">
-        <v>30.690787648266166</v>
+        <v>35.820466267626827</v>
       </c>
       <c r="AC68" s="2">
-        <v>2.9033163461078866</v>
+        <v>16.388946616672914</v>
       </c>
       <c r="AD68" s="2">
-        <v>4.2545573865765046E-2</v>
+        <v>4.0568752859311455E-2</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6642,91 +6700,91 @@
         <v>93</v>
       </c>
       <c r="B69" s="2">
-        <v>3.8313671386399974</v>
+        <v>5.7427702909363383</v>
       </c>
       <c r="C69" s="2">
-        <v>86.302344088631855</v>
+        <v>85.091925157909643</v>
       </c>
       <c r="D69" s="2">
-        <v>150.71143465740184</v>
+        <v>235.91271164374561</v>
       </c>
       <c r="E69" s="2">
-        <v>766.78092189702761</v>
+        <v>1685.5815490818663</v>
       </c>
       <c r="F69" s="2">
-        <v>-18.290456741459685</v>
+        <v>31.126363845317105</v>
       </c>
       <c r="G69" s="2">
-        <v>106.14098244044698</v>
+        <v>146.17749393092853</v>
       </c>
       <c r="H69" s="2">
-        <v>-1.1681209111582449</v>
+        <v>-1.5343452269400002</v>
       </c>
       <c r="I69" s="2">
-        <v>-0.24742055693220116</v>
+        <v>-0.19019743372885051</v>
       </c>
       <c r="J69" s="2">
-        <v>109.48877669722538</v>
+        <v>157.23918762333946</v>
       </c>
       <c r="K69" s="2">
-        <v>766.98846265916939</v>
+        <v>1164.4511864629367</v>
       </c>
       <c r="L69" s="2">
-        <v>39.289519475857688</v>
+        <v>89.786321918061205</v>
       </c>
       <c r="M69" s="2">
-        <v>0.25416795821260879</v>
+        <v>1.0647036059798387</v>
       </c>
       <c r="N69" s="2">
-        <v>1.2001415745466197</v>
+        <v>1.7842095002629861</v>
       </c>
       <c r="O69" s="2">
-        <v>10247.78104541193</v>
+        <v>14904.206478317155</v>
       </c>
       <c r="P69" s="2">
-        <v>333.25551767113404</v>
+        <v>204.53041999444102</v>
       </c>
       <c r="Q69" s="2">
-        <v>1.3806449511812673</v>
+        <v>1.2252465743999026</v>
       </c>
       <c r="R69" s="2">
-        <v>-0.75005737039844067</v>
+        <v>-0.57792590073129035</v>
       </c>
       <c r="S69" s="2">
-        <v>2.2104203999124055</v>
+        <v>7.8312601023893427</v>
       </c>
       <c r="T69" s="2">
-        <v>5.4238884239346916</v>
+        <v>7.7493519725380571</v>
       </c>
       <c r="U69" s="2">
-        <v>0.31993773297195921</v>
+        <v>0.50087258164313131</v>
       </c>
       <c r="V69" s="2">
-        <v>-0.14928071080903585</v>
+        <v>-0.41549183235366727</v>
       </c>
       <c r="W69" s="2">
-        <v>2.7388645558209666</v>
+        <v>3.7288695830441512</v>
       </c>
       <c r="X69" s="2">
-        <v>0.19517929330916578</v>
+        <v>0.24685446188307239</v>
       </c>
       <c r="Y69" s="2">
-        <v>8.7481725108022518E-2</v>
+        <v>5.3739004977850932E-2</v>
       </c>
       <c r="Z69" s="2">
-        <v>4.356379816437711E-2</v>
+        <v>6.1151685541658632E-2</v>
       </c>
       <c r="AA69" s="2">
-        <v>0.23920162543683016</v>
+        <v>0.21475800006686735</v>
       </c>
       <c r="AB69" s="2">
-        <v>29.767228846407221</v>
+        <v>32.870634414883916</v>
       </c>
       <c r="AC69" s="2">
-        <v>22.008483078000388</v>
+        <v>31.372005451529827</v>
       </c>
       <c r="AD69" s="2">
-        <v>4.8477879928473681E-2</v>
+        <v>6.2191342823780638E-2</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6734,91 +6792,91 @@
         <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>4.0555596584065716</v>
+        <v>3.8480074464773666</v>
       </c>
       <c r="C70" s="2">
-        <v>70.54436908559839</v>
+        <v>93.798283011771616</v>
       </c>
       <c r="D70" s="2">
-        <v>152.0452078108589</v>
+        <v>145.45097125406841</v>
       </c>
       <c r="E70" s="2">
-        <v>665.30037668123077</v>
+        <v>657.17993850718665</v>
       </c>
       <c r="F70" s="2">
-        <v>-38.949636150772669</v>
+        <v>-25.637733031818914</v>
       </c>
       <c r="G70" s="2">
-        <v>101.73625702838848</v>
+        <v>122.10085606087328</v>
       </c>
       <c r="H70" s="2">
-        <v>-1.0690153944168492</v>
+        <v>-1.1327653570859335</v>
       </c>
       <c r="I70" s="2">
-        <v>-0.25727923910887596</v>
+        <v>-0.23524984333599858</v>
       </c>
       <c r="J70" s="2">
-        <v>112.84002075376438</v>
+        <v>109.23341663278545</v>
       </c>
       <c r="K70" s="2">
-        <v>863.14909718187937</v>
+        <v>766.97549072452182</v>
       </c>
       <c r="L70" s="2">
-        <v>40.370468807833916</v>
+        <v>36.989241372596027</v>
       </c>
       <c r="M70" s="2">
-        <v>-0.2099407387819891</v>
+        <v>2.6834528986514831E-2</v>
       </c>
       <c r="N70" s="2">
-        <v>0.85967015757084941</v>
+        <v>0.94684087443697884</v>
       </c>
       <c r="O70" s="2">
-        <v>11927.083520079648</v>
+        <v>13028.088631715045</v>
       </c>
       <c r="P70" s="2">
-        <v>406.81328966817603</v>
+        <v>171.1617636208012</v>
       </c>
       <c r="Q70" s="2">
-        <v>1.5079864176745648</v>
+        <v>0.94494090074979009</v>
       </c>
       <c r="R70" s="2">
-        <v>-1.039107494717237</v>
+        <v>-1.0056317503806314</v>
       </c>
       <c r="S70" s="2">
-        <v>1.7385692108623201</v>
+        <v>2.282375978448322</v>
       </c>
       <c r="T70" s="2">
-        <v>4.5976220780068893</v>
+        <v>8.4443686557889066</v>
       </c>
       <c r="U70" s="2">
-        <v>0.36431211627069859</v>
+        <v>0.41451247258711954</v>
       </c>
       <c r="V70" s="2">
-        <v>-0.13653777586801849</v>
+        <v>-0.32327062198313666</v>
       </c>
       <c r="W70" s="2">
-        <v>3.0076612298891936</v>
+        <v>2.7496649899641183</v>
       </c>
       <c r="X70" s="2">
-        <v>0.21937120013758493</v>
+        <v>0.19439146272731678</v>
       </c>
       <c r="Y70" s="2">
-        <v>6.4762614919924036E-2</v>
+        <v>6.6599469404817702E-2</v>
       </c>
       <c r="Z70" s="2">
-        <v>2.7027002270248041E-2</v>
+        <v>3.7737963381768963E-2</v>
       </c>
       <c r="AA70" s="2">
-        <v>0.17948765232340697</v>
+        <v>0.18598970285722882</v>
       </c>
       <c r="AB70" s="2">
-        <v>35.820466267626827</v>
+        <v>26.841960012225364</v>
       </c>
       <c r="AC70" s="2">
-        <v>16.388946616672914</v>
+        <v>12.527207379627569</v>
       </c>
       <c r="AD70" s="2">
-        <v>4.0568752859311455E-2</v>
+        <v>4.1586554864926524E-2</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6826,91 +6884,91 @@
         <v>95</v>
       </c>
       <c r="B71" s="2">
-        <v>5.7427702909363383</v>
+        <v>0.59557478666387076</v>
       </c>
       <c r="C71" s="2">
-        <v>85.091925157909643</v>
+        <v>23.154288976155311</v>
       </c>
       <c r="D71" s="2">
-        <v>235.91271164374561</v>
+        <v>125.14943851292551</v>
       </c>
       <c r="E71" s="2">
-        <v>1685.5815490818663</v>
+        <v>555.12217570491691</v>
       </c>
       <c r="F71" s="2">
-        <v>31.126363845317105</v>
+        <v>49.84389957181552</v>
       </c>
       <c r="G71" s="2">
-        <v>146.17749393092853</v>
+        <v>43.049912835525284</v>
       </c>
       <c r="H71" s="2">
-        <v>-1.5343452269400002</v>
+        <v>-1.7895116284872572</v>
       </c>
       <c r="I71" s="2">
-        <v>-0.19019743372885051</v>
+        <v>-0.469784685499678</v>
       </c>
       <c r="J71" s="2">
-        <v>157.23918762333946</v>
+        <v>48.367527347503092</v>
       </c>
       <c r="K71" s="2">
-        <v>1164.4511864629367</v>
+        <v>90.882825489505478</v>
       </c>
       <c r="L71" s="2">
-        <v>89.786321918061205</v>
+        <v>26.983836644770737</v>
       </c>
       <c r="M71" s="2">
-        <v>1.0647036059798387</v>
+        <v>3.7549921236823353E-2</v>
       </c>
       <c r="N71" s="2">
-        <v>1.7842095002629861</v>
+        <v>1.5939796723250867</v>
       </c>
       <c r="O71" s="2">
-        <v>14904.206478317155</v>
+        <v>863.43438814795797</v>
       </c>
       <c r="P71" s="2">
-        <v>204.53041999444102</v>
+        <v>18.131234052539277</v>
       </c>
       <c r="Q71" s="2">
-        <v>1.2252465743999026</v>
+        <v>0.35322459112013449</v>
       </c>
       <c r="R71" s="2">
-        <v>-0.57792590073129035</v>
+        <v>-0.65186079325313495</v>
       </c>
       <c r="S71" s="2">
-        <v>7.8312601023893427</v>
+        <v>6.472508210286863</v>
       </c>
       <c r="T71" s="2">
-        <v>7.7493519725380571</v>
+        <v>12.571845512965051</v>
       </c>
       <c r="U71" s="2">
-        <v>0.50087258164313131</v>
+        <v>0.47953460191353409</v>
       </c>
       <c r="V71" s="2">
-        <v>-0.41549183235366727</v>
+        <v>0.65964160875873279</v>
       </c>
       <c r="W71" s="2">
-        <v>3.7288695830441512</v>
+        <v>0.61574716892386339</v>
       </c>
       <c r="X71" s="2">
-        <v>0.24685446188307239</v>
+        <v>4.3926710324906131E-2</v>
       </c>
       <c r="Y71" s="2">
-        <v>5.3739004977850932E-2</v>
+        <v>8.9814323099245263E-3</v>
       </c>
       <c r="Z71" s="2">
-        <v>6.1151685541658632E-2</v>
+        <v>8.3061573932562957E-2</v>
       </c>
       <c r="AA71" s="2">
-        <v>0.21475800006686735</v>
+        <v>0.19161630232296439</v>
       </c>
       <c r="AB71" s="2">
-        <v>32.870634414883916</v>
+        <v>11.29731349457411</v>
       </c>
       <c r="AC71" s="2">
-        <v>31.372005451529827</v>
+        <v>134.42865382570946</v>
       </c>
       <c r="AD71" s="2">
-        <v>6.2191342823780638E-2</v>
+        <v>5.088205999370117E-2</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6918,276 +6976,154 @@
         <v>96</v>
       </c>
       <c r="B72" s="2">
-        <v>3.8480074464773666</v>
+        <v>-5.2419667483812306E-2</v>
       </c>
       <c r="C72" s="2">
-        <v>93.798283011771616</v>
+        <v>11.630173948581788</v>
       </c>
       <c r="D72" s="2">
-        <v>145.45097125406841</v>
+        <v>0.35847381663618932</v>
       </c>
       <c r="E72" s="2">
-        <v>657.17993850718665</v>
+        <v>1.9517615827409935</v>
       </c>
       <c r="F72" s="2">
-        <v>-25.637733031818914</v>
+        <v>-45.742557828871554</v>
       </c>
       <c r="G72" s="2">
-        <v>122.10085606087328</v>
+        <v>10.734702388909636</v>
       </c>
       <c r="H72" s="2">
-        <v>-1.1327653570859335</v>
+        <v>-1.7304876859927862</v>
       </c>
       <c r="I72" s="2">
-        <v>-0.23524984333599858</v>
+        <v>-0.51920837772259254</v>
       </c>
       <c r="J72" s="2">
-        <v>109.23341663278545</v>
+        <v>-9.8983080434578739</v>
       </c>
       <c r="K72" s="2">
-        <v>766.97549072452182</v>
+        <v>-4.3548348883629524</v>
       </c>
       <c r="L72" s="2">
-        <v>36.989241372596027</v>
+        <v>5.8703688670533355E-2</v>
       </c>
       <c r="M72" s="2">
-        <v>2.6834528986514831E-2</v>
+        <v>-1.6152500953627487</v>
       </c>
       <c r="N72" s="2">
-        <v>0.94684087443697884</v>
+        <v>6.9810057715704185E-2</v>
       </c>
       <c r="O72" s="2">
-        <v>13028.088631715045</v>
+        <v>27.094921650689042</v>
       </c>
       <c r="P72" s="2">
-        <v>171.1617636208012</v>
+        <v>2.9322810233467146E-2</v>
       </c>
       <c r="Q72" s="2">
-        <v>0.94494090074979009</v>
+        <v>9.68409610214109E-4</v>
       </c>
       <c r="R72" s="2">
-        <v>-1.0056317503806314</v>
+        <v>-1.617890308612278</v>
       </c>
       <c r="S72" s="2">
-        <v>2.282375978448322</v>
+        <v>-1.6156265951957783E-2</v>
       </c>
       <c r="T72" s="2">
-        <v>8.4443686557889066</v>
+        <v>-0.26682968450820432</v>
       </c>
       <c r="U72" s="2">
-        <v>0.41451247258711954</v>
+        <v>-6.2313535012307297E-2</v>
       </c>
       <c r="V72" s="2">
-        <v>-0.32327062198313666</v>
+        <v>8.7678654428015423E-2</v>
       </c>
       <c r="W72" s="2">
-        <v>2.7496649899641183</v>
+        <v>4.5622972323451491E-3</v>
       </c>
       <c r="X72" s="2">
-        <v>0.19439146272731678</v>
+        <v>-2.2499826617237127E-2</v>
       </c>
       <c r="Y72" s="2">
-        <v>6.6599469404817702E-2</v>
+        <v>-2.2607724593135076E-4</v>
       </c>
       <c r="Z72" s="2">
-        <v>3.7737963381768963E-2</v>
+        <v>3.6030019383778713E-3</v>
       </c>
       <c r="AA72" s="2">
-        <v>0.18598970285722882</v>
+        <v>-2.9019056911680934E-3</v>
       </c>
       <c r="AB72" s="2">
-        <v>26.841960012225364</v>
+        <v>1.5490525558849338E-2</v>
       </c>
       <c r="AC72" s="2">
-        <v>12.527207379627569</v>
+        <v>6.3027971008043637E-2</v>
       </c>
       <c r="AD72" s="2">
-        <v>4.1586554864926524E-2</v>
+        <v>6.0973981915582952E-4</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="2">
-        <v>0.59557478666387076</v>
-      </c>
-      <c r="C73" s="2">
-        <v>23.154288976155311</v>
-      </c>
-      <c r="D73" s="2">
-        <v>125.14943851292551</v>
-      </c>
-      <c r="E73" s="2">
-        <v>555.12217570491691</v>
-      </c>
-      <c r="F73" s="2">
-        <v>49.84389957181552</v>
-      </c>
-      <c r="G73" s="2">
-        <v>43.049912835525284</v>
-      </c>
-      <c r="H73" s="2">
-        <v>-1.7895116284872572</v>
-      </c>
-      <c r="I73" s="2">
-        <v>-0.469784685499678</v>
-      </c>
-      <c r="J73" s="2">
-        <v>48.367527347503092</v>
-      </c>
-      <c r="K73" s="2">
-        <v>90.882825489505478</v>
-      </c>
-      <c r="L73" s="2">
-        <v>26.983836644770737</v>
-      </c>
-      <c r="M73" s="2">
-        <v>3.7549921236823353E-2</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1.5939796723250867</v>
-      </c>
-      <c r="O73" s="2">
-        <v>863.43438814795797</v>
-      </c>
-      <c r="P73" s="2">
-        <v>18.131234052539277</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>0.35322459112013449</v>
-      </c>
-      <c r="R73" s="2">
-        <v>-0.65186079325313495</v>
-      </c>
-      <c r="S73" s="2">
-        <v>6.472508210286863</v>
-      </c>
-      <c r="T73" s="2">
-        <v>12.571845512965051</v>
-      </c>
-      <c r="U73" s="2">
-        <v>0.47953460191353409</v>
-      </c>
-      <c r="V73" s="2">
-        <v>0.65964160875873279</v>
-      </c>
-      <c r="W73" s="2">
-        <v>0.61574716892386339</v>
-      </c>
-      <c r="X73" s="2">
-        <v>4.3926710324906131E-2</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>8.9814323099245263E-3</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>8.3061573932562957E-2</v>
-      </c>
-      <c r="AA73" s="2">
-        <v>0.19161630232296439</v>
-      </c>
-      <c r="AB73" s="2">
-        <v>11.29731349457411</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>134.42865382570946</v>
-      </c>
-      <c r="AD73" s="2">
-        <v>5.088205999370117E-2</v>
-      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
     </row>
     <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="2">
-        <v>-5.2419667483812306E-2</v>
-      </c>
-      <c r="C74" s="2">
-        <v>11.630173948581788</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.35847381663618932</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1.9517615827409935</v>
-      </c>
-      <c r="F74" s="2">
-        <v>-45.742557828871554</v>
-      </c>
-      <c r="G74" s="2">
-        <v>10.734702388909636</v>
-      </c>
-      <c r="H74" s="2">
-        <v>-1.7304876859927862</v>
-      </c>
-      <c r="I74" s="2">
-        <v>-0.51920837772259254</v>
-      </c>
-      <c r="J74" s="2">
-        <v>-9.8983080434578739</v>
-      </c>
-      <c r="K74" s="2">
-        <v>-4.3548348883629524</v>
-      </c>
-      <c r="L74" s="2">
-        <v>5.8703688670533355E-2</v>
-      </c>
-      <c r="M74" s="2">
-        <v>-1.6152500953627487</v>
-      </c>
-      <c r="N74" s="2">
-        <v>6.9810057715704185E-2</v>
-      </c>
-      <c r="O74" s="2">
-        <v>27.094921650689042</v>
-      </c>
-      <c r="P74" s="2">
-        <v>2.9322810233467146E-2</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>9.68409610214109E-4</v>
-      </c>
-      <c r="R74" s="2">
-        <v>-1.617890308612278</v>
-      </c>
-      <c r="S74" s="2">
-        <v>-1.6156265951957783E-2</v>
-      </c>
-      <c r="T74" s="2">
-        <v>-0.26682968450820432</v>
-      </c>
-      <c r="U74" s="2">
-        <v>-6.2313535012307297E-2</v>
-      </c>
-      <c r="V74" s="2">
-        <v>8.7678654428015423E-2</v>
-      </c>
-      <c r="W74" s="2">
-        <v>4.5622972323451491E-3</v>
-      </c>
-      <c r="X74" s="2">
-        <v>-2.2499826617237127E-2</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>-2.2607724593135076E-4</v>
-      </c>
-      <c r="Z74" s="2">
-        <v>3.6030019383778713E-3</v>
-      </c>
-      <c r="AA74" s="2">
-        <v>-2.9019056911680934E-3</v>
-      </c>
-      <c r="AB74" s="2">
-        <v>1.5490525558849338E-2</v>
-      </c>
-      <c r="AC74" s="2">
-        <v>6.3027971008043637E-2</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>6.0973981915582952E-4</v>
-      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
@@ -35833,68 +35769,6 @@
       <c r="AC998" s="2"/>
       <c r="AD998" s="2"/>
     </row>
-    <row r="999" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-      <c r="AA999" s="2"/>
-      <c r="AB999" s="2"/>
-      <c r="AC999" s="2"/>
-      <c r="AD999" s="2"/>
-    </row>
-    <row r="1000" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-      <c r="AA1000" s="2"/>
-      <c r="AB1000" s="2"/>
-      <c r="AC1000" s="2"/>
-      <c r="AD1000" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
